--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE11085-E7AB-465E-8B81-D1445F75629F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775620AB-B82B-47A2-A634-FDD56C1AF8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
   </bookViews>
   <sheets>
     <sheet name="Auditoría energética sector pub" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="Lista_Anno">Hoja2!$B$5:$B$25</definedName>
-    <definedName name="Lista_Auditor">Hoja2!#REF!</definedName>
+    <definedName name="Lista_Auditor">Hoja2!$H$5:$H$6</definedName>
     <definedName name="Lista_Auditoria">Hoja2!$E$5:$E$7</definedName>
-    <definedName name="Tabla_Auditor">Hoja2!#REF!</definedName>
+    <definedName name="Tabla_Auditor">Hoja2!$H$5:$I$6</definedName>
     <definedName name="Tabla_Auditoria">Hoja2!$E$5:$F$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Anno</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Tipo Auditoria</t>
   </si>
   <si>
-    <t>GEI Auditoría</t>
-  </si>
-  <si>
-    <t>GEI Auditoría iniciativa</t>
-  </si>
-  <si>
     <t>Año al que corresponde el registro</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>GEI antes de la implementación de la iniciativa</t>
   </si>
   <si>
-    <t>GEI posterior a la implementación de la iniciativa</t>
-  </si>
-  <si>
     <t>Tipo 1</t>
   </si>
   <si>
@@ -96,6 +87,33 @@
   </si>
   <si>
     <t>Tipo 3</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Institución</t>
+  </si>
+  <si>
+    <t>Nombre de la institución</t>
+  </si>
+  <si>
+    <t>GEI reducido por auditoría</t>
+  </si>
+  <si>
+    <t>GEI posterior a la implementación de la iniciativa (Cambio de lámparas)</t>
+  </si>
+  <si>
+    <t>Ramon SAC</t>
+  </si>
+  <si>
+    <t>Cooperativa</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIREH </t>
   </si>
 </sst>
 </file>
@@ -150,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,11 +204,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +261,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -546,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1772-35AF-4198-9510-18D55384E446}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,12 +596,13 @@
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -573,34 +613,44 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2018</v>
       </c>
@@ -609,19 +659,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <f>VLOOKUP(E3,Tabla_Auditor,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100</v>
+      </c>
+      <c r="H3" s="9">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9">
-        <v>100</v>
-      </c>
-      <c r="F3" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2018</v>
       </c>
@@ -630,19 +687,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <f>VLOOKUP(E4,Tabla_Auditor,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9">
         <v>237</v>
       </c>
-      <c r="F4" s="9">
+      <c r="H4" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2018</v>
       </c>
@@ -651,19 +715,26 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <f>VLOOKUP(E5,Tabla_Auditor,2,)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="11">
         <v>187</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2018</v>
       </c>
@@ -672,3375 +743,4907 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <f>VLOOKUP(E6,Tabla_Auditor,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9">
         <v>391</v>
       </c>
-      <c r="F6" s="12">
+      <c r="H6" s="12">
         <v>30.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="e">
+        <f>VLOOKUP(E7,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="e">
+        <f>VLOOKUP(E8,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="e">
+        <f>VLOOKUP(E9,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="18" t="e">
+        <f>VLOOKUP(E10,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="18" t="e">
+        <f>VLOOKUP(E11,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="e">
+        <f>VLOOKUP(E12,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="18" t="e">
+        <f>VLOOKUP(E13,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="18" t="e">
+        <f>VLOOKUP(E14,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="18" t="e">
+        <f>VLOOKUP(E15,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="18" t="e">
+        <f>VLOOKUP(E16,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="e">
+        <f>VLOOKUP(E17,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="e">
+        <f>VLOOKUP(E18,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="e">
+        <f>VLOOKUP(E19,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="e">
+        <f>VLOOKUP(E20,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="e">
+        <f>VLOOKUP(E21,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="18" t="e">
+        <f>VLOOKUP(E22,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="18" t="e">
+        <f>VLOOKUP(E23,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="e">
+        <f>VLOOKUP(E24,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="18" t="e">
+        <f>VLOOKUP(E25,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="18" t="e">
+        <f>VLOOKUP(E26,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="18" t="e">
+        <f>VLOOKUP(E27,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="18" t="e">
+        <f>VLOOKUP(E28,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="18" t="e">
+        <f>VLOOKUP(E29,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="e">
+        <f>VLOOKUP(E30,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="e">
+        <f>VLOOKUP(E31,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="e">
+        <f>VLOOKUP(E32,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="e">
+        <f>VLOOKUP(E33,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="18" t="e">
+        <f>VLOOKUP(E34,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="e">
+        <f>VLOOKUP(E35,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="18" t="e">
+        <f>VLOOKUP(E36,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="e">
+        <f>VLOOKUP(E37,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="18" t="e">
+        <f>VLOOKUP(E38,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="18" t="e">
+        <f>VLOOKUP(E39,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="18" t="e">
+        <f>VLOOKUP(E40,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="18" t="e">
+        <f>VLOOKUP(E41,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="18" t="e">
+        <f>VLOOKUP(E42,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="18" t="e">
+        <f>VLOOKUP(E43,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="18" t="e">
+        <f>VLOOKUP(E44,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="18" t="e">
+        <f>VLOOKUP(E45,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="18" t="e">
+        <f>VLOOKUP(E46,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="18" t="e">
+        <f>VLOOKUP(E47,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="18" t="e">
+        <f>VLOOKUP(E48,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="18" t="e">
+        <f>VLOOKUP(E49,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="18" t="e">
+        <f>VLOOKUP(E50,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="18" t="e">
+        <f>VLOOKUP(E51,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="18" t="e">
+        <f>VLOOKUP(E52,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="18" t="e">
+        <f>VLOOKUP(E53,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="18" t="e">
+        <f>VLOOKUP(E54,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="18" t="e">
+        <f>VLOOKUP(E55,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="18" t="e">
+        <f>VLOOKUP(E56,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="18" t="e">
+        <f>VLOOKUP(E57,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="18" t="e">
+        <f>VLOOKUP(E58,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="18" t="e">
+        <f>VLOOKUP(E59,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="18" t="e">
+        <f>VLOOKUP(E60,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="18" t="e">
+        <f>VLOOKUP(E61,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="18" t="e">
+        <f>VLOOKUP(E62,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="18" t="e">
+        <f>VLOOKUP(E63,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="18" t="e">
+        <f>VLOOKUP(E64,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="18" t="e">
+        <f>VLOOKUP(E65,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="18" t="e">
+        <f>VLOOKUP(E66,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13" t="e">
         <f t="shared" ref="B67:B130" si="1">VLOOKUP(C67,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="18" t="e">
+        <f>VLOOKUP(E67,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="18" t="e">
+        <f>VLOOKUP(E68,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="18" t="e">
+        <f>VLOOKUP(E69,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="18" t="e">
+        <f>VLOOKUP(E70,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="18" t="e">
+        <f>VLOOKUP(E71,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="18" t="e">
+        <f>VLOOKUP(E72,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="18" t="e">
+        <f>VLOOKUP(E73,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="18" t="e">
+        <f>VLOOKUP(E74,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="18" t="e">
+        <f>VLOOKUP(E75,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="18" t="e">
+        <f>VLOOKUP(E76,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="18" t="e">
+        <f>VLOOKUP(E77,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="18" t="e">
+        <f>VLOOKUP(E78,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="18" t="e">
+        <f>VLOOKUP(E79,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="18" t="e">
+        <f>VLOOKUP(E80,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="18" t="e">
+        <f>VLOOKUP(E81,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="18" t="e">
+        <f>VLOOKUP(E82,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="18" t="e">
+        <f>VLOOKUP(E83,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="18" t="e">
+        <f>VLOOKUP(E84,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="18" t="e">
+        <f>VLOOKUP(E85,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="18" t="e">
+        <f>VLOOKUP(E86,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="18" t="e">
+        <f>VLOOKUP(E87,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="18" t="e">
+        <f>VLOOKUP(E88,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="18" t="e">
+        <f>VLOOKUP(E89,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="18" t="e">
+        <f>VLOOKUP(E90,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="18" t="e">
+        <f>VLOOKUP(E91,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="18" t="e">
+        <f>VLOOKUP(E92,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="18" t="e">
+        <f>VLOOKUP(E93,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="18" t="e">
+        <f>VLOOKUP(E94,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="18" t="e">
+        <f>VLOOKUP(E95,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="18" t="e">
+        <f>VLOOKUP(E96,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="18" t="e">
+        <f>VLOOKUP(E97,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="18" t="e">
+        <f>VLOOKUP(E98,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="18" t="e">
+        <f>VLOOKUP(E99,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="18" t="e">
+        <f>VLOOKUP(E100,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="18" t="e">
+        <f>VLOOKUP(E101,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="18" t="e">
+        <f>VLOOKUP(E102,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="18" t="e">
+        <f>VLOOKUP(E103,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="18" t="e">
+        <f>VLOOKUP(E104,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="18" t="e">
+        <f>VLOOKUP(E105,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="18" t="e">
+        <f>VLOOKUP(E106,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="18" t="e">
+        <f>VLOOKUP(E107,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="18" t="e">
+        <f>VLOOKUP(E108,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="18" t="e">
+        <f>VLOOKUP(E109,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D110" s="18" t="e">
+        <f>VLOOKUP(E110,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D111" s="18" t="e">
+        <f>VLOOKUP(E111,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D112" s="18" t="e">
+        <f>VLOOKUP(E112,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D113" s="18" t="e">
+        <f>VLOOKUP(E113,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D114" s="18" t="e">
+        <f>VLOOKUP(E114,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D115" s="18" t="e">
+        <f>VLOOKUP(E115,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D116" s="18" t="e">
+        <f>VLOOKUP(E116,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="18" t="e">
+        <f>VLOOKUP(E117,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D118" s="18" t="e">
+        <f>VLOOKUP(E118,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D119" s="18" t="e">
+        <f>VLOOKUP(E119,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="18" t="e">
+        <f>VLOOKUP(E120,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="18" t="e">
+        <f>VLOOKUP(E121,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="18" t="e">
+        <f>VLOOKUP(E122,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D123" s="18" t="e">
+        <f>VLOOKUP(E123,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D124" s="18" t="e">
+        <f>VLOOKUP(E124,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D125" s="18" t="e">
+        <f>VLOOKUP(E125,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D126" s="18" t="e">
+        <f>VLOOKUP(E126,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="18" t="e">
+        <f>VLOOKUP(E127,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D128" s="18" t="e">
+        <f>VLOOKUP(E128,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="6"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D129" s="18" t="e">
+        <f>VLOOKUP(E129,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="6"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="18" t="e">
+        <f>VLOOKUP(E130,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="13" t="e">
         <f t="shared" ref="B131:B194" si="2">VLOOKUP(C131,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D131" s="18" t="e">
+        <f>VLOOKUP(E131,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="6"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D132" s="18" t="e">
+        <f>VLOOKUP(E132,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="6"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D133" s="18" t="e">
+        <f>VLOOKUP(E133,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="18" t="e">
+        <f>VLOOKUP(E134,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="6"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="18" t="e">
+        <f>VLOOKUP(E135,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="18" t="e">
+        <f>VLOOKUP(E136,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="18" t="e">
+        <f>VLOOKUP(E137,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="6"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="18" t="e">
+        <f>VLOOKUP(E138,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="6"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D139" s="18" t="e">
+        <f>VLOOKUP(E139,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="6"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D140" s="18" t="e">
+        <f>VLOOKUP(E140,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="6"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="18" t="e">
+        <f>VLOOKUP(E141,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="6"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="18" t="e">
+        <f>VLOOKUP(E142,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="6"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D143" s="18" t="e">
+        <f>VLOOKUP(E143,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D144" s="18" t="e">
+        <f>VLOOKUP(E144,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="18" t="e">
+        <f>VLOOKUP(E145,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="6"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="18" t="e">
+        <f>VLOOKUP(E146,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="6"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D147" s="18" t="e">
+        <f>VLOOKUP(E147,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="6"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="18" t="e">
+        <f>VLOOKUP(E148,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="6"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="18" t="e">
+        <f>VLOOKUP(E149,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="6"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="18" t="e">
+        <f>VLOOKUP(E150,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="6"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="18" t="e">
+        <f>VLOOKUP(E151,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="6"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D152" s="18" t="e">
+        <f>VLOOKUP(E152,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="6"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D153" s="18" t="e">
+        <f>VLOOKUP(E153,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="6"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D154" s="18" t="e">
+        <f>VLOOKUP(E154,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="6"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="18" t="e">
+        <f>VLOOKUP(E155,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="6"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="18" t="e">
+        <f>VLOOKUP(E156,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="6"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="18" t="e">
+        <f>VLOOKUP(E157,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="6"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="18" t="e">
+        <f>VLOOKUP(E158,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="6"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="18" t="e">
+        <f>VLOOKUP(E159,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="6"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="18" t="e">
+        <f>VLOOKUP(E160,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="6"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="18" t="e">
+        <f>VLOOKUP(E161,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
       <c r="B162" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="6"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D162" s="18" t="e">
+        <f>VLOOKUP(E162,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="6"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D163" s="18" t="e">
+        <f>VLOOKUP(E163,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="6"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="18" t="e">
+        <f>VLOOKUP(E164,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="6"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="18" t="e">
+        <f>VLOOKUP(E165,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D166" s="18" t="e">
+        <f>VLOOKUP(E166,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="6"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D167" s="18" t="e">
+        <f>VLOOKUP(E167,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="6"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="18" t="e">
+        <f>VLOOKUP(E168,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="6"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="18" t="e">
+        <f>VLOOKUP(E169,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="6"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D170" s="18" t="e">
+        <f>VLOOKUP(E170,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="6"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="18" t="e">
+        <f>VLOOKUP(E171,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="6"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="18" t="e">
+        <f>VLOOKUP(E172,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="6"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D173" s="18" t="e">
+        <f>VLOOKUP(E173,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="6"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D174" s="18" t="e">
+        <f>VLOOKUP(E174,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="6"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D175" s="18" t="e">
+        <f>VLOOKUP(E175,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="6"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D176" s="18" t="e">
+        <f>VLOOKUP(E176,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="6"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D177" s="18" t="e">
+        <f>VLOOKUP(E177,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="6"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D178" s="18" t="e">
+        <f>VLOOKUP(E178,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="6"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D179" s="18" t="e">
+        <f>VLOOKUP(E179,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="6"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D180" s="18" t="e">
+        <f>VLOOKUP(E180,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="6"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D181" s="18" t="e">
+        <f>VLOOKUP(E181,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="6"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D182" s="18" t="e">
+        <f>VLOOKUP(E182,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="6"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D183" s="18" t="e">
+        <f>VLOOKUP(E183,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="6"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="18" t="e">
+        <f>VLOOKUP(E184,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="6"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="18" t="e">
+        <f>VLOOKUP(E185,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="6"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="18" t="e">
+        <f>VLOOKUP(E186,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="6"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="18" t="e">
+        <f>VLOOKUP(E187,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="6"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="18" t="e">
+        <f>VLOOKUP(E188,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="6"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="18" t="e">
+        <f>VLOOKUP(E189,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="6"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D190" s="18" t="e">
+        <f>VLOOKUP(E190,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="6"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D191" s="18" t="e">
+        <f>VLOOKUP(E191,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="6"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D192" s="18" t="e">
+        <f>VLOOKUP(E192,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="6"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D193" s="18" t="e">
+        <f>VLOOKUP(E193,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="6"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D194" s="18" t="e">
+        <f>VLOOKUP(E194,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="13" t="e">
         <f t="shared" ref="B195:B258" si="3">VLOOKUP(C195,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="6"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D195" s="18" t="e">
+        <f>VLOOKUP(E195,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="6"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D196" s="18" t="e">
+        <f>VLOOKUP(E196,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="6"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D197" s="18" t="e">
+        <f>VLOOKUP(E197,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="6"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D198" s="18" t="e">
+        <f>VLOOKUP(E198,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="6"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D199" s="18" t="e">
+        <f>VLOOKUP(E199,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="6"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D200" s="18" t="e">
+        <f>VLOOKUP(E200,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="6"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D201" s="18" t="e">
+        <f>VLOOKUP(E201,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="6"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D202" s="18" t="e">
+        <f>VLOOKUP(E202,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="6"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D203" s="18" t="e">
+        <f>VLOOKUP(E203,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="6"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D204" s="18" t="e">
+        <f>VLOOKUP(E204,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="14"/>
-      <c r="F205" s="6"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D205" s="18" t="e">
+        <f>VLOOKUP(E205,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="14"/>
-      <c r="F206" s="6"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D206" s="18" t="e">
+        <f>VLOOKUP(E206,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="14"/>
-      <c r="F207" s="6"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D207" s="18" t="e">
+        <f>VLOOKUP(E207,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="14"/>
-      <c r="F208" s="6"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D208" s="18" t="e">
+        <f>VLOOKUP(E208,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="6"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D209" s="18" t="e">
+        <f>VLOOKUP(E209,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E209" s="17"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
       <c r="B210" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="6"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D210" s="18" t="e">
+        <f>VLOOKUP(E210,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="6"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D211" s="18" t="e">
+        <f>VLOOKUP(E211,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="6"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D212" s="18" t="e">
+        <f>VLOOKUP(E212,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="6"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D213" s="18" t="e">
+        <f>VLOOKUP(E213,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="6"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D214" s="18" t="e">
+        <f>VLOOKUP(E214,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="6"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D215" s="18" t="e">
+        <f>VLOOKUP(E215,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="6"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D216" s="18" t="e">
+        <f>VLOOKUP(E216,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="6"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D217" s="18" t="e">
+        <f>VLOOKUP(E217,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="6"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D218" s="18" t="e">
+        <f>VLOOKUP(E218,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="6"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D219" s="18" t="e">
+        <f>VLOOKUP(E219,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="6"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D220" s="18" t="e">
+        <f>VLOOKUP(E220,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="6"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D221" s="18" t="e">
+        <f>VLOOKUP(E221,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="13"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="6"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D222" s="18" t="e">
+        <f>VLOOKUP(E222,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
       <c r="B223" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="6"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D223" s="18" t="e">
+        <f>VLOOKUP(E223,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="6"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D224" s="18" t="e">
+        <f>VLOOKUP(E224,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
       <c r="B225" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="13"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="6"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D225" s="18" t="e">
+        <f>VLOOKUP(E225,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="13"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="6"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D226" s="18" t="e">
+        <f>VLOOKUP(E226,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="13"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="6"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D227" s="18" t="e">
+        <f>VLOOKUP(E227,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="14"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="13"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="6"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D228" s="18" t="e">
+        <f>VLOOKUP(E228,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="13"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="6"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D229" s="18" t="e">
+        <f>VLOOKUP(E229,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="6"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D230" s="18" t="e">
+        <f>VLOOKUP(E230,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="6"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D231" s="18" t="e">
+        <f>VLOOKUP(E231,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="6"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D232" s="18" t="e">
+        <f>VLOOKUP(E232,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="6"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D233" s="18" t="e">
+        <f>VLOOKUP(E233,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="6"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D234" s="18" t="e">
+        <f>VLOOKUP(E234,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="6"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D235" s="18" t="e">
+        <f>VLOOKUP(E235,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="6"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D236" s="18" t="e">
+        <f>VLOOKUP(E236,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="6"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D237" s="18" t="e">
+        <f>VLOOKUP(E237,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="6"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D238" s="18" t="e">
+        <f>VLOOKUP(E238,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="6"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D239" s="18" t="e">
+        <f>VLOOKUP(E239,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="13"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="6"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D240" s="18" t="e">
+        <f>VLOOKUP(E240,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="13"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="14"/>
-      <c r="F241" s="6"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D241" s="18" t="e">
+        <f>VLOOKUP(E241,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="13"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="6"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D242" s="18" t="e">
+        <f>VLOOKUP(E242,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="14"/>
-      <c r="F243" s="6"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D243" s="18" t="e">
+        <f>VLOOKUP(E243,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="13"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="14"/>
-      <c r="F244" s="6"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D244" s="18" t="e">
+        <f>VLOOKUP(E244,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="13"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="14"/>
-      <c r="F245" s="6"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D245" s="18" t="e">
+        <f>VLOOKUP(E245,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="13"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="6"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D246" s="18" t="e">
+        <f>VLOOKUP(E246,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="13"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="14"/>
-      <c r="F247" s="6"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D247" s="18" t="e">
+        <f>VLOOKUP(E247,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="13"/>
-      <c r="D248" s="13"/>
-      <c r="E248" s="14"/>
-      <c r="F248" s="6"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D248" s="18" t="e">
+        <f>VLOOKUP(E248,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="13"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="6"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D249" s="18" t="e">
+        <f>VLOOKUP(E249,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E249" s="17"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="14"/>
-      <c r="F250" s="6"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D250" s="18" t="e">
+        <f>VLOOKUP(E250,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="6"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D251" s="18" t="e">
+        <f>VLOOKUP(E251,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="14"/>
-      <c r="F252" s="6"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D252" s="18" t="e">
+        <f>VLOOKUP(E252,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="14"/>
-      <c r="F253" s="6"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D253" s="18" t="e">
+        <f>VLOOKUP(E253,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="14"/>
-      <c r="F254" s="6"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D254" s="18" t="e">
+        <f>VLOOKUP(E254,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="6"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D255" s="18" t="e">
+        <f>VLOOKUP(E255,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="14"/>
-      <c r="F256" s="6"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D256" s="18" t="e">
+        <f>VLOOKUP(E256,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="13"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="14"/>
-      <c r="F257" s="6"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D257" s="18" t="e">
+        <f>VLOOKUP(E257,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="13"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="6"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D258" s="18" t="e">
+        <f>VLOOKUP(E258,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="13" t="e">
         <f t="shared" ref="B259:B311" si="4">VLOOKUP(C259,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="13"/>
-      <c r="D259" s="13"/>
-      <c r="E259" s="14"/>
-      <c r="F259" s="6"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D259" s="18" t="e">
+        <f>VLOOKUP(E259,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="13"/>
-      <c r="D260" s="13"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="6"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D260" s="18" t="e">
+        <f>VLOOKUP(E260,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="13"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="6"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D261" s="18" t="e">
+        <f>VLOOKUP(E261,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E261" s="17"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="6"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D262" s="18" t="e">
+        <f>VLOOKUP(E262,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="13"/>
       <c r="B263" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="13"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="14"/>
-      <c r="F263" s="6"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D263" s="18" t="e">
+        <f>VLOOKUP(E263,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E263" s="17"/>
+      <c r="F263" s="17"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="13"/>
-      <c r="D264" s="13"/>
-      <c r="E264" s="14"/>
-      <c r="F264" s="6"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D264" s="18" t="e">
+        <f>VLOOKUP(E264,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="13"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="6"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D265" s="18" t="e">
+        <f>VLOOKUP(E265,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="13"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="6"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D266" s="18" t="e">
+        <f>VLOOKUP(E266,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="13"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="14"/>
-      <c r="F267" s="6"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D267" s="18" t="e">
+        <f>VLOOKUP(E267,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
       <c r="B268" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="13"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="14"/>
-      <c r="F268" s="6"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D268" s="18" t="e">
+        <f>VLOOKUP(E268,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="13"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="14"/>
-      <c r="F269" s="6"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D269" s="18" t="e">
+        <f>VLOOKUP(E269,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="13"/>
-      <c r="D270" s="13"/>
-      <c r="E270" s="14"/>
-      <c r="F270" s="6"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D270" s="18" t="e">
+        <f>VLOOKUP(E270,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="13"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="14"/>
-      <c r="F271" s="6"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D271" s="18" t="e">
+        <f>VLOOKUP(E271,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="13"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="14"/>
-      <c r="F272" s="6"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D272" s="18" t="e">
+        <f>VLOOKUP(E272,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="13"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="14"/>
-      <c r="F273" s="6"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D273" s="18" t="e">
+        <f>VLOOKUP(E273,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E273" s="17"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="13"/>
       <c r="B274" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="13"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="14"/>
-      <c r="F274" s="6"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D274" s="18" t="e">
+        <f>VLOOKUP(E274,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="13"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="14"/>
-      <c r="F275" s="6"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D275" s="18" t="e">
+        <f>VLOOKUP(E275,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
       <c r="B276" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="13"/>
-      <c r="D276" s="13"/>
-      <c r="E276" s="14"/>
-      <c r="F276" s="6"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D276" s="18" t="e">
+        <f>VLOOKUP(E276,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="13"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="14"/>
-      <c r="F277" s="6"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D277" s="18" t="e">
+        <f>VLOOKUP(E277,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E277" s="17"/>
+      <c r="F277" s="17"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="13"/>
       <c r="B278" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="13"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="14"/>
-      <c r="F278" s="6"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D278" s="18" t="e">
+        <f>VLOOKUP(E278,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="13"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="14"/>
-      <c r="F279" s="6"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D279" s="18" t="e">
+        <f>VLOOKUP(E279,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E279" s="17"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="13"/>
       <c r="B280" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="13"/>
-      <c r="D280" s="13"/>
-      <c r="E280" s="14"/>
-      <c r="F280" s="6"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D280" s="18" t="e">
+        <f>VLOOKUP(E280,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E280" s="13"/>
+      <c r="F280" s="13"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="14"/>
-      <c r="F281" s="6"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D281" s="18" t="e">
+        <f>VLOOKUP(E281,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E281" s="17"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="13"/>
-      <c r="D282" s="13"/>
-      <c r="E282" s="14"/>
-      <c r="F282" s="6"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D282" s="18" t="e">
+        <f>VLOOKUP(E282,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
       <c r="B283" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="13"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="14"/>
-      <c r="F283" s="6"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D283" s="18" t="e">
+        <f>VLOOKUP(E283,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E283" s="17"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="13"/>
       <c r="B284" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="13"/>
-      <c r="D284" s="13"/>
-      <c r="E284" s="14"/>
-      <c r="F284" s="6"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D284" s="18" t="e">
+        <f>VLOOKUP(E284,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>
       <c r="B285" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="13"/>
-      <c r="D285" s="13"/>
-      <c r="E285" s="14"/>
-      <c r="F285" s="6"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D285" s="18" t="e">
+        <f>VLOOKUP(E285,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E285" s="17"/>
+      <c r="F285" s="17"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
       <c r="B286" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="13"/>
-      <c r="D286" s="13"/>
-      <c r="E286" s="14"/>
-      <c r="F286" s="6"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D286" s="18" t="e">
+        <f>VLOOKUP(E286,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="13"/>
       <c r="B287" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="13"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="14"/>
-      <c r="F287" s="6"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D287" s="18" t="e">
+        <f>VLOOKUP(E287,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E287" s="17"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
       <c r="B288" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="14"/>
-      <c r="F288" s="6"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D288" s="18" t="e">
+        <f>VLOOKUP(E288,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="14"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
       <c r="B289" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="13"/>
-      <c r="D289" s="13"/>
-      <c r="E289" s="14"/>
-      <c r="F289" s="6"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D289" s="18" t="e">
+        <f>VLOOKUP(E289,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E289" s="17"/>
+      <c r="F289" s="17"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="13"/>
       <c r="B290" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="13"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="14"/>
-      <c r="F290" s="6"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D290" s="18" t="e">
+        <f>VLOOKUP(E290,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="13"/>
       <c r="B291" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="13"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="14"/>
-      <c r="F291" s="6"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D291" s="18" t="e">
+        <f>VLOOKUP(E291,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E291" s="17"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="13"/>
       <c r="B292" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="14"/>
-      <c r="F292" s="6"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D292" s="18" t="e">
+        <f>VLOOKUP(E292,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="13"/>
-      <c r="D293" s="13"/>
-      <c r="E293" s="14"/>
-      <c r="F293" s="6"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D293" s="18" t="e">
+        <f>VLOOKUP(E293,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E293" s="17"/>
+      <c r="F293" s="17"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="13"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="14"/>
-      <c r="F294" s="6"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D294" s="18" t="e">
+        <f>VLOOKUP(E294,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="13"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="14"/>
-      <c r="F295" s="6"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D295" s="18" t="e">
+        <f>VLOOKUP(E295,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E295" s="17"/>
+      <c r="F295" s="17"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="13"/>
-      <c r="E296" s="14"/>
-      <c r="F296" s="6"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D296" s="18" t="e">
+        <f>VLOOKUP(E296,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="14"/>
-      <c r="F297" s="6"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D297" s="18" t="e">
+        <f>VLOOKUP(E297,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E297" s="17"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="14"/>
-      <c r="F298" s="6"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D298" s="18" t="e">
+        <f>VLOOKUP(E298,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="13"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="14"/>
-      <c r="F299" s="6"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D299" s="18" t="e">
+        <f>VLOOKUP(E299,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E299" s="17"/>
+      <c r="F299" s="17"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="13"/>
-      <c r="D300" s="13"/>
-      <c r="E300" s="14"/>
-      <c r="F300" s="6"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D300" s="18" t="e">
+        <f>VLOOKUP(E300,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="13"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="14"/>
-      <c r="F301" s="6"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D301" s="18" t="e">
+        <f>VLOOKUP(E301,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E301" s="17"/>
+      <c r="F301" s="17"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="13"/>
-      <c r="E302" s="14"/>
-      <c r="F302" s="6"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D302" s="18" t="e">
+        <f>VLOOKUP(E302,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="13"/>
-      <c r="D303" s="13"/>
-      <c r="E303" s="14"/>
-      <c r="F303" s="6"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D303" s="18" t="e">
+        <f>VLOOKUP(E303,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E303" s="17"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="13"/>
-      <c r="D304" s="13"/>
-      <c r="E304" s="14"/>
-      <c r="F304" s="6"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D304" s="18" t="e">
+        <f>VLOOKUP(E304,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="13"/>
-      <c r="D305" s="13"/>
-      <c r="E305" s="14"/>
-      <c r="F305" s="6"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D305" s="18" t="e">
+        <f>VLOOKUP(E305,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E305" s="17"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="13"/>
-      <c r="D306" s="13"/>
-      <c r="E306" s="14"/>
-      <c r="F306" s="6"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D306" s="18" t="e">
+        <f>VLOOKUP(E306,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="6"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="13"/>
-      <c r="E307" s="14"/>
-      <c r="F307" s="6"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D307" s="18" t="e">
+        <f>VLOOKUP(E307,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E307" s="17"/>
+      <c r="F307" s="17"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="13"/>
-      <c r="E308" s="14"/>
-      <c r="F308" s="6"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D308" s="18" t="e">
+        <f>VLOOKUP(E308,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="13"/>
-      <c r="E309" s="14"/>
-      <c r="F309" s="6"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D309" s="18" t="e">
+        <f>VLOOKUP(E309,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E309" s="17"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="13"/>
-      <c r="D310" s="13"/>
-      <c r="E310" s="14"/>
-      <c r="F310" s="6"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D310" s="18" t="e">
+        <f>VLOOKUP(E310,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C311" s="13"/>
-      <c r="D311" s="13"/>
-      <c r="E311" s="14"/>
-      <c r="F311" s="6"/>
+      <c r="D311" s="18" t="e">
+        <f>VLOOKUP(E311,Tabla_Auditor,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E311" s="17"/>
+      <c r="F311" s="17"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UAYgyaWUynFf7L6Rna0rbhnfcTytL36kK3oCrAjpVMvjClxwDC/CClgCbNOtZ3vmHnR2ziyDFZKf7k048AWJuQ==" saltValue="RMlKlk8dQr6ctTF6j0v2VA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8uhESEMqWD7giMoHrzTFCSIaUiU9M8i5m0QnU6x/E8a/4yTqf5v9GwdbUFp/5QQicLmx6kh3JTLDkCjzOlJ/5g==" saltValue="EU2wDEH46Dzwz+v5fBjHjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{D2BB604F-DBB4-4A08-9809-8C1F961CB9F7}">
       <formula1>Lista_Anno</formula1>
@@ -4048,14 +5651,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C311" xr:uid="{5283D451-99E1-44BF-9E36-72DCA6F2BB0A}">
       <formula1>Lista_Auditoria</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D311" xr:uid="{AF58D504-D5E6-4969-9B01-240CC818DF8C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E311" xr:uid="{AF58D504-D5E6-4969-9B01-240CC818DF8C}">
       <formula1>Lista_Auditor</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{D2BE5E03-523B-4A3C-90B9-3389CE224692}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{D2BE5E03-523B-4A3C-90B9-3389CE224692}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="E3:E311" xr:uid="{F6C6BBA5-2DC2-4F09-AE0E-527AC201B321}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="G3:G311" xr:uid="{F6C6BBA5-2DC2-4F09-AE0E-527AC201B321}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
@@ -4066,7 +5669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF022251-DBCC-4AB7-8BB9-F0D337018E04}">
-  <dimension ref="B4:F25"/>
+  <dimension ref="B4:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -4075,9 +5678,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4087,81 +5691,99 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2010</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2011</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2012</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2021</v>
       </c>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archivos Compu DELL\UTILIDADES DESCARGA\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C81783B-F084-4159-8271-0339AD71127E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AD162C-208F-4BF2-ADC4-EF7914444920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
   </bookViews>
   <sheets>
     <sheet name="Auditoría energética sector pub" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{30907602-D711-449B-B321-6BEA7B9E9FB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Anno</t>
   </si>
@@ -70,18 +104,6 @@
     <t>Tipo Auditoria</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro</t>
-  </si>
-  <si>
-    <t>Clase de auditoria que se esta realizando</t>
-  </si>
-  <si>
-    <t>Auditor que realiza la auditoria</t>
-  </si>
-  <si>
-    <t>GEI antes de la implementación de la iniciativa</t>
-  </si>
-  <si>
     <t>Tipo 1</t>
   </si>
   <si>
@@ -94,31 +116,10 @@
     <t>N°</t>
   </si>
   <si>
-    <t>Institución</t>
-  </si>
-  <si>
-    <t>Nombre de la institución</t>
-  </si>
-  <si>
     <t>GEI reducido por auditoría</t>
   </si>
   <si>
-    <t>GEI posterior a la implementación de la iniciativa (Cambio de lámparas)</t>
-  </si>
-  <si>
     <t>Ramon SAC</t>
-  </si>
-  <si>
-    <t>Cooperativa</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIREH </t>
-  </si>
-  <si>
-    <t>ABBA</t>
   </si>
   <si>
     <t>Ins auditada</t>
@@ -148,10 +149,34 @@
     <t>Ministerio A</t>
   </si>
   <si>
-    <t>SENAMHI</t>
+    <t>Año al que corresponde la medición del ahorro energético. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>SENACE</t>
+    <t>Encargado</t>
+  </si>
+  <si>
+    <t>GEI reducido por auditoría (lámparas)</t>
+  </si>
+  <si>
+    <t>Sector al que corresponde la auditoría desarrollada. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Nombre de la institución. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Clase de auditoría realizada. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Tipo de auditor que realiza la auditoría. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Nombre de persona o institución encargada. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>GEI reducidos debido a toda la auditoría. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>GEI reducidos por cambio de lámparas. Inserte su dato.</t>
   </si>
 </sst>
 </file>
@@ -161,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +210,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,11 +397,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,24 +740,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1772-35AF-4198-9510-18D55384E446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1772-35AF-4198-9510-18D55384E446}">
   <dimension ref="A1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="31.5703125" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -689,13 +767,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -710,245 +788,185 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="26">
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_INSAUDI,2,)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="27">
+        <f t="shared" ref="E3:E66" si="1">VLOOKUP(F3,Tabla_Auditoria,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="18">
-        <f>VLOOKUP(C3,Tabla_INSAUDI,2,)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="19">
-        <f t="shared" ref="E3:E66" si="0">VLOOKUP(F3,Tabla_Auditoria,2,)</f>
+      <c r="G3" s="25">
+        <f t="shared" ref="G3:G66" si="2">VLOOKUP(H3,Tabla_Auditor,2,)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G66" si="1">VLOOKUP(H3,Tabla_Auditor,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="29">
         <v>100</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="29">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="18">
-        <f>VLOOKUP(C4,Tabla_INSAUDI,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="7"/>
+      <c r="B4" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="9">
-        <v>237</v>
-      </c>
-      <c r="K4" s="9">
-        <v>29</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="18">
-        <f>VLOOKUP(C5,Tabla_INSAUDI,2,)</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="A5" s="10"/>
+      <c r="B5" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="11">
-        <v>187</v>
-      </c>
-      <c r="K5" s="11">
-        <v>39</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="18">
-        <f>VLOOKUP(C6,Tabla_INSAUDI,2,)</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="A6" s="7"/>
+      <c r="B6" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="19" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9">
-        <v>391</v>
-      </c>
-      <c r="K6" s="12">
-        <v>30.8</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="18">
-        <f>VLOOKUP(C7,Tabla_INSAUDI,2,)</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="A7" s="13"/>
+      <c r="B7" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="18">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="14">
-        <v>666</v>
-      </c>
-      <c r="K7" s="6">
-        <v>77</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="18" t="e">
-        <f>VLOOKUP(C8,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="17"/>
       <c r="E8" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H8" s="13"/>
@@ -959,18 +977,18 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="18" t="e">
-        <f>VLOOKUP(C9,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H9" s="17"/>
@@ -981,18 +999,18 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="18" t="e">
-        <f>VLOOKUP(C10,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="17"/>
       <c r="E10" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H10" s="13"/>
@@ -1003,18 +1021,18 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="18" t="e">
-        <f>VLOOKUP(C11,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H11" s="17"/>
@@ -1025,18 +1043,18 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="18" t="e">
-        <f>VLOOKUP(C12,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
       <c r="E12" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H12" s="13"/>
@@ -1047,18 +1065,18 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="18" t="e">
-        <f>VLOOKUP(C13,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H13" s="17"/>
@@ -1069,18 +1087,18 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="18" t="e">
-        <f>VLOOKUP(C14,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="17"/>
       <c r="E14" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H14" s="13"/>
@@ -1091,18 +1109,18 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="18" t="e">
-        <f>VLOOKUP(C15,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H15" s="17"/>
@@ -1113,18 +1131,18 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="18" t="e">
-        <f>VLOOKUP(C16,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="17"/>
       <c r="E16" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H16" s="13"/>
@@ -1135,18 +1153,18 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="18" t="e">
-        <f>VLOOKUP(C17,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H17" s="17"/>
@@ -1157,18 +1175,18 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="18" t="e">
-        <f>VLOOKUP(C18,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="17"/>
       <c r="E18" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H18" s="13"/>
@@ -1179,18 +1197,18 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="18" t="e">
-        <f>VLOOKUP(C19,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H19" s="17"/>
@@ -1201,18 +1219,18 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="18" t="e">
-        <f>VLOOKUP(C20,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="17"/>
       <c r="E20" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="13"/>
@@ -1223,18 +1241,18 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="18" t="e">
-        <f>VLOOKUP(C21,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="17"/>
@@ -1245,18 +1263,18 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="18" t="e">
-        <f>VLOOKUP(C22,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="17"/>
       <c r="E22" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="13"/>
@@ -1267,18 +1285,18 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="18" t="e">
-        <f>VLOOKUP(C23,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H23" s="17"/>
@@ -1289,18 +1307,18 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="18" t="e">
-        <f>VLOOKUP(C24,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="17"/>
       <c r="E24" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="13"/>
@@ -1311,18 +1329,18 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="18" t="e">
-        <f>VLOOKUP(C25,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="17"/>
@@ -1333,18 +1351,18 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="18" t="e">
-        <f>VLOOKUP(C26,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="17"/>
       <c r="E26" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H26" s="13"/>
@@ -1355,18 +1373,18 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="18" t="e">
-        <f>VLOOKUP(C27,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H27" s="17"/>
@@ -1377,18 +1395,18 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="18" t="e">
-        <f>VLOOKUP(C28,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="17"/>
       <c r="E28" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H28" s="13"/>
@@ -1399,18 +1417,18 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="e">
-        <f>VLOOKUP(C29,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="17"/>
@@ -1421,18 +1439,18 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="18" t="e">
-        <f>VLOOKUP(C30,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="17"/>
       <c r="E30" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="13"/>
@@ -1443,18 +1461,18 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="18" t="e">
-        <f>VLOOKUP(C31,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H31" s="17"/>
@@ -1465,18 +1483,18 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="18" t="e">
-        <f>VLOOKUP(C32,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="17"/>
       <c r="E32" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H32" s="13"/>
@@ -1487,18 +1505,18 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="18" t="e">
-        <f>VLOOKUP(C33,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H33" s="17"/>
@@ -1509,18 +1527,18 @@
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="18" t="e">
-        <f>VLOOKUP(C34,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="17"/>
       <c r="E34" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H34" s="13"/>
@@ -1531,18 +1549,18 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="18" t="e">
-        <f>VLOOKUP(C35,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H35" s="17"/>
@@ -1553,18 +1571,18 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="18" t="e">
-        <f>VLOOKUP(C36,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="17"/>
       <c r="E36" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H36" s="13"/>
@@ -1575,18 +1593,18 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="18" t="e">
-        <f>VLOOKUP(C37,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H37" s="17"/>
@@ -1597,18 +1615,18 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="18" t="e">
-        <f>VLOOKUP(C38,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="17"/>
       <c r="E38" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H38" s="13"/>
@@ -1619,18 +1637,18 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="18" t="e">
-        <f>VLOOKUP(C39,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H39" s="17"/>
@@ -1641,18 +1659,18 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="18" t="e">
-        <f>VLOOKUP(C40,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="17"/>
       <c r="E40" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H40" s="13"/>
@@ -1663,18 +1681,18 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="18" t="e">
-        <f>VLOOKUP(C41,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H41" s="17"/>
@@ -1685,18 +1703,18 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="18" t="e">
-        <f>VLOOKUP(C42,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="17"/>
       <c r="E42" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H42" s="13"/>
@@ -1707,18 +1725,18 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="18" t="e">
-        <f>VLOOKUP(C43,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H43" s="17"/>
@@ -1729,18 +1747,18 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="18" t="e">
-        <f>VLOOKUP(C44,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="17"/>
       <c r="E44" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H44" s="13"/>
@@ -1751,18 +1769,18 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="18" t="e">
-        <f>VLOOKUP(C45,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H45" s="17"/>
@@ -1773,18 +1791,18 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="18" t="e">
-        <f>VLOOKUP(C46,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="17"/>
       <c r="E46" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H46" s="13"/>
@@ -1795,18 +1813,18 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="18" t="e">
-        <f>VLOOKUP(C47,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H47" s="17"/>
@@ -1817,18 +1835,18 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="18" t="e">
-        <f>VLOOKUP(C48,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="17"/>
       <c r="E48" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H48" s="13"/>
@@ -1839,18 +1857,18 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="18" t="e">
-        <f>VLOOKUP(C49,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H49" s="17"/>
@@ -1861,18 +1879,18 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="18" t="e">
-        <f>VLOOKUP(C50,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="17"/>
       <c r="E50" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H50" s="13"/>
@@ -1883,18 +1901,18 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="18" t="e">
-        <f>VLOOKUP(C51,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H51" s="17"/>
@@ -1905,18 +1923,18 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="18" t="e">
-        <f>VLOOKUP(C52,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
       <c r="E52" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H52" s="13"/>
@@ -1927,18 +1945,18 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="18" t="e">
-        <f>VLOOKUP(C53,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H53" s="17"/>
@@ -1949,18 +1967,18 @@
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="18" t="e">
-        <f>VLOOKUP(C54,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="17"/>
       <c r="E54" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H54" s="13"/>
@@ -1971,18 +1989,18 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="18" t="e">
-        <f>VLOOKUP(C55,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H55" s="17"/>
@@ -1993,18 +2011,18 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="18" t="e">
-        <f>VLOOKUP(C56,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="17"/>
       <c r="E56" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H56" s="13"/>
@@ -2015,18 +2033,18 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="18" t="e">
-        <f>VLOOKUP(C57,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H57" s="17"/>
@@ -2037,18 +2055,18 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="18" t="e">
-        <f>VLOOKUP(C58,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="17"/>
       <c r="E58" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H58" s="13"/>
@@ -2059,18 +2077,18 @@
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="18" t="e">
-        <f>VLOOKUP(C59,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H59" s="17"/>
@@ -2081,18 +2099,18 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="18" t="e">
-        <f>VLOOKUP(C60,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H60" s="13"/>
@@ -2103,18 +2121,18 @@
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="18" t="e">
-        <f>VLOOKUP(C61,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H61" s="17"/>
@@ -2125,18 +2143,18 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="18" t="e">
-        <f>VLOOKUP(C62,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="17"/>
       <c r="E62" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H62" s="13"/>
@@ -2147,18 +2165,18 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="18" t="e">
-        <f>VLOOKUP(C63,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H63" s="17"/>
@@ -2169,18 +2187,18 @@
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="18" t="e">
-        <f>VLOOKUP(C64,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="17"/>
       <c r="E64" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H64" s="13"/>
@@ -2191,18 +2209,18 @@
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="18" t="e">
-        <f>VLOOKUP(C65,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H65" s="17"/>
@@ -2213,18 +2231,18 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="18" t="e">
-        <f>VLOOKUP(C66,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="17"/>
       <c r="E66" s="13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="H66" s="13"/>
@@ -2235,18 +2253,18 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="18" t="e">
-        <f>VLOOKUP(C67,Tabla_INSAUDI,2,)</f>
+        <f t="shared" ref="B67:B130" si="3">VLOOKUP(C67,Tabla_INSAUDI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="e">
-        <f t="shared" ref="E67:E130" si="2">VLOOKUP(F67,Tabla_Auditoria,2,)</f>
+        <f t="shared" ref="E67:E130" si="4">VLOOKUP(F67,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="18" t="e">
-        <f t="shared" ref="G67:G130" si="3">VLOOKUP(H67,Tabla_Auditor,2,)</f>
+        <f t="shared" ref="G67:G130" si="5">VLOOKUP(H67,Tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H67" s="17"/>
@@ -2257,18 +2275,18 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="18" t="e">
-        <f>VLOOKUP(C68,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="17"/>
       <c r="E68" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H68" s="13"/>
@@ -2279,18 +2297,18 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="18" t="e">
-        <f>VLOOKUP(C69,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H69" s="17"/>
@@ -2301,18 +2319,18 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="18" t="e">
-        <f>VLOOKUP(C70,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="17"/>
       <c r="E70" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H70" s="13"/>
@@ -2323,18 +2341,18 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="18" t="e">
-        <f>VLOOKUP(C71,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H71" s="17"/>
@@ -2345,18 +2363,18 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="18" t="e">
-        <f>VLOOKUP(C72,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="17"/>
       <c r="E72" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H72" s="13"/>
@@ -2367,18 +2385,18 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="18" t="e">
-        <f>VLOOKUP(C73,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H73" s="17"/>
@@ -2389,18 +2407,18 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="18" t="e">
-        <f>VLOOKUP(C74,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="17"/>
       <c r="E74" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H74" s="13"/>
@@ -2411,18 +2429,18 @@
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="18" t="e">
-        <f>VLOOKUP(C75,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H75" s="17"/>
@@ -2433,18 +2451,18 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="18" t="e">
-        <f>VLOOKUP(C76,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="17"/>
       <c r="E76" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H76" s="13"/>
@@ -2455,18 +2473,18 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="18" t="e">
-        <f>VLOOKUP(C77,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H77" s="17"/>
@@ -2477,18 +2495,18 @@
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="18" t="e">
-        <f>VLOOKUP(C78,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="17"/>
       <c r="E78" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H78" s="13"/>
@@ -2499,18 +2517,18 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="18" t="e">
-        <f>VLOOKUP(C79,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H79" s="17"/>
@@ -2521,18 +2539,18 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="18" t="e">
-        <f>VLOOKUP(C80,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="17"/>
       <c r="E80" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H80" s="13"/>
@@ -2543,18 +2561,18 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="18" t="e">
-        <f>VLOOKUP(C81,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H81" s="17"/>
@@ -2565,18 +2583,18 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="18" t="e">
-        <f>VLOOKUP(C82,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="17"/>
       <c r="E82" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H82" s="13"/>
@@ -2587,18 +2605,18 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="18" t="e">
-        <f>VLOOKUP(C83,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H83" s="17"/>
@@ -2609,18 +2627,18 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="18" t="e">
-        <f>VLOOKUP(C84,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="17"/>
       <c r="E84" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H84" s="13"/>
@@ -2631,18 +2649,18 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="18" t="e">
-        <f>VLOOKUP(C85,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H85" s="17"/>
@@ -2653,18 +2671,18 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="18" t="e">
-        <f>VLOOKUP(C86,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="17"/>
       <c r="E86" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H86" s="13"/>
@@ -2675,18 +2693,18 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="18" t="e">
-        <f>VLOOKUP(C87,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H87" s="17"/>
@@ -2697,18 +2715,18 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="18" t="e">
-        <f>VLOOKUP(C88,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="17"/>
       <c r="E88" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H88" s="13"/>
@@ -2719,18 +2737,18 @@
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="18" t="e">
-        <f>VLOOKUP(C89,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H89" s="17"/>
@@ -2741,18 +2759,18 @@
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="18" t="e">
-        <f>VLOOKUP(C90,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="17"/>
       <c r="E90" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H90" s="13"/>
@@ -2763,18 +2781,18 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="18" t="e">
-        <f>VLOOKUP(C91,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H91" s="17"/>
@@ -2785,18 +2803,18 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="18" t="e">
-        <f>VLOOKUP(C92,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="17"/>
       <c r="E92" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H92" s="13"/>
@@ -2807,18 +2825,18 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="18" t="e">
-        <f>VLOOKUP(C93,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H93" s="17"/>
@@ -2829,18 +2847,18 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="18" t="e">
-        <f>VLOOKUP(C94,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="17"/>
       <c r="E94" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H94" s="13"/>
@@ -2851,18 +2869,18 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="18" t="e">
-        <f>VLOOKUP(C95,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H95" s="17"/>
@@ -2873,18 +2891,18 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="18" t="e">
-        <f>VLOOKUP(C96,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="17"/>
       <c r="E96" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H96" s="13"/>
@@ -2895,18 +2913,18 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="18" t="e">
-        <f>VLOOKUP(C97,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H97" s="17"/>
@@ -2917,18 +2935,18 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="18" t="e">
-        <f>VLOOKUP(C98,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="17"/>
       <c r="E98" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H98" s="13"/>
@@ -2939,18 +2957,18 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="18" t="e">
-        <f>VLOOKUP(C99,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H99" s="17"/>
@@ -2961,18 +2979,18 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="18" t="e">
-        <f>VLOOKUP(C100,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="17"/>
       <c r="E100" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H100" s="13"/>
@@ -2983,18 +3001,18 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="18" t="e">
-        <f>VLOOKUP(C101,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H101" s="17"/>
@@ -3005,18 +3023,18 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="18" t="e">
-        <f>VLOOKUP(C102,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="17"/>
       <c r="E102" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H102" s="13"/>
@@ -3027,18 +3045,18 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="18" t="e">
-        <f>VLOOKUP(C103,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H103" s="17"/>
@@ -3049,18 +3067,18 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="18" t="e">
-        <f>VLOOKUP(C104,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="17"/>
       <c r="E104" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H104" s="13"/>
@@ -3071,18 +3089,18 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="18" t="e">
-        <f>VLOOKUP(C105,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H105" s="17"/>
@@ -3093,18 +3111,18 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="18" t="e">
-        <f>VLOOKUP(C106,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="17"/>
       <c r="E106" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H106" s="13"/>
@@ -3115,18 +3133,18 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="18" t="e">
-        <f>VLOOKUP(C107,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H107" s="17"/>
@@ -3137,18 +3155,18 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="18" t="e">
-        <f>VLOOKUP(C108,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="17"/>
       <c r="E108" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H108" s="13"/>
@@ -3159,18 +3177,18 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="18" t="e">
-        <f>VLOOKUP(C109,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H109" s="17"/>
@@ -3181,18 +3199,18 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="18" t="e">
-        <f>VLOOKUP(C110,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="17"/>
       <c r="E110" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H110" s="13"/>
@@ -3203,18 +3221,18 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="18" t="e">
-        <f>VLOOKUP(C111,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H111" s="17"/>
@@ -3225,18 +3243,18 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="18" t="e">
-        <f>VLOOKUP(C112,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="17"/>
       <c r="E112" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F112" s="13"/>
       <c r="G112" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H112" s="13"/>
@@ -3247,18 +3265,18 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="18" t="e">
-        <f>VLOOKUP(C113,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H113" s="17"/>
@@ -3269,18 +3287,18 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="18" t="e">
-        <f>VLOOKUP(C114,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="17"/>
       <c r="E114" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H114" s="13"/>
@@ -3291,18 +3309,18 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="18" t="e">
-        <f>VLOOKUP(C115,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H115" s="17"/>
@@ -3313,18 +3331,18 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="18" t="e">
-        <f>VLOOKUP(C116,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="17"/>
       <c r="E116" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F116" s="13"/>
       <c r="G116" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H116" s="13"/>
@@ -3335,18 +3353,18 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="18" t="e">
-        <f>VLOOKUP(C117,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F117" s="13"/>
       <c r="G117" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H117" s="17"/>
@@ -3357,18 +3375,18 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="18" t="e">
-        <f>VLOOKUP(C118,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="17"/>
       <c r="E118" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F118" s="13"/>
       <c r="G118" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H118" s="13"/>
@@ -3379,18 +3397,18 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="18" t="e">
-        <f>VLOOKUP(C119,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H119" s="17"/>
@@ -3401,18 +3419,18 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="18" t="e">
-        <f>VLOOKUP(C120,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="17"/>
       <c r="E120" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F120" s="13"/>
       <c r="G120" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H120" s="13"/>
@@ -3423,18 +3441,18 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="18" t="e">
-        <f>VLOOKUP(C121,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F121" s="13"/>
       <c r="G121" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H121" s="17"/>
@@ -3445,18 +3463,18 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="18" t="e">
-        <f>VLOOKUP(C122,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="17"/>
       <c r="E122" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F122" s="13"/>
       <c r="G122" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H122" s="13"/>
@@ -3467,18 +3485,18 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="18" t="e">
-        <f>VLOOKUP(C123,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F123" s="13"/>
       <c r="G123" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H123" s="17"/>
@@ -3489,18 +3507,18 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="18" t="e">
-        <f>VLOOKUP(C124,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="17"/>
       <c r="E124" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H124" s="13"/>
@@ -3511,18 +3529,18 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="18" t="e">
-        <f>VLOOKUP(C125,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H125" s="17"/>
@@ -3533,18 +3551,18 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="18" t="e">
-        <f>VLOOKUP(C126,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="17"/>
       <c r="E126" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F126" s="13"/>
       <c r="G126" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H126" s="13"/>
@@ -3555,18 +3573,18 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="18" t="e">
-        <f>VLOOKUP(C127,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F127" s="13"/>
       <c r="G127" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H127" s="17"/>
@@ -3577,18 +3595,18 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="18" t="e">
-        <f>VLOOKUP(C128,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="17"/>
       <c r="E128" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H128" s="13"/>
@@ -3599,18 +3617,18 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="18" t="e">
-        <f>VLOOKUP(C129,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F129" s="13"/>
       <c r="G129" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H129" s="17"/>
@@ -3621,18 +3639,18 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="18" t="e">
-        <f>VLOOKUP(C130,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="17"/>
       <c r="E130" s="13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H130" s="13"/>
@@ -3643,18 +3661,18 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="18" t="e">
-        <f>VLOOKUP(C131,Tabla_INSAUDI,2,)</f>
+        <f t="shared" ref="B131:B194" si="6">VLOOKUP(C131,Tabla_INSAUDI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13" t="e">
-        <f t="shared" ref="E131:E194" si="4">VLOOKUP(F131,Tabla_Auditoria,2,)</f>
+        <f t="shared" ref="E131:E194" si="7">VLOOKUP(F131,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="F131" s="13"/>
       <c r="G131" s="18" t="e">
-        <f t="shared" ref="G131:G194" si="5">VLOOKUP(H131,Tabla_Auditor,2,)</f>
+        <f t="shared" ref="G131:G194" si="8">VLOOKUP(H131,Tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H131" s="17"/>
@@ -3665,18 +3683,18 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="18" t="e">
-        <f>VLOOKUP(C132,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="17"/>
       <c r="E132" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F132" s="13"/>
       <c r="G132" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H132" s="13"/>
@@ -3687,18 +3705,18 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="18" t="e">
-        <f>VLOOKUP(C133,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F133" s="13"/>
       <c r="G133" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H133" s="17"/>
@@ -3709,18 +3727,18 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="18" t="e">
-        <f>VLOOKUP(C134,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="17"/>
       <c r="E134" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F134" s="13"/>
       <c r="G134" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H134" s="13"/>
@@ -3731,18 +3749,18 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="18" t="e">
-        <f>VLOOKUP(C135,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F135" s="13"/>
       <c r="G135" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H135" s="17"/>
@@ -3753,18 +3771,18 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="18" t="e">
-        <f>VLOOKUP(C136,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="17"/>
       <c r="E136" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F136" s="13"/>
       <c r="G136" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H136" s="13"/>
@@ -3775,18 +3793,18 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="18" t="e">
-        <f>VLOOKUP(C137,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F137" s="13"/>
       <c r="G137" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H137" s="17"/>
@@ -3797,18 +3815,18 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="18" t="e">
-        <f>VLOOKUP(C138,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="17"/>
       <c r="E138" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F138" s="13"/>
       <c r="G138" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H138" s="13"/>
@@ -3819,18 +3837,18 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="18" t="e">
-        <f>VLOOKUP(C139,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H139" s="17"/>
@@ -3841,18 +3859,18 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="18" t="e">
-        <f>VLOOKUP(C140,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="17"/>
       <c r="E140" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H140" s="13"/>
@@ -3863,18 +3881,18 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="18" t="e">
-        <f>VLOOKUP(C141,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H141" s="17"/>
@@ -3885,18 +3903,18 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="18" t="e">
-        <f>VLOOKUP(C142,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="17"/>
       <c r="E142" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F142" s="13"/>
       <c r="G142" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H142" s="13"/>
@@ -3907,18 +3925,18 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="18" t="e">
-        <f>VLOOKUP(C143,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F143" s="13"/>
       <c r="G143" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H143" s="17"/>
@@ -3929,18 +3947,18 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="18" t="e">
-        <f>VLOOKUP(C144,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="17"/>
       <c r="E144" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F144" s="13"/>
       <c r="G144" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H144" s="13"/>
@@ -3951,18 +3969,18 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="18" t="e">
-        <f>VLOOKUP(C145,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H145" s="17"/>
@@ -3973,18 +3991,18 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="18" t="e">
-        <f>VLOOKUP(C146,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="17"/>
       <c r="E146" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F146" s="13"/>
       <c r="G146" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H146" s="13"/>
@@ -3995,18 +4013,18 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="18" t="e">
-        <f>VLOOKUP(C147,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F147" s="13"/>
       <c r="G147" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H147" s="17"/>
@@ -4017,18 +4035,18 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="18" t="e">
-        <f>VLOOKUP(C148,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="17"/>
       <c r="E148" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F148" s="13"/>
       <c r="G148" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H148" s="13"/>
@@ -4039,18 +4057,18 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="18" t="e">
-        <f>VLOOKUP(C149,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H149" s="17"/>
@@ -4061,18 +4079,18 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="18" t="e">
-        <f>VLOOKUP(C150,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="17"/>
       <c r="E150" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H150" s="13"/>
@@ -4083,18 +4101,18 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="18" t="e">
-        <f>VLOOKUP(C151,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H151" s="17"/>
@@ -4105,18 +4123,18 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="18" t="e">
-        <f>VLOOKUP(C152,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="17"/>
       <c r="E152" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H152" s="13"/>
@@ -4127,18 +4145,18 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="18" t="e">
-        <f>VLOOKUP(C153,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F153" s="13"/>
       <c r="G153" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H153" s="17"/>
@@ -4149,18 +4167,18 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="18" t="e">
-        <f>VLOOKUP(C154,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="17"/>
       <c r="E154" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F154" s="13"/>
       <c r="G154" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H154" s="13"/>
@@ -4171,18 +4189,18 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="18" t="e">
-        <f>VLOOKUP(C155,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F155" s="13"/>
       <c r="G155" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H155" s="17"/>
@@ -4193,18 +4211,18 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="18" t="e">
-        <f>VLOOKUP(C156,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="17"/>
       <c r="E156" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H156" s="13"/>
@@ -4215,18 +4233,18 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="18" t="e">
-        <f>VLOOKUP(C157,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H157" s="17"/>
@@ -4237,18 +4255,18 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="18" t="e">
-        <f>VLOOKUP(C158,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="17"/>
       <c r="E158" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H158" s="13"/>
@@ -4259,18 +4277,18 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="18" t="e">
-        <f>VLOOKUP(C159,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H159" s="17"/>
@@ -4281,18 +4299,18 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="18" t="e">
-        <f>VLOOKUP(C160,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="17"/>
       <c r="E160" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H160" s="13"/>
@@ -4303,18 +4321,18 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="18" t="e">
-        <f>VLOOKUP(C161,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H161" s="17"/>
@@ -4325,18 +4343,18 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
       <c r="B162" s="18" t="e">
-        <f>VLOOKUP(C162,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="17"/>
       <c r="E162" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H162" s="13"/>
@@ -4347,18 +4365,18 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="18" t="e">
-        <f>VLOOKUP(C163,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H163" s="17"/>
@@ -4369,18 +4387,18 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="18" t="e">
-        <f>VLOOKUP(C164,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="17"/>
       <c r="E164" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H164" s="13"/>
@@ -4391,18 +4409,18 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="18" t="e">
-        <f>VLOOKUP(C165,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H165" s="17"/>
@@ -4413,18 +4431,18 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="18" t="e">
-        <f>VLOOKUP(C166,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="17"/>
       <c r="E166" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H166" s="13"/>
@@ -4435,18 +4453,18 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="18" t="e">
-        <f>VLOOKUP(C167,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H167" s="17"/>
@@ -4457,18 +4475,18 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="18" t="e">
-        <f>VLOOKUP(C168,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="17"/>
       <c r="E168" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H168" s="13"/>
@@ -4479,18 +4497,18 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="18" t="e">
-        <f>VLOOKUP(C169,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H169" s="17"/>
@@ -4501,18 +4519,18 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="18" t="e">
-        <f>VLOOKUP(C170,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="17"/>
       <c r="E170" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H170" s="13"/>
@@ -4523,18 +4541,18 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="18" t="e">
-        <f>VLOOKUP(C171,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H171" s="17"/>
@@ -4545,18 +4563,18 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="18" t="e">
-        <f>VLOOKUP(C172,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="17"/>
       <c r="E172" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H172" s="13"/>
@@ -4567,18 +4585,18 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="18" t="e">
-        <f>VLOOKUP(C173,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H173" s="17"/>
@@ -4589,18 +4607,18 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="18" t="e">
-        <f>VLOOKUP(C174,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="17"/>
       <c r="E174" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H174" s="13"/>
@@ -4611,18 +4629,18 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="18" t="e">
-        <f>VLOOKUP(C175,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H175" s="17"/>
@@ -4633,18 +4651,18 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="18" t="e">
-        <f>VLOOKUP(C176,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="17"/>
       <c r="E176" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F176" s="13"/>
       <c r="G176" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H176" s="13"/>
@@ -4655,18 +4673,18 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="18" t="e">
-        <f>VLOOKUP(C177,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F177" s="13"/>
       <c r="G177" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H177" s="17"/>
@@ -4677,18 +4695,18 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="18" t="e">
-        <f>VLOOKUP(C178,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="17"/>
       <c r="E178" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F178" s="13"/>
       <c r="G178" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H178" s="13"/>
@@ -4699,18 +4717,18 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="18" t="e">
-        <f>VLOOKUP(C179,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F179" s="13"/>
       <c r="G179" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H179" s="17"/>
@@ -4721,18 +4739,18 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="18" t="e">
-        <f>VLOOKUP(C180,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="17"/>
       <c r="E180" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F180" s="13"/>
       <c r="G180" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H180" s="13"/>
@@ -4743,18 +4761,18 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="18" t="e">
-        <f>VLOOKUP(C181,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F181" s="13"/>
       <c r="G181" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H181" s="17"/>
@@ -4765,18 +4783,18 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="18" t="e">
-        <f>VLOOKUP(C182,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="17"/>
       <c r="E182" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F182" s="13"/>
       <c r="G182" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H182" s="13"/>
@@ -4787,18 +4805,18 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="18" t="e">
-        <f>VLOOKUP(C183,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F183" s="13"/>
       <c r="G183" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H183" s="17"/>
@@ -4809,18 +4827,18 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="18" t="e">
-        <f>VLOOKUP(C184,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="17"/>
       <c r="E184" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F184" s="13"/>
       <c r="G184" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H184" s="13"/>
@@ -4831,18 +4849,18 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="18" t="e">
-        <f>VLOOKUP(C185,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F185" s="13"/>
       <c r="G185" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H185" s="17"/>
@@ -4853,18 +4871,18 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="18" t="e">
-        <f>VLOOKUP(C186,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="17"/>
       <c r="E186" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F186" s="13"/>
       <c r="G186" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H186" s="13"/>
@@ -4875,18 +4893,18 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="18" t="e">
-        <f>VLOOKUP(C187,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F187" s="13"/>
       <c r="G187" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H187" s="17"/>
@@ -4897,18 +4915,18 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="18" t="e">
-        <f>VLOOKUP(C188,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="17"/>
       <c r="E188" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H188" s="13"/>
@@ -4919,18 +4937,18 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="18" t="e">
-        <f>VLOOKUP(C189,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H189" s="17"/>
@@ -4941,18 +4959,18 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="18" t="e">
-        <f>VLOOKUP(C190,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="17"/>
       <c r="E190" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F190" s="13"/>
       <c r="G190" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H190" s="13"/>
@@ -4963,18 +4981,18 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="18" t="e">
-        <f>VLOOKUP(C191,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F191" s="13"/>
       <c r="G191" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H191" s="17"/>
@@ -4985,18 +5003,18 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="18" t="e">
-        <f>VLOOKUP(C192,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="17"/>
       <c r="E192" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F192" s="13"/>
       <c r="G192" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H192" s="13"/>
@@ -5007,18 +5025,18 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="18" t="e">
-        <f>VLOOKUP(C193,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F193" s="13"/>
       <c r="G193" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H193" s="17"/>
@@ -5029,18 +5047,18 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="18" t="e">
-        <f>VLOOKUP(C194,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="17"/>
       <c r="E194" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F194" s="13"/>
       <c r="G194" s="18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H194" s="13"/>
@@ -5051,18 +5069,18 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="18" t="e">
-        <f>VLOOKUP(C195,Tabla_INSAUDI,2,)</f>
+        <f t="shared" ref="B195:B258" si="9">VLOOKUP(C195,Tabla_INSAUDI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13" t="e">
-        <f t="shared" ref="E195:E258" si="6">VLOOKUP(F195,Tabla_Auditoria,2,)</f>
+        <f t="shared" ref="E195:E258" si="10">VLOOKUP(F195,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="18" t="e">
-        <f t="shared" ref="G195:G258" si="7">VLOOKUP(H195,Tabla_Auditor,2,)</f>
+        <f t="shared" ref="G195:G258" si="11">VLOOKUP(H195,Tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H195" s="17"/>
@@ -5073,18 +5091,18 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="18" t="e">
-        <f>VLOOKUP(C196,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="17"/>
       <c r="E196" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H196" s="13"/>
@@ -5095,18 +5113,18 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="18" t="e">
-        <f>VLOOKUP(C197,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F197" s="13"/>
       <c r="G197" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H197" s="17"/>
@@ -5117,18 +5135,18 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="18" t="e">
-        <f>VLOOKUP(C198,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="17"/>
       <c r="E198" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F198" s="13"/>
       <c r="G198" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H198" s="13"/>
@@ -5139,18 +5157,18 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="18" t="e">
-        <f>VLOOKUP(C199,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F199" s="13"/>
       <c r="G199" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H199" s="17"/>
@@ -5161,18 +5179,18 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="18" t="e">
-        <f>VLOOKUP(C200,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="17"/>
       <c r="E200" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F200" s="13"/>
       <c r="G200" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H200" s="13"/>
@@ -5183,18 +5201,18 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="18" t="e">
-        <f>VLOOKUP(C201,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F201" s="13"/>
       <c r="G201" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H201" s="17"/>
@@ -5205,18 +5223,18 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="18" t="e">
-        <f>VLOOKUP(C202,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="17"/>
       <c r="E202" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F202" s="13"/>
       <c r="G202" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H202" s="13"/>
@@ -5227,18 +5245,18 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="18" t="e">
-        <f>VLOOKUP(C203,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F203" s="13"/>
       <c r="G203" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H203" s="17"/>
@@ -5249,18 +5267,18 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="18" t="e">
-        <f>VLOOKUP(C204,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="17"/>
       <c r="E204" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F204" s="13"/>
       <c r="G204" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H204" s="13"/>
@@ -5271,18 +5289,18 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="18" t="e">
-        <f>VLOOKUP(C205,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F205" s="13"/>
       <c r="G205" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H205" s="17"/>
@@ -5293,18 +5311,18 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="18" t="e">
-        <f>VLOOKUP(C206,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="17"/>
       <c r="E206" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F206" s="13"/>
       <c r="G206" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H206" s="13"/>
@@ -5315,18 +5333,18 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="18" t="e">
-        <f>VLOOKUP(C207,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F207" s="13"/>
       <c r="G207" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H207" s="17"/>
@@ -5337,18 +5355,18 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="18" t="e">
-        <f>VLOOKUP(C208,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="17"/>
       <c r="E208" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H208" s="13"/>
@@ -5359,18 +5377,18 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="18" t="e">
-        <f>VLOOKUP(C209,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F209" s="13"/>
       <c r="G209" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H209" s="17"/>
@@ -5381,18 +5399,18 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
       <c r="B210" s="18" t="e">
-        <f>VLOOKUP(C210,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="17"/>
       <c r="E210" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F210" s="13"/>
       <c r="G210" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="13"/>
@@ -5403,18 +5421,18 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="18" t="e">
-        <f>VLOOKUP(C211,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="E211" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F211" s="13"/>
       <c r="G211" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="17"/>
@@ -5425,18 +5443,18 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="18" t="e">
-        <f>VLOOKUP(C212,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="17"/>
       <c r="E212" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F212" s="13"/>
       <c r="G212" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="13"/>
@@ -5447,18 +5465,18 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="18" t="e">
-        <f>VLOOKUP(C213,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="17"/>
@@ -5469,18 +5487,18 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="18" t="e">
-        <f>VLOOKUP(C214,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="17"/>
       <c r="E214" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F214" s="13"/>
       <c r="G214" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="13"/>
@@ -5491,18 +5509,18 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="18" t="e">
-        <f>VLOOKUP(C215,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F215" s="13"/>
       <c r="G215" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="17"/>
@@ -5513,18 +5531,18 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="18" t="e">
-        <f>VLOOKUP(C216,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="17"/>
       <c r="E216" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F216" s="13"/>
       <c r="G216" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="13"/>
@@ -5535,18 +5553,18 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="18" t="e">
-        <f>VLOOKUP(C217,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F217" s="13"/>
       <c r="G217" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="17"/>
@@ -5557,18 +5575,18 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="18" t="e">
-        <f>VLOOKUP(C218,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="17"/>
       <c r="E218" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F218" s="13"/>
       <c r="G218" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="13"/>
@@ -5579,18 +5597,18 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="18" t="e">
-        <f>VLOOKUP(C219,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F219" s="13"/>
       <c r="G219" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="17"/>
@@ -5601,18 +5619,18 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="18" t="e">
-        <f>VLOOKUP(C220,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="17"/>
       <c r="E220" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F220" s="13"/>
       <c r="G220" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="13"/>
@@ -5623,18 +5641,18 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="18" t="e">
-        <f>VLOOKUP(C221,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F221" s="13"/>
       <c r="G221" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="17"/>
@@ -5645,18 +5663,18 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="18" t="e">
-        <f>VLOOKUP(C222,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="17"/>
       <c r="E222" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F222" s="13"/>
       <c r="G222" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="13"/>
@@ -5667,18 +5685,18 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
       <c r="B223" s="18" t="e">
-        <f>VLOOKUP(C223,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F223" s="13"/>
       <c r="G223" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="17"/>
@@ -5689,18 +5707,18 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
       <c r="B224" s="18" t="e">
-        <f>VLOOKUP(C224,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="17"/>
       <c r="E224" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F224" s="13"/>
       <c r="G224" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="13"/>
@@ -5711,18 +5729,18 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
       <c r="B225" s="18" t="e">
-        <f>VLOOKUP(C225,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F225" s="13"/>
       <c r="G225" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="17"/>
@@ -5733,18 +5751,18 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="18" t="e">
-        <f>VLOOKUP(C226,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="17"/>
       <c r="E226" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F226" s="13"/>
       <c r="G226" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="13"/>
@@ -5755,18 +5773,18 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="18" t="e">
-        <f>VLOOKUP(C227,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F227" s="13"/>
       <c r="G227" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="17"/>
@@ -5777,18 +5795,18 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="18" t="e">
-        <f>VLOOKUP(C228,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="17"/>
       <c r="E228" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F228" s="13"/>
       <c r="G228" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="13"/>
@@ -5799,18 +5817,18 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="18" t="e">
-        <f>VLOOKUP(C229,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="E229" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F229" s="13"/>
       <c r="G229" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="17"/>
@@ -5821,18 +5839,18 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="18" t="e">
-        <f>VLOOKUP(C230,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="17"/>
       <c r="E230" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F230" s="13"/>
       <c r="G230" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="13"/>
@@ -5843,18 +5861,18 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="18" t="e">
-        <f>VLOOKUP(C231,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F231" s="13"/>
       <c r="G231" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="17"/>
@@ -5865,18 +5883,18 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="18" t="e">
-        <f>VLOOKUP(C232,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="17"/>
       <c r="E232" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F232" s="13"/>
       <c r="G232" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="13"/>
@@ -5887,18 +5905,18 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="18" t="e">
-        <f>VLOOKUP(C233,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F233" s="13"/>
       <c r="G233" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="17"/>
@@ -5909,18 +5927,18 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="18" t="e">
-        <f>VLOOKUP(C234,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="17"/>
       <c r="E234" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F234" s="13"/>
       <c r="G234" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="13"/>
@@ -5931,18 +5949,18 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="18" t="e">
-        <f>VLOOKUP(C235,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F235" s="13"/>
       <c r="G235" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="17"/>
@@ -5953,18 +5971,18 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="18" t="e">
-        <f>VLOOKUP(C236,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="17"/>
       <c r="E236" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F236" s="13"/>
       <c r="G236" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="13"/>
@@ -5975,18 +5993,18 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="18" t="e">
-        <f>VLOOKUP(C237,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F237" s="13"/>
       <c r="G237" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="17"/>
@@ -5997,18 +6015,18 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="18" t="e">
-        <f>VLOOKUP(C238,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="17"/>
       <c r="E238" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F238" s="13"/>
       <c r="G238" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="13"/>
@@ -6019,18 +6037,18 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="18" t="e">
-        <f>VLOOKUP(C239,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F239" s="13"/>
       <c r="G239" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="17"/>
@@ -6041,18 +6059,18 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="18" t="e">
-        <f>VLOOKUP(C240,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="13"/>
       <c r="D240" s="17"/>
       <c r="E240" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F240" s="13"/>
       <c r="G240" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="13"/>
@@ -6063,18 +6081,18 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="18" t="e">
-        <f>VLOOKUP(C241,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F241" s="13"/>
       <c r="G241" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="17"/>
@@ -6085,18 +6103,18 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="18" t="e">
-        <f>VLOOKUP(C242,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="17"/>
       <c r="E242" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F242" s="13"/>
       <c r="G242" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="13"/>
@@ -6107,18 +6125,18 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="18" t="e">
-        <f>VLOOKUP(C243,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F243" s="13"/>
       <c r="G243" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="17"/>
@@ -6129,18 +6147,18 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="18" t="e">
-        <f>VLOOKUP(C244,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="17"/>
       <c r="E244" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F244" s="13"/>
       <c r="G244" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="13"/>
@@ -6151,18 +6169,18 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="18" t="e">
-        <f>VLOOKUP(C245,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F245" s="13"/>
       <c r="G245" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="17"/>
@@ -6173,18 +6191,18 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="18" t="e">
-        <f>VLOOKUP(C246,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="17"/>
       <c r="E246" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F246" s="13"/>
       <c r="G246" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="13"/>
@@ -6195,18 +6213,18 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="18" t="e">
-        <f>VLOOKUP(C247,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="17"/>
@@ -6217,18 +6235,18 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="18" t="e">
-        <f>VLOOKUP(C248,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="17"/>
       <c r="E248" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="13"/>
@@ -6239,18 +6257,18 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="18" t="e">
-        <f>VLOOKUP(C249,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="17"/>
@@ -6261,18 +6279,18 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="18" t="e">
-        <f>VLOOKUP(C250,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="17"/>
       <c r="E250" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F250" s="13"/>
       <c r="G250" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="13"/>
@@ -6283,18 +6301,18 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="18" t="e">
-        <f>VLOOKUP(C251,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F251" s="13"/>
       <c r="G251" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="17"/>
@@ -6305,18 +6323,18 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="18" t="e">
-        <f>VLOOKUP(C252,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="17"/>
       <c r="E252" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F252" s="13"/>
       <c r="G252" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="13"/>
@@ -6327,18 +6345,18 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="18" t="e">
-        <f>VLOOKUP(C253,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F253" s="13"/>
       <c r="G253" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="17"/>
@@ -6349,18 +6367,18 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="18" t="e">
-        <f>VLOOKUP(C254,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="17"/>
       <c r="E254" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F254" s="13"/>
       <c r="G254" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="13"/>
@@ -6371,18 +6389,18 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="18" t="e">
-        <f>VLOOKUP(C255,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F255" s="13"/>
       <c r="G255" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="17"/>
@@ -6393,18 +6411,18 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="18" t="e">
-        <f>VLOOKUP(C256,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="13"/>
       <c r="D256" s="17"/>
       <c r="E256" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F256" s="13"/>
       <c r="G256" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="13"/>
@@ -6415,18 +6433,18 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="18" t="e">
-        <f>VLOOKUP(C257,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="E257" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F257" s="13"/>
       <c r="G257" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H257" s="17"/>
@@ -6437,18 +6455,18 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="18" t="e">
-        <f>VLOOKUP(C258,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="17"/>
       <c r="E258" s="13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F258" s="13"/>
       <c r="G258" s="18" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="H258" s="13"/>
@@ -6459,18 +6477,18 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="18" t="e">
-        <f>VLOOKUP(C259,Tabla_INSAUDI,2,)</f>
+        <f t="shared" ref="B259:B322" si="12">VLOOKUP(C259,Tabla_INSAUDI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="E259" s="13" t="e">
-        <f t="shared" ref="E259:E311" si="8">VLOOKUP(F259,Tabla_Auditoria,2,)</f>
+        <f t="shared" ref="E259:E311" si="13">VLOOKUP(F259,Tabla_Auditoria,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="F259" s="13"/>
       <c r="G259" s="18" t="e">
-        <f t="shared" ref="G259:G311" si="9">VLOOKUP(H259,Tabla_Auditor,2,)</f>
+        <f t="shared" ref="G259:G311" si="14">VLOOKUP(H259,Tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H259" s="17"/>
@@ -6481,18 +6499,18 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="18" t="e">
-        <f>VLOOKUP(C260,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="17"/>
       <c r="E260" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F260" s="13"/>
       <c r="G260" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H260" s="13"/>
@@ -6503,18 +6521,18 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="18" t="e">
-        <f>VLOOKUP(C261,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F261" s="13"/>
       <c r="G261" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H261" s="17"/>
@@ -6525,18 +6543,18 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="18" t="e">
-        <f>VLOOKUP(C262,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="17"/>
       <c r="E262" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F262" s="13"/>
       <c r="G262" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H262" s="13"/>
@@ -6547,18 +6565,18 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="13"/>
       <c r="B263" s="18" t="e">
-        <f>VLOOKUP(C263,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F263" s="13"/>
       <c r="G263" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H263" s="17"/>
@@ -6569,18 +6587,18 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="18" t="e">
-        <f>VLOOKUP(C264,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="17"/>
       <c r="E264" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F264" s="13"/>
       <c r="G264" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H264" s="13"/>
@@ -6591,18 +6609,18 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="18" t="e">
-        <f>VLOOKUP(C265,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="E265" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F265" s="13"/>
       <c r="G265" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H265" s="17"/>
@@ -6613,18 +6631,18 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="18" t="e">
-        <f>VLOOKUP(C266,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="17"/>
       <c r="E266" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F266" s="13"/>
       <c r="G266" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H266" s="13"/>
@@ -6635,18 +6653,18 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="18" t="e">
-        <f>VLOOKUP(C267,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F267" s="13"/>
       <c r="G267" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H267" s="17"/>
@@ -6657,18 +6675,18 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
       <c r="B268" s="18" t="e">
-        <f>VLOOKUP(C268,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="17"/>
       <c r="E268" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F268" s="13"/>
       <c r="G268" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H268" s="13"/>
@@ -6679,18 +6697,18 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="18" t="e">
-        <f>VLOOKUP(C269,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F269" s="13"/>
       <c r="G269" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H269" s="17"/>
@@ -6701,18 +6719,18 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="18" t="e">
-        <f>VLOOKUP(C270,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="17"/>
       <c r="E270" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F270" s="13"/>
       <c r="G270" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H270" s="13"/>
@@ -6723,18 +6741,18 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="18" t="e">
-        <f>VLOOKUP(C271,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="E271" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F271" s="13"/>
       <c r="G271" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H271" s="17"/>
@@ -6745,18 +6763,18 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="18" t="e">
-        <f>VLOOKUP(C272,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="17"/>
       <c r="E272" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F272" s="13"/>
       <c r="G272" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H272" s="13"/>
@@ -6767,18 +6785,18 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="18" t="e">
-        <f>VLOOKUP(C273,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F273" s="13"/>
       <c r="G273" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H273" s="17"/>
@@ -6789,18 +6807,18 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="13"/>
       <c r="B274" s="18" t="e">
-        <f>VLOOKUP(C274,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="17"/>
       <c r="E274" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F274" s="13"/>
       <c r="G274" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H274" s="13"/>
@@ -6811,18 +6829,18 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="18" t="e">
-        <f>VLOOKUP(C275,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F275" s="13"/>
       <c r="G275" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H275" s="17"/>
@@ -6833,18 +6851,18 @@
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
       <c r="B276" s="18" t="e">
-        <f>VLOOKUP(C276,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="17"/>
       <c r="E276" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F276" s="13"/>
       <c r="G276" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H276" s="13"/>
@@ -6855,18 +6873,18 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="18" t="e">
-        <f>VLOOKUP(C277,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="E277" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F277" s="13"/>
       <c r="G277" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H277" s="17"/>
@@ -6877,18 +6895,18 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="13"/>
       <c r="B278" s="18" t="e">
-        <f>VLOOKUP(C278,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="17"/>
       <c r="E278" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F278" s="13"/>
       <c r="G278" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H278" s="13"/>
@@ -6899,18 +6917,18 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="18" t="e">
-        <f>VLOOKUP(C279,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F279" s="13"/>
       <c r="G279" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H279" s="17"/>
@@ -6921,18 +6939,18 @@
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="13"/>
       <c r="B280" s="18" t="e">
-        <f>VLOOKUP(C280,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="17"/>
       <c r="E280" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F280" s="13"/>
       <c r="G280" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H280" s="13"/>
@@ -6943,18 +6961,18 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="18" t="e">
-        <f>VLOOKUP(C281,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F281" s="13"/>
       <c r="G281" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H281" s="17"/>
@@ -6965,18 +6983,18 @@
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="18" t="e">
-        <f>VLOOKUP(C282,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="17"/>
       <c r="E282" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F282" s="13"/>
       <c r="G282" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H282" s="13"/>
@@ -6987,18 +7005,18 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
       <c r="B283" s="18" t="e">
-        <f>VLOOKUP(C283,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F283" s="13"/>
       <c r="G283" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H283" s="17"/>
@@ -7009,18 +7027,18 @@
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="13"/>
       <c r="B284" s="18" t="e">
-        <f>VLOOKUP(C284,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="17"/>
       <c r="E284" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F284" s="13"/>
       <c r="G284" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H284" s="13"/>
@@ -7031,18 +7049,18 @@
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>
       <c r="B285" s="18" t="e">
-        <f>VLOOKUP(C285,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F285" s="13"/>
       <c r="G285" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H285" s="17"/>
@@ -7053,18 +7071,18 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
       <c r="B286" s="18" t="e">
-        <f>VLOOKUP(C286,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="17"/>
       <c r="E286" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F286" s="13"/>
       <c r="G286" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H286" s="13"/>
@@ -7075,18 +7093,18 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="13"/>
       <c r="B287" s="18" t="e">
-        <f>VLOOKUP(C287,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F287" s="13"/>
       <c r="G287" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H287" s="17"/>
@@ -7097,18 +7115,18 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
       <c r="B288" s="18" t="e">
-        <f>VLOOKUP(C288,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="17"/>
       <c r="E288" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F288" s="13"/>
       <c r="G288" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H288" s="13"/>
@@ -7119,18 +7137,18 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
       <c r="B289" s="18" t="e">
-        <f>VLOOKUP(C289,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F289" s="13"/>
       <c r="G289" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H289" s="17"/>
@@ -7141,18 +7159,18 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="13"/>
       <c r="B290" s="18" t="e">
-        <f>VLOOKUP(C290,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="17"/>
       <c r="E290" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F290" s="13"/>
       <c r="G290" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H290" s="13"/>
@@ -7163,18 +7181,18 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="13"/>
       <c r="B291" s="18" t="e">
-        <f>VLOOKUP(C291,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F291" s="13"/>
       <c r="G291" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H291" s="17"/>
@@ -7185,18 +7203,18 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="13"/>
       <c r="B292" s="18" t="e">
-        <f>VLOOKUP(C292,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="17"/>
       <c r="E292" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F292" s="13"/>
       <c r="G292" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H292" s="13"/>
@@ -7207,18 +7225,18 @@
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="18" t="e">
-        <f>VLOOKUP(C293,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="E293" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F293" s="13"/>
       <c r="G293" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H293" s="17"/>
@@ -7229,18 +7247,18 @@
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="18" t="e">
-        <f>VLOOKUP(C294,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="17"/>
       <c r="E294" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F294" s="13"/>
       <c r="G294" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H294" s="13"/>
@@ -7251,18 +7269,18 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="18" t="e">
-        <f>VLOOKUP(C295,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="E295" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F295" s="13"/>
       <c r="G295" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H295" s="17"/>
@@ -7273,18 +7291,18 @@
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="18" t="e">
-        <f>VLOOKUP(C296,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="17"/>
       <c r="E296" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F296" s="13"/>
       <c r="G296" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H296" s="13"/>
@@ -7295,18 +7313,18 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="18" t="e">
-        <f>VLOOKUP(C297,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="E297" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F297" s="13"/>
       <c r="G297" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H297" s="17"/>
@@ -7317,18 +7335,18 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="18" t="e">
-        <f>VLOOKUP(C298,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="17"/>
       <c r="E298" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F298" s="13"/>
       <c r="G298" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H298" s="13"/>
@@ -7339,18 +7357,18 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="18" t="e">
-        <f>VLOOKUP(C299,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="E299" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F299" s="13"/>
       <c r="G299" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H299" s="17"/>
@@ -7361,18 +7379,18 @@
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="18" t="e">
-        <f>VLOOKUP(C300,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="17"/>
       <c r="E300" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F300" s="13"/>
       <c r="G300" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H300" s="13"/>
@@ -7383,18 +7401,18 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="18" t="e">
-        <f>VLOOKUP(C301,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
       <c r="E301" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F301" s="13"/>
       <c r="G301" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H301" s="17"/>
@@ -7405,18 +7423,18 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="18" t="e">
-        <f>VLOOKUP(C302,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="17"/>
       <c r="E302" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F302" s="13"/>
       <c r="G302" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H302" s="13"/>
@@ -7427,18 +7445,18 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="18" t="e">
-        <f>VLOOKUP(C303,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="E303" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F303" s="13"/>
       <c r="G303" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H303" s="17"/>
@@ -7449,18 +7467,18 @@
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="18" t="e">
-        <f>VLOOKUP(C304,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="17"/>
       <c r="E304" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F304" s="13"/>
       <c r="G304" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H304" s="13"/>
@@ -7471,18 +7489,18 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="18" t="e">
-        <f>VLOOKUP(C305,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
       <c r="E305" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F305" s="13"/>
       <c r="G305" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H305" s="17"/>
@@ -7493,18 +7511,18 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="18" t="e">
-        <f>VLOOKUP(C306,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="17"/>
       <c r="E306" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F306" s="13"/>
       <c r="G306" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H306" s="13"/>
@@ -7515,18 +7533,18 @@
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="18" t="e">
-        <f>VLOOKUP(C307,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
       <c r="E307" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F307" s="13"/>
       <c r="G307" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H307" s="17"/>
@@ -7537,18 +7555,18 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="18" t="e">
-        <f>VLOOKUP(C308,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="17"/>
       <c r="E308" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F308" s="13"/>
       <c r="G308" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H308" s="13"/>
@@ -7559,18 +7577,18 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="18" t="e">
-        <f>VLOOKUP(C309,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
       <c r="E309" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F309" s="13"/>
       <c r="G309" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H309" s="17"/>
@@ -7581,18 +7599,18 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="18" t="e">
-        <f>VLOOKUP(C310,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="17"/>
       <c r="E310" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F310" s="13"/>
       <c r="G310" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H310" s="13"/>
@@ -7603,18 +7621,18 @@
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="18" t="e">
-        <f>VLOOKUP(C311,Tabla_INSAUDI,2,)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
       <c r="E311" s="13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F311" s="13"/>
       <c r="G311" s="18" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="H311" s="17"/>
@@ -7623,7 +7641,7 @@
       <c r="K311" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WDtswE3E9yELTG7IewxsDJPd4mJqNttZh8fPuPlr6+6PzcGEjDUhI1kYgTHia0bzQ42xWnINiWrKhaM5XJSJEA==" saltValue="tnSXghd0C2PaUeze7tEeWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QtlzmJI533ewqAJvspgIxmnucEPEZaKCxql316NQoagJcsiX6GSZp05qQJUrDG5ptSIDb5amK/ZWJbz2xg4u0A==" saltValue="0BN5lks+y3nvDxqzCvShpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{D2BB604F-DBB4-4A08-9809-8C1F961CB9F7}">
       <formula1>Lista_Anno</formula1>
@@ -7647,6 +7665,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7679,13 +7699,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -7693,7 +7713,7 @@
         <v>2010</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7705,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L5" s="16">
         <v>1</v>
@@ -7716,7 +7736,7 @@
         <v>2011</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -7728,7 +7748,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L6" s="16">
         <v>2</v>
@@ -7739,13 +7759,13 @@
         <v>2012</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L7" s="16">
         <v>3</v>
@@ -7756,7 +7776,7 @@
         <v>2013</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L8" s="16">
         <v>4</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitsource\back-end\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05313AF5-6D56-44CC-B37C-5EF4E9B37992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A860B365-1409-4903-B723-E3ADCD1D3B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,27 +809,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -890,17 +872,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1772-35AF-4198-9510-18D55384E446}">
   <dimension ref="A1:AD315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,38 +1340,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="83"/>
     </row>
     <row r="3" spans="1:30" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1422,99 +1434,99 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+      <c r="A4" s="64">
         <v>2017</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="65">
         <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,tabla_INSAUDI,2,)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="67">
         <v>23232</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="68">
         <f t="shared" ref="F4:F67" si="1">VLOOKUP(G4,tabla_Auditor,2,)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="70">
         <v>232.32</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="71">
         <f t="shared" ref="I4:I67" si="2">VLOOKUP(J4,Tabla_unidad,2,)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="84">
+      <c r="K4" s="72">
         <v>0</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="72">
         <v>0</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="72">
         <v>0</v>
       </c>
-      <c r="N4" s="84">
+      <c r="N4" s="72">
         <v>0</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="86">
+      <c r="P4" s="74">
         <v>23322</v>
       </c>
-      <c r="Q4" s="87">
+      <c r="Q4" s="75">
         <f t="shared" ref="Q4:Q67" si="3">VLOOKUP(R4,tabla_Auditor,2,)</f>
         <v>1</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="89">
+      <c r="S4" s="77">
         <v>211.32</v>
       </c>
-      <c r="T4" s="90">
+      <c r="T4" s="78">
         <f t="shared" ref="T4:T67" si="4">VLOOKUP(U4,Tabla_unidad,2,)</f>
         <v>1</v>
       </c>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="81">
+      <c r="V4" s="69">
         <v>0</v>
       </c>
-      <c r="W4" s="81">
+      <c r="W4" s="69">
         <v>0</v>
       </c>
-      <c r="X4" s="81">
+      <c r="X4" s="69">
         <v>0</v>
       </c>
-      <c r="Y4" s="81">
+      <c r="Y4" s="69">
         <v>0</v>
       </c>
-      <c r="Z4" s="81">
+      <c r="Z4" s="69">
         <v>0</v>
       </c>
-      <c r="AA4" s="81">
+      <c r="AA4" s="69">
         <v>0</v>
       </c>
-      <c r="AB4" s="81">
+      <c r="AB4" s="69">
         <v>1</v>
       </c>
-      <c r="AC4" s="91" t="s">
+      <c r="AC4" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="94">
+      <c r="AD4" s="80">
         <v>44087</v>
       </c>
     </row>
@@ -1542,9 +1554,9 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="72" t="e">
+      <c r="O5" s="9"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1565,8 +1577,8 @@
         <f t="shared" ref="AB5:AB8" si="5">VLOOKUP(AC5,Tabla_opcion,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="95"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="86"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1592,9 +1604,9 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="72" t="e">
+      <c r="O6" s="9"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1615,8 +1627,8 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="95"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="86"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1625,7 +1637,7 @@
         <v>#N/A</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="70"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="48"/>
       <c r="F7" s="21" t="e">
         <f t="shared" si="1"/>
@@ -1642,9 +1654,9 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="72" t="e">
+      <c r="O7" s="9"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1665,8 +1677,8 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="95"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="86"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1692,8 +1704,9 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="72" t="e">
+      <c r="O8" s="87"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1714,8 +1727,8 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="93"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="89"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1741,8 +1754,9 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="72" t="e">
+      <c r="O9" s="87"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1763,8 +1777,8 @@
         <f t="shared" ref="AB9:AB67" si="6">VLOOKUP(AC9,Tabla_opcion,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="92"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="91"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1790,8 +1804,9 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="72" t="e">
+      <c r="O10" s="87"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1812,8 +1827,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="92"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="91"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -1839,8 +1854,9 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="72" t="e">
+      <c r="O11" s="87"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1861,8 +1877,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="92"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="91"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1888,8 +1904,9 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="72" t="e">
+      <c r="O12" s="87"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1910,8 +1927,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="92"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="91"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1937,8 +1954,9 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="72" t="e">
+      <c r="O13" s="87"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -1959,8 +1977,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="92"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="91"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -1986,8 +2004,9 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="72" t="e">
+      <c r="O14" s="87"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2008,8 +2027,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="92"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="91"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -2035,8 +2054,9 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="72" t="e">
+      <c r="O15" s="87"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2057,8 +2077,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="92"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="91"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -2084,8 +2104,9 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="72" t="e">
+      <c r="O16" s="87"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2106,8 +2127,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="92"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="91"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -2133,8 +2154,9 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="72" t="e">
+      <c r="O17" s="87"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2155,8 +2177,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="92"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="91"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -2182,8 +2204,9 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="72" t="e">
+      <c r="O18" s="87"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2204,8 +2227,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="92"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="91"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -2231,8 +2254,9 @@
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="72" t="e">
+      <c r="O19" s="87"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2253,8 +2277,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="92"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="91"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -2280,8 +2304,9 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="72" t="e">
+      <c r="O20" s="87"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2302,8 +2327,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="92"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="91"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -2329,8 +2354,9 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="72" t="e">
+      <c r="O21" s="87"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2351,8 +2377,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="92"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="91"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -2378,8 +2404,9 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="72" t="e">
+      <c r="O22" s="87"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2400,8 +2427,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="92"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="91"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -2427,8 +2454,9 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="72" t="e">
+      <c r="O23" s="87"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2449,8 +2477,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="92"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="91"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -2476,8 +2504,9 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="72" t="e">
+      <c r="O24" s="87"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2498,8 +2527,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="92"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="91"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -2525,8 +2554,9 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="72" t="e">
+      <c r="O25" s="87"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2547,8 +2577,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="92"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="91"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -2574,8 +2604,9 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="72" t="e">
+      <c r="O26" s="87"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2596,8 +2627,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="92"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="91"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -2623,8 +2654,9 @@
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="72" t="e">
+      <c r="O27" s="87"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2645,8 +2677,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="92"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="91"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -2672,8 +2704,9 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="72" t="e">
+      <c r="O28" s="87"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2694,8 +2727,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="92"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="91"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -2721,8 +2754,9 @@
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="72" t="e">
+      <c r="O29" s="87"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2743,8 +2777,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="92"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="91"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -2770,8 +2804,9 @@
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="72" t="e">
+      <c r="O30" s="87"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2792,8 +2827,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="92"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="91"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -2819,8 +2854,9 @@
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="72" t="e">
+      <c r="O31" s="87"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2841,8 +2877,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="92"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="91"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -2868,8 +2904,9 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="72" t="e">
+      <c r="O32" s="87"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2890,8 +2927,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="92"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="91"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -2917,8 +2954,9 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="72" t="e">
+      <c r="O33" s="87"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2939,8 +2977,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="92"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="91"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -2966,8 +3004,9 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="72" t="e">
+      <c r="O34" s="87"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -2988,8 +3027,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="92"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="91"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -3015,8 +3054,9 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="72" t="e">
+      <c r="O35" s="87"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3037,8 +3077,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="92"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="91"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -3064,8 +3104,9 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="72" t="e">
+      <c r="O36" s="87"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3086,8 +3127,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="92"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="91"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
@@ -3113,8 +3154,9 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="72" t="e">
+      <c r="O37" s="87"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3135,8 +3177,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="92"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="91"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -3162,8 +3204,9 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="72" t="e">
+      <c r="O38" s="87"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3184,8 +3227,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="92"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="91"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
@@ -3211,8 +3254,9 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="72" t="e">
+      <c r="O39" s="87"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3233,8 +3277,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="92"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="91"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -3260,8 +3304,9 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="72" t="e">
+      <c r="O40" s="87"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3282,8 +3327,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="92"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="91"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -3309,8 +3354,9 @@
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="72" t="e">
+      <c r="O41" s="87"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3331,8 +3377,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="92"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="91"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
@@ -3358,8 +3404,9 @@
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="72" t="e">
+      <c r="O42" s="87"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3380,8 +3427,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="92"/>
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="91"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -3407,8 +3454,9 @@
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="72" t="e">
+      <c r="O43" s="87"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3429,8 +3477,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="92"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="91"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
@@ -3456,8 +3504,9 @@
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="72" t="e">
+      <c r="O44" s="87"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3478,8 +3527,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="92"/>
+      <c r="AC44" s="90"/>
+      <c r="AD44" s="91"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -3505,8 +3554,9 @@
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="72" t="e">
+      <c r="O45" s="87"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3527,8 +3577,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="92"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="91"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
@@ -3554,8 +3604,9 @@
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="72" t="e">
+      <c r="O46" s="87"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3576,8 +3627,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC46" s="68"/>
-      <c r="AD46" s="92"/>
+      <c r="AC46" s="90"/>
+      <c r="AD46" s="91"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -3603,8 +3654,9 @@
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="72" t="e">
+      <c r="O47" s="87"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3625,8 +3677,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="92"/>
+      <c r="AC47" s="90"/>
+      <c r="AD47" s="91"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -3652,8 +3704,9 @@
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="72" t="e">
+      <c r="O48" s="87"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3674,8 +3727,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="92"/>
+      <c r="AC48" s="90"/>
+      <c r="AD48" s="91"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
@@ -3701,8 +3754,9 @@
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="72" t="e">
+      <c r="O49" s="87"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3723,8 +3777,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC49" s="68"/>
-      <c r="AD49" s="92"/>
+      <c r="AC49" s="90"/>
+      <c r="AD49" s="91"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
@@ -3750,8 +3804,9 @@
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="72" t="e">
+      <c r="O50" s="87"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3772,8 +3827,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC50" s="68"/>
-      <c r="AD50" s="92"/>
+      <c r="AC50" s="90"/>
+      <c r="AD50" s="91"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
@@ -3799,8 +3854,9 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="72" t="e">
+      <c r="O51" s="87"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3821,8 +3877,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC51" s="68"/>
-      <c r="AD51" s="92"/>
+      <c r="AC51" s="90"/>
+      <c r="AD51" s="91"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -3848,8 +3904,9 @@
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="72" t="e">
+      <c r="O52" s="87"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3870,8 +3927,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC52" s="68"/>
-      <c r="AD52" s="92"/>
+      <c r="AC52" s="90"/>
+      <c r="AD52" s="91"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
@@ -3897,8 +3954,9 @@
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="72" t="e">
+      <c r="O53" s="87"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3919,8 +3977,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC53" s="68"/>
-      <c r="AD53" s="92"/>
+      <c r="AC53" s="90"/>
+      <c r="AD53" s="91"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -3946,8 +4004,9 @@
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="72" t="e">
+      <c r="O54" s="87"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -3968,8 +4027,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC54" s="68"/>
-      <c r="AD54" s="92"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="91"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -3995,8 +4054,9 @@
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="72" t="e">
+      <c r="O55" s="87"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4017,8 +4077,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC55" s="68"/>
-      <c r="AD55" s="92"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="91"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
@@ -4044,8 +4104,9 @@
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="72" t="e">
+      <c r="O56" s="87"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4066,8 +4127,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="92"/>
+      <c r="AC56" s="90"/>
+      <c r="AD56" s="91"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
@@ -4093,8 +4154,9 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="72" t="e">
+      <c r="O57" s="87"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4115,8 +4177,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="92"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="91"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
@@ -4142,8 +4204,9 @@
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="72" t="e">
+      <c r="O58" s="87"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4164,8 +4227,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="92"/>
+      <c r="AC58" s="90"/>
+      <c r="AD58" s="91"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -4191,8 +4254,9 @@
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="72" t="e">
+      <c r="O59" s="87"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4213,8 +4277,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="92"/>
+      <c r="AC59" s="90"/>
+      <c r="AD59" s="91"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -4240,8 +4304,9 @@
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="72" t="e">
+      <c r="O60" s="87"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4262,8 +4327,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="92"/>
+      <c r="AC60" s="90"/>
+      <c r="AD60" s="91"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
@@ -4289,8 +4354,9 @@
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="72" t="e">
+      <c r="O61" s="87"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4311,8 +4377,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="92"/>
+      <c r="AC61" s="90"/>
+      <c r="AD61" s="91"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
@@ -4338,8 +4404,9 @@
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="72" t="e">
+      <c r="O62" s="87"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4360,8 +4427,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="92"/>
+      <c r="AC62" s="90"/>
+      <c r="AD62" s="91"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
@@ -4387,8 +4454,9 @@
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="72" t="e">
+      <c r="O63" s="87"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4409,8 +4477,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="92"/>
+      <c r="AC63" s="90"/>
+      <c r="AD63" s="91"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
@@ -4436,8 +4504,9 @@
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="72" t="e">
+      <c r="O64" s="87"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4458,8 +4527,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC64" s="68"/>
-      <c r="AD64" s="92"/>
+      <c r="AC64" s="90"/>
+      <c r="AD64" s="91"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
@@ -4485,8 +4554,9 @@
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="72" t="e">
+      <c r="O65" s="87"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4507,8 +4577,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="92"/>
+      <c r="AC65" s="90"/>
+      <c r="AD65" s="91"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -4534,8 +4604,9 @@
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
-      <c r="P66" s="73"/>
-      <c r="Q66" s="72" t="e">
+      <c r="O66" s="87"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4556,8 +4627,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC66" s="68"/>
-      <c r="AD66" s="92"/>
+      <c r="AC66" s="90"/>
+      <c r="AD66" s="91"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
@@ -4583,8 +4654,9 @@
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
-      <c r="P67" s="73"/>
-      <c r="Q67" s="72" t="e">
+      <c r="O67" s="87"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
@@ -4605,8 +4677,8 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="AC67" s="68"/>
-      <c r="AD67" s="92"/>
+      <c r="AC67" s="90"/>
+      <c r="AD67" s="91"/>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
@@ -4632,8 +4704,9 @@
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
-      <c r="P68" s="73"/>
-      <c r="Q68" s="72" t="e">
+      <c r="O68" s="87"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="84" t="e">
         <f t="shared" ref="Q68:Q131" si="10">VLOOKUP(R68,tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
@@ -4654,8 +4727,8 @@
         <f t="shared" ref="AB68:AB131" si="12">VLOOKUP(AC68,Tabla_opcion,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC68" s="68"/>
-      <c r="AD68" s="92"/>
+      <c r="AC68" s="90"/>
+      <c r="AD68" s="91"/>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -4681,8 +4754,9 @@
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="72" t="e">
+      <c r="O69" s="87"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4703,8 +4777,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC69" s="68"/>
-      <c r="AD69" s="92"/>
+      <c r="AC69" s="90"/>
+      <c r="AD69" s="91"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
@@ -4730,8 +4804,9 @@
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
-      <c r="P70" s="73"/>
-      <c r="Q70" s="72" t="e">
+      <c r="O70" s="87"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4752,8 +4827,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC70" s="68"/>
-      <c r="AD70" s="92"/>
+      <c r="AC70" s="90"/>
+      <c r="AD70" s="91"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -4779,8 +4854,9 @@
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
-      <c r="P71" s="73"/>
-      <c r="Q71" s="72" t="e">
+      <c r="O71" s="87"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4801,8 +4877,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC71" s="68"/>
-      <c r="AD71" s="92"/>
+      <c r="AC71" s="90"/>
+      <c r="AD71" s="91"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
@@ -4828,8 +4904,9 @@
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
-      <c r="P72" s="73"/>
-      <c r="Q72" s="72" t="e">
+      <c r="O72" s="87"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4850,8 +4927,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC72" s="68"/>
-      <c r="AD72" s="92"/>
+      <c r="AC72" s="90"/>
+      <c r="AD72" s="91"/>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
@@ -4877,8 +4954,9 @@
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
-      <c r="P73" s="73"/>
-      <c r="Q73" s="72" t="e">
+      <c r="O73" s="87"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4899,8 +4977,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC73" s="68"/>
-      <c r="AD73" s="92"/>
+      <c r="AC73" s="90"/>
+      <c r="AD73" s="91"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
@@ -4926,8 +5004,9 @@
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
-      <c r="P74" s="73"/>
-      <c r="Q74" s="72" t="e">
+      <c r="O74" s="87"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4948,8 +5027,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC74" s="68"/>
-      <c r="AD74" s="92"/>
+      <c r="AC74" s="90"/>
+      <c r="AD74" s="91"/>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
@@ -4975,8 +5054,9 @@
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
-      <c r="P75" s="73"/>
-      <c r="Q75" s="72" t="e">
+      <c r="O75" s="87"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -4997,8 +5077,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC75" s="68"/>
-      <c r="AD75" s="92"/>
+      <c r="AC75" s="90"/>
+      <c r="AD75" s="91"/>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
@@ -5024,8 +5104,9 @@
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
-      <c r="P76" s="73"/>
-      <c r="Q76" s="72" t="e">
+      <c r="O76" s="87"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5046,8 +5127,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC76" s="68"/>
-      <c r="AD76" s="92"/>
+      <c r="AC76" s="90"/>
+      <c r="AD76" s="91"/>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
@@ -5073,8 +5154,9 @@
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
-      <c r="P77" s="73"/>
-      <c r="Q77" s="72" t="e">
+      <c r="O77" s="87"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5095,8 +5177,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC77" s="68"/>
-      <c r="AD77" s="92"/>
+      <c r="AC77" s="90"/>
+      <c r="AD77" s="91"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
@@ -5122,8 +5204,9 @@
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="72" t="e">
+      <c r="O78" s="87"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5144,8 +5227,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC78" s="68"/>
-      <c r="AD78" s="92"/>
+      <c r="AC78" s="90"/>
+      <c r="AD78" s="91"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
@@ -5171,8 +5254,9 @@
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
-      <c r="P79" s="73"/>
-      <c r="Q79" s="72" t="e">
+      <c r="O79" s="87"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5193,8 +5277,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="92"/>
+      <c r="AC79" s="90"/>
+      <c r="AD79" s="91"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
@@ -5220,8 +5304,9 @@
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="72" t="e">
+      <c r="O80" s="87"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5242,8 +5327,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC80" s="68"/>
-      <c r="AD80" s="92"/>
+      <c r="AC80" s="90"/>
+      <c r="AD80" s="91"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
@@ -5269,8 +5354,9 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
-      <c r="P81" s="73"/>
-      <c r="Q81" s="72" t="e">
+      <c r="O81" s="87"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5291,8 +5377,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC81" s="68"/>
-      <c r="AD81" s="92"/>
+      <c r="AC81" s="90"/>
+      <c r="AD81" s="91"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
@@ -5318,8 +5404,9 @@
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
-      <c r="P82" s="73"/>
-      <c r="Q82" s="72" t="e">
+      <c r="O82" s="87"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5340,8 +5427,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC82" s="68"/>
-      <c r="AD82" s="92"/>
+      <c r="AC82" s="90"/>
+      <c r="AD82" s="91"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
@@ -5367,8 +5454,9 @@
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
-      <c r="P83" s="73"/>
-      <c r="Q83" s="72" t="e">
+      <c r="O83" s="87"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5389,8 +5477,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC83" s="68"/>
-      <c r="AD83" s="92"/>
+      <c r="AC83" s="90"/>
+      <c r="AD83" s="91"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -5416,8 +5504,9 @@
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="72" t="e">
+      <c r="O84" s="87"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5438,8 +5527,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="92"/>
+      <c r="AC84" s="90"/>
+      <c r="AD84" s="91"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -5465,8 +5554,9 @@
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="72" t="e">
+      <c r="O85" s="87"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5487,8 +5577,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC85" s="68"/>
-      <c r="AD85" s="92"/>
+      <c r="AC85" s="90"/>
+      <c r="AD85" s="91"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
@@ -5514,8 +5604,9 @@
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
-      <c r="P86" s="73"/>
-      <c r="Q86" s="72" t="e">
+      <c r="O86" s="87"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5536,8 +5627,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC86" s="68"/>
-      <c r="AD86" s="92"/>
+      <c r="AC86" s="90"/>
+      <c r="AD86" s="91"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
@@ -5563,8 +5654,9 @@
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
-      <c r="P87" s="73"/>
-      <c r="Q87" s="72" t="e">
+      <c r="O87" s="87"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5585,8 +5677,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC87" s="68"/>
-      <c r="AD87" s="92"/>
+      <c r="AC87" s="90"/>
+      <c r="AD87" s="91"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
@@ -5612,8 +5704,9 @@
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
-      <c r="P88" s="73"/>
-      <c r="Q88" s="72" t="e">
+      <c r="O88" s="87"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5634,8 +5727,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC88" s="68"/>
-      <c r="AD88" s="92"/>
+      <c r="AC88" s="90"/>
+      <c r="AD88" s="91"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
@@ -5661,8 +5754,9 @@
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
-      <c r="P89" s="73"/>
-      <c r="Q89" s="72" t="e">
+      <c r="O89" s="87"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5683,8 +5777,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC89" s="68"/>
-      <c r="AD89" s="92"/>
+      <c r="AC89" s="90"/>
+      <c r="AD89" s="91"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
@@ -5710,8 +5804,9 @@
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
-      <c r="P90" s="73"/>
-      <c r="Q90" s="72" t="e">
+      <c r="O90" s="87"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5732,8 +5827,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC90" s="68"/>
-      <c r="AD90" s="92"/>
+      <c r="AC90" s="90"/>
+      <c r="AD90" s="91"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
@@ -5759,8 +5854,9 @@
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
-      <c r="P91" s="73"/>
-      <c r="Q91" s="72" t="e">
+      <c r="O91" s="87"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5781,8 +5877,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC91" s="68"/>
-      <c r="AD91" s="92"/>
+      <c r="AC91" s="90"/>
+      <c r="AD91" s="91"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
@@ -5808,8 +5904,9 @@
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
-      <c r="P92" s="73"/>
-      <c r="Q92" s="72" t="e">
+      <c r="O92" s="87"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5830,8 +5927,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC92" s="68"/>
-      <c r="AD92" s="92"/>
+      <c r="AC92" s="90"/>
+      <c r="AD92" s="91"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
@@ -5857,8 +5954,9 @@
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
-      <c r="P93" s="73"/>
-      <c r="Q93" s="72" t="e">
+      <c r="O93" s="87"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5879,8 +5977,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC93" s="68"/>
-      <c r="AD93" s="92"/>
+      <c r="AC93" s="90"/>
+      <c r="AD93" s="91"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -5906,8 +6004,9 @@
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
-      <c r="P94" s="73"/>
-      <c r="Q94" s="72" t="e">
+      <c r="O94" s="87"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5928,8 +6027,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC94" s="68"/>
-      <c r="AD94" s="92"/>
+      <c r="AC94" s="90"/>
+      <c r="AD94" s="91"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
@@ -5955,8 +6054,9 @@
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
-      <c r="P95" s="73"/>
-      <c r="Q95" s="72" t="e">
+      <c r="O95" s="87"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -5977,8 +6077,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC95" s="68"/>
-      <c r="AD95" s="92"/>
+      <c r="AC95" s="90"/>
+      <c r="AD95" s="91"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
@@ -6004,8 +6104,9 @@
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
-      <c r="P96" s="73"/>
-      <c r="Q96" s="72" t="e">
+      <c r="O96" s="87"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6026,8 +6127,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC96" s="68"/>
-      <c r="AD96" s="92"/>
+      <c r="AC96" s="90"/>
+      <c r="AD96" s="91"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
@@ -6053,8 +6154,9 @@
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
-      <c r="P97" s="73"/>
-      <c r="Q97" s="72" t="e">
+      <c r="O97" s="87"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6075,8 +6177,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC97" s="68"/>
-      <c r="AD97" s="92"/>
+      <c r="AC97" s="90"/>
+      <c r="AD97" s="91"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
@@ -6102,8 +6204,9 @@
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="22"/>
-      <c r="P98" s="73"/>
-      <c r="Q98" s="72" t="e">
+      <c r="O98" s="87"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6124,8 +6227,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC98" s="68"/>
-      <c r="AD98" s="92"/>
+      <c r="AC98" s="90"/>
+      <c r="AD98" s="91"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
@@ -6151,8 +6254,9 @@
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
       <c r="N99" s="22"/>
-      <c r="P99" s="73"/>
-      <c r="Q99" s="72" t="e">
+      <c r="O99" s="87"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6173,8 +6277,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC99" s="68"/>
-      <c r="AD99" s="92"/>
+      <c r="AC99" s="90"/>
+      <c r="AD99" s="91"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
@@ -6200,8 +6304,9 @@
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="72" t="e">
+      <c r="O100" s="87"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6222,8 +6327,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC100" s="68"/>
-      <c r="AD100" s="92"/>
+      <c r="AC100" s="90"/>
+      <c r="AD100" s="91"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
@@ -6249,8 +6354,9 @@
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
-      <c r="P101" s="73"/>
-      <c r="Q101" s="72" t="e">
+      <c r="O101" s="87"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6271,8 +6377,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC101" s="68"/>
-      <c r="AD101" s="92"/>
+      <c r="AC101" s="90"/>
+      <c r="AD101" s="91"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
@@ -6298,8 +6404,9 @@
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
-      <c r="P102" s="73"/>
-      <c r="Q102" s="72" t="e">
+      <c r="O102" s="87"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6320,8 +6427,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC102" s="68"/>
-      <c r="AD102" s="92"/>
+      <c r="AC102" s="90"/>
+      <c r="AD102" s="91"/>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -6347,8 +6454,9 @@
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
-      <c r="P103" s="73"/>
-      <c r="Q103" s="72" t="e">
+      <c r="O103" s="87"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6369,8 +6477,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC103" s="68"/>
-      <c r="AD103" s="92"/>
+      <c r="AC103" s="90"/>
+      <c r="AD103" s="91"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
@@ -6396,8 +6504,9 @@
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
-      <c r="P104" s="73"/>
-      <c r="Q104" s="72" t="e">
+      <c r="O104" s="87"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6418,8 +6527,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC104" s="68"/>
-      <c r="AD104" s="92"/>
+      <c r="AC104" s="90"/>
+      <c r="AD104" s="91"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
@@ -6445,8 +6554,9 @@
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
-      <c r="P105" s="73"/>
-      <c r="Q105" s="72" t="e">
+      <c r="O105" s="87"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6467,8 +6577,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC105" s="68"/>
-      <c r="AD105" s="92"/>
+      <c r="AC105" s="90"/>
+      <c r="AD105" s="91"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
@@ -6494,8 +6604,9 @@
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
-      <c r="P106" s="73"/>
-      <c r="Q106" s="72" t="e">
+      <c r="O106" s="87"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6516,8 +6627,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC106" s="68"/>
-      <c r="AD106" s="92"/>
+      <c r="AC106" s="90"/>
+      <c r="AD106" s="91"/>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
@@ -6543,8 +6654,9 @@
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
-      <c r="P107" s="73"/>
-      <c r="Q107" s="72" t="e">
+      <c r="O107" s="87"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6565,8 +6677,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC107" s="68"/>
-      <c r="AD107" s="92"/>
+      <c r="AC107" s="90"/>
+      <c r="AD107" s="91"/>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
@@ -6592,8 +6704,9 @@
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
-      <c r="P108" s="73"/>
-      <c r="Q108" s="72" t="e">
+      <c r="O108" s="87"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6614,8 +6727,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC108" s="68"/>
-      <c r="AD108" s="92"/>
+      <c r="AC108" s="90"/>
+      <c r="AD108" s="91"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -6641,8 +6754,9 @@
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
-      <c r="P109" s="73"/>
-      <c r="Q109" s="72" t="e">
+      <c r="O109" s="87"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6663,8 +6777,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC109" s="68"/>
-      <c r="AD109" s="92"/>
+      <c r="AC109" s="90"/>
+      <c r="AD109" s="91"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
@@ -6690,8 +6804,9 @@
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
-      <c r="P110" s="73"/>
-      <c r="Q110" s="72" t="e">
+      <c r="O110" s="87"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6712,8 +6827,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC110" s="68"/>
-      <c r="AD110" s="92"/>
+      <c r="AC110" s="90"/>
+      <c r="AD110" s="91"/>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
@@ -6739,8 +6854,9 @@
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
-      <c r="P111" s="73"/>
-      <c r="Q111" s="72" t="e">
+      <c r="O111" s="87"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6761,8 +6877,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC111" s="68"/>
-      <c r="AD111" s="92"/>
+      <c r="AC111" s="90"/>
+      <c r="AD111" s="91"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
@@ -6788,8 +6904,9 @@
       <c r="L112" s="22"/>
       <c r="M112" s="22"/>
       <c r="N112" s="22"/>
-      <c r="P112" s="73"/>
-      <c r="Q112" s="72" t="e">
+      <c r="O112" s="87"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6810,8 +6927,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC112" s="68"/>
-      <c r="AD112" s="92"/>
+      <c r="AC112" s="90"/>
+      <c r="AD112" s="91"/>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
@@ -6837,8 +6954,9 @@
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
       <c r="N113" s="22"/>
-      <c r="P113" s="73"/>
-      <c r="Q113" s="72" t="e">
+      <c r="O113" s="87"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6859,8 +6977,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC113" s="68"/>
-      <c r="AD113" s="92"/>
+      <c r="AC113" s="90"/>
+      <c r="AD113" s="91"/>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
@@ -6886,8 +7004,9 @@
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
-      <c r="P114" s="73"/>
-      <c r="Q114" s="72" t="e">
+      <c r="O114" s="87"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6908,8 +7027,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC114" s="68"/>
-      <c r="AD114" s="92"/>
+      <c r="AC114" s="90"/>
+      <c r="AD114" s="91"/>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
@@ -6935,8 +7054,9 @@
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
-      <c r="P115" s="73"/>
-      <c r="Q115" s="72" t="e">
+      <c r="O115" s="87"/>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -6957,8 +7077,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC115" s="68"/>
-      <c r="AD115" s="92"/>
+      <c r="AC115" s="90"/>
+      <c r="AD115" s="91"/>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
@@ -6984,8 +7104,9 @@
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
       <c r="N116" s="22"/>
-      <c r="P116" s="73"/>
-      <c r="Q116" s="72" t="e">
+      <c r="O116" s="87"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7006,8 +7127,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC116" s="68"/>
-      <c r="AD116" s="92"/>
+      <c r="AC116" s="90"/>
+      <c r="AD116" s="91"/>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
@@ -7033,8 +7154,9 @@
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
-      <c r="P117" s="73"/>
-      <c r="Q117" s="72" t="e">
+      <c r="O117" s="87"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7055,8 +7177,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC117" s="68"/>
-      <c r="AD117" s="92"/>
+      <c r="AC117" s="90"/>
+      <c r="AD117" s="91"/>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
@@ -7082,8 +7204,9 @@
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
-      <c r="P118" s="73"/>
-      <c r="Q118" s="72" t="e">
+      <c r="O118" s="87"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7104,8 +7227,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC118" s="68"/>
-      <c r="AD118" s="92"/>
+      <c r="AC118" s="90"/>
+      <c r="AD118" s="91"/>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
@@ -7131,8 +7254,9 @@
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
-      <c r="P119" s="73"/>
-      <c r="Q119" s="72" t="e">
+      <c r="O119" s="87"/>
+      <c r="P119" s="29"/>
+      <c r="Q119" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7153,8 +7277,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC119" s="68"/>
-      <c r="AD119" s="92"/>
+      <c r="AC119" s="90"/>
+      <c r="AD119" s="91"/>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
@@ -7180,8 +7304,9 @@
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
-      <c r="P120" s="73"/>
-      <c r="Q120" s="72" t="e">
+      <c r="O120" s="87"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7202,8 +7327,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC120" s="68"/>
-      <c r="AD120" s="92"/>
+      <c r="AC120" s="90"/>
+      <c r="AD120" s="91"/>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
@@ -7229,8 +7354,9 @@
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
-      <c r="P121" s="73"/>
-      <c r="Q121" s="72" t="e">
+      <c r="O121" s="87"/>
+      <c r="P121" s="29"/>
+      <c r="Q121" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7251,8 +7377,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC121" s="68"/>
-      <c r="AD121" s="92"/>
+      <c r="AC121" s="90"/>
+      <c r="AD121" s="91"/>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -7278,8 +7404,9 @@
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
-      <c r="P122" s="73"/>
-      <c r="Q122" s="72" t="e">
+      <c r="O122" s="87"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7300,8 +7427,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC122" s="68"/>
-      <c r="AD122" s="92"/>
+      <c r="AC122" s="90"/>
+      <c r="AD122" s="91"/>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
@@ -7327,8 +7454,9 @@
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
       <c r="N123" s="22"/>
-      <c r="P123" s="73"/>
-      <c r="Q123" s="72" t="e">
+      <c r="O123" s="87"/>
+      <c r="P123" s="29"/>
+      <c r="Q123" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7349,8 +7477,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC123" s="68"/>
-      <c r="AD123" s="92"/>
+      <c r="AC123" s="90"/>
+      <c r="AD123" s="91"/>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
@@ -7376,8 +7504,9 @@
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
-      <c r="P124" s="73"/>
-      <c r="Q124" s="72" t="e">
+      <c r="O124" s="87"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7398,8 +7527,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC124" s="68"/>
-      <c r="AD124" s="92"/>
+      <c r="AC124" s="90"/>
+      <c r="AD124" s="91"/>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
@@ -7425,8 +7554,9 @@
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
-      <c r="P125" s="73"/>
-      <c r="Q125" s="72" t="e">
+      <c r="O125" s="87"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7447,8 +7577,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC125" s="68"/>
-      <c r="AD125" s="92"/>
+      <c r="AC125" s="90"/>
+      <c r="AD125" s="91"/>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
@@ -7474,8 +7604,9 @@
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
       <c r="N126" s="22"/>
-      <c r="P126" s="73"/>
-      <c r="Q126" s="72" t="e">
+      <c r="O126" s="87"/>
+      <c r="P126" s="29"/>
+      <c r="Q126" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7496,8 +7627,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC126" s="68"/>
-      <c r="AD126" s="92"/>
+      <c r="AC126" s="90"/>
+      <c r="AD126" s="91"/>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
@@ -7523,8 +7654,9 @@
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
       <c r="N127" s="22"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="72" t="e">
+      <c r="O127" s="87"/>
+      <c r="P127" s="29"/>
+      <c r="Q127" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7545,8 +7677,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC127" s="68"/>
-      <c r="AD127" s="92"/>
+      <c r="AC127" s="90"/>
+      <c r="AD127" s="91"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
@@ -7572,8 +7704,9 @@
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
       <c r="N128" s="22"/>
-      <c r="P128" s="73"/>
-      <c r="Q128" s="72" t="e">
+      <c r="O128" s="87"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7594,8 +7727,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC128" s="68"/>
-      <c r="AD128" s="92"/>
+      <c r="AC128" s="90"/>
+      <c r="AD128" s="91"/>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
@@ -7621,8 +7754,9 @@
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
-      <c r="P129" s="73"/>
-      <c r="Q129" s="72" t="e">
+      <c r="O129" s="87"/>
+      <c r="P129" s="29"/>
+      <c r="Q129" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7643,8 +7777,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC129" s="68"/>
-      <c r="AD129" s="92"/>
+      <c r="AC129" s="90"/>
+      <c r="AD129" s="91"/>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
@@ -7670,8 +7804,9 @@
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
       <c r="N130" s="22"/>
-      <c r="P130" s="73"/>
-      <c r="Q130" s="72" t="e">
+      <c r="O130" s="87"/>
+      <c r="P130" s="29"/>
+      <c r="Q130" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7692,8 +7827,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC130" s="68"/>
-      <c r="AD130" s="92"/>
+      <c r="AC130" s="90"/>
+      <c r="AD130" s="91"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
@@ -7719,8 +7854,9 @@
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
-      <c r="P131" s="73"/>
-      <c r="Q131" s="72" t="e">
+      <c r="O131" s="87"/>
+      <c r="P131" s="29"/>
+      <c r="Q131" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
@@ -7741,8 +7877,8 @@
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="AC131" s="68"/>
-      <c r="AD131" s="92"/>
+      <c r="AC131" s="90"/>
+      <c r="AD131" s="91"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
@@ -7768,8 +7904,9 @@
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
       <c r="N132" s="22"/>
-      <c r="P132" s="73"/>
-      <c r="Q132" s="72" t="e">
+      <c r="O132" s="87"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="84" t="e">
         <f t="shared" ref="Q132:Q195" si="16">VLOOKUP(R132,tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
@@ -7790,8 +7927,8 @@
         <f t="shared" ref="AB132:AB195" si="18">VLOOKUP(AC132,Tabla_opcion,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC132" s="68"/>
-      <c r="AD132" s="92"/>
+      <c r="AC132" s="90"/>
+      <c r="AD132" s="91"/>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
@@ -7817,8 +7954,9 @@
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
       <c r="N133" s="22"/>
-      <c r="P133" s="73"/>
-      <c r="Q133" s="72" t="e">
+      <c r="O133" s="87"/>
+      <c r="P133" s="29"/>
+      <c r="Q133" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -7839,8 +7977,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC133" s="68"/>
-      <c r="AD133" s="92"/>
+      <c r="AC133" s="90"/>
+      <c r="AD133" s="91"/>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -7866,8 +8004,9 @@
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
       <c r="N134" s="22"/>
-      <c r="P134" s="73"/>
-      <c r="Q134" s="72" t="e">
+      <c r="O134" s="87"/>
+      <c r="P134" s="29"/>
+      <c r="Q134" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -7888,8 +8027,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC134" s="68"/>
-      <c r="AD134" s="92"/>
+      <c r="AC134" s="90"/>
+      <c r="AD134" s="91"/>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -7915,8 +8054,9 @@
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
-      <c r="P135" s="73"/>
-      <c r="Q135" s="72" t="e">
+      <c r="O135" s="87"/>
+      <c r="P135" s="29"/>
+      <c r="Q135" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -7937,8 +8077,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC135" s="68"/>
-      <c r="AD135" s="92"/>
+      <c r="AC135" s="90"/>
+      <c r="AD135" s="91"/>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
@@ -7964,8 +8104,9 @@
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
-      <c r="P136" s="73"/>
-      <c r="Q136" s="72" t="e">
+      <c r="O136" s="87"/>
+      <c r="P136" s="29"/>
+      <c r="Q136" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -7986,8 +8127,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC136" s="68"/>
-      <c r="AD136" s="92"/>
+      <c r="AC136" s="90"/>
+      <c r="AD136" s="91"/>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
@@ -8013,8 +8154,9 @@
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
       <c r="N137" s="22"/>
-      <c r="P137" s="73"/>
-      <c r="Q137" s="72" t="e">
+      <c r="O137" s="87"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8035,8 +8177,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC137" s="68"/>
-      <c r="AD137" s="92"/>
+      <c r="AC137" s="90"/>
+      <c r="AD137" s="91"/>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
@@ -8062,8 +8204,9 @@
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
-      <c r="P138" s="73"/>
-      <c r="Q138" s="72" t="e">
+      <c r="O138" s="87"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8084,8 +8227,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC138" s="68"/>
-      <c r="AD138" s="92"/>
+      <c r="AC138" s="90"/>
+      <c r="AD138" s="91"/>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
@@ -8111,8 +8254,9 @@
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
-      <c r="P139" s="73"/>
-      <c r="Q139" s="72" t="e">
+      <c r="O139" s="87"/>
+      <c r="P139" s="29"/>
+      <c r="Q139" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8133,8 +8277,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC139" s="68"/>
-      <c r="AD139" s="92"/>
+      <c r="AC139" s="90"/>
+      <c r="AD139" s="91"/>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
@@ -8160,8 +8304,9 @@
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
-      <c r="P140" s="73"/>
-      <c r="Q140" s="72" t="e">
+      <c r="O140" s="87"/>
+      <c r="P140" s="29"/>
+      <c r="Q140" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8182,8 +8327,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC140" s="68"/>
-      <c r="AD140" s="92"/>
+      <c r="AC140" s="90"/>
+      <c r="AD140" s="91"/>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
@@ -8209,8 +8354,9 @@
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
-      <c r="P141" s="73"/>
-      <c r="Q141" s="72" t="e">
+      <c r="O141" s="87"/>
+      <c r="P141" s="29"/>
+      <c r="Q141" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8231,8 +8377,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC141" s="68"/>
-      <c r="AD141" s="92"/>
+      <c r="AC141" s="90"/>
+      <c r="AD141" s="91"/>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
@@ -8258,8 +8404,9 @@
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
-      <c r="P142" s="73"/>
-      <c r="Q142" s="72" t="e">
+      <c r="O142" s="87"/>
+      <c r="P142" s="29"/>
+      <c r="Q142" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8280,8 +8427,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC142" s="68"/>
-      <c r="AD142" s="92"/>
+      <c r="AC142" s="90"/>
+      <c r="AD142" s="91"/>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
@@ -8307,8 +8454,9 @@
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
       <c r="N143" s="22"/>
-      <c r="P143" s="73"/>
-      <c r="Q143" s="72" t="e">
+      <c r="O143" s="87"/>
+      <c r="P143" s="29"/>
+      <c r="Q143" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8329,8 +8477,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC143" s="68"/>
-      <c r="AD143" s="92"/>
+      <c r="AC143" s="90"/>
+      <c r="AD143" s="91"/>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
@@ -8356,8 +8504,9 @@
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
       <c r="N144" s="22"/>
-      <c r="P144" s="73"/>
-      <c r="Q144" s="72" t="e">
+      <c r="O144" s="87"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8378,8 +8527,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC144" s="68"/>
-      <c r="AD144" s="92"/>
+      <c r="AC144" s="90"/>
+      <c r="AD144" s="91"/>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
@@ -8405,8 +8554,9 @@
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
       <c r="N145" s="22"/>
-      <c r="P145" s="73"/>
-      <c r="Q145" s="72" t="e">
+      <c r="O145" s="87"/>
+      <c r="P145" s="29"/>
+      <c r="Q145" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8427,8 +8577,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC145" s="68"/>
-      <c r="AD145" s="92"/>
+      <c r="AC145" s="90"/>
+      <c r="AD145" s="91"/>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
@@ -8454,8 +8604,9 @@
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
       <c r="N146" s="22"/>
-      <c r="P146" s="73"/>
-      <c r="Q146" s="72" t="e">
+      <c r="O146" s="87"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8476,8 +8627,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC146" s="68"/>
-      <c r="AD146" s="92"/>
+      <c r="AC146" s="90"/>
+      <c r="AD146" s="91"/>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
@@ -8503,8 +8654,9 @@
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
       <c r="N147" s="22"/>
-      <c r="P147" s="73"/>
-      <c r="Q147" s="72" t="e">
+      <c r="O147" s="87"/>
+      <c r="P147" s="29"/>
+      <c r="Q147" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8525,8 +8677,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC147" s="68"/>
-      <c r="AD147" s="92"/>
+      <c r="AC147" s="90"/>
+      <c r="AD147" s="91"/>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
@@ -8552,8 +8704,9 @@
       <c r="L148" s="22"/>
       <c r="M148" s="22"/>
       <c r="N148" s="22"/>
-      <c r="P148" s="73"/>
-      <c r="Q148" s="72" t="e">
+      <c r="O148" s="87"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8574,8 +8727,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC148" s="68"/>
-      <c r="AD148" s="92"/>
+      <c r="AC148" s="90"/>
+      <c r="AD148" s="91"/>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
@@ -8601,8 +8754,9 @@
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
       <c r="N149" s="22"/>
-      <c r="P149" s="73"/>
-      <c r="Q149" s="72" t="e">
+      <c r="O149" s="87"/>
+      <c r="P149" s="29"/>
+      <c r="Q149" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8623,8 +8777,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC149" s="68"/>
-      <c r="AD149" s="92"/>
+      <c r="AC149" s="90"/>
+      <c r="AD149" s="91"/>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
@@ -8650,8 +8804,9 @@
       <c r="L150" s="22"/>
       <c r="M150" s="22"/>
       <c r="N150" s="22"/>
-      <c r="P150" s="73"/>
-      <c r="Q150" s="72" t="e">
+      <c r="O150" s="87"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8672,8 +8827,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC150" s="68"/>
-      <c r="AD150" s="92"/>
+      <c r="AC150" s="90"/>
+      <c r="AD150" s="91"/>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
@@ -8699,8 +8854,9 @@
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
       <c r="N151" s="22"/>
-      <c r="P151" s="73"/>
-      <c r="Q151" s="72" t="e">
+      <c r="O151" s="87"/>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8721,8 +8877,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC151" s="68"/>
-      <c r="AD151" s="92"/>
+      <c r="AC151" s="90"/>
+      <c r="AD151" s="91"/>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
@@ -8748,8 +8904,9 @@
       <c r="L152" s="22"/>
       <c r="M152" s="22"/>
       <c r="N152" s="22"/>
-      <c r="P152" s="73"/>
-      <c r="Q152" s="72" t="e">
+      <c r="O152" s="87"/>
+      <c r="P152" s="29"/>
+      <c r="Q152" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8770,8 +8927,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC152" s="68"/>
-      <c r="AD152" s="92"/>
+      <c r="AC152" s="90"/>
+      <c r="AD152" s="91"/>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
@@ -8797,8 +8954,9 @@
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
       <c r="N153" s="22"/>
-      <c r="P153" s="73"/>
-      <c r="Q153" s="72" t="e">
+      <c r="O153" s="87"/>
+      <c r="P153" s="29"/>
+      <c r="Q153" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8819,8 +8977,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC153" s="68"/>
-      <c r="AD153" s="92"/>
+      <c r="AC153" s="90"/>
+      <c r="AD153" s="91"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
@@ -8846,8 +9004,9 @@
       <c r="L154" s="22"/>
       <c r="M154" s="22"/>
       <c r="N154" s="22"/>
-      <c r="P154" s="73"/>
-      <c r="Q154" s="72" t="e">
+      <c r="O154" s="87"/>
+      <c r="P154" s="29"/>
+      <c r="Q154" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8868,8 +9027,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC154" s="68"/>
-      <c r="AD154" s="92"/>
+      <c r="AC154" s="90"/>
+      <c r="AD154" s="91"/>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
@@ -8895,8 +9054,9 @@
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
       <c r="N155" s="22"/>
-      <c r="P155" s="73"/>
-      <c r="Q155" s="72" t="e">
+      <c r="O155" s="87"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8917,8 +9077,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC155" s="68"/>
-      <c r="AD155" s="92"/>
+      <c r="AC155" s="90"/>
+      <c r="AD155" s="91"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
@@ -8944,8 +9104,9 @@
       <c r="L156" s="22"/>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
-      <c r="P156" s="73"/>
-      <c r="Q156" s="72" t="e">
+      <c r="O156" s="87"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -8966,8 +9127,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC156" s="68"/>
-      <c r="AD156" s="92"/>
+      <c r="AC156" s="90"/>
+      <c r="AD156" s="91"/>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
@@ -8993,8 +9154,9 @@
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
-      <c r="P157" s="73"/>
-      <c r="Q157" s="72" t="e">
+      <c r="O157" s="87"/>
+      <c r="P157" s="29"/>
+      <c r="Q157" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9015,8 +9177,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC157" s="68"/>
-      <c r="AD157" s="92"/>
+      <c r="AC157" s="90"/>
+      <c r="AD157" s="91"/>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
@@ -9042,8 +9204,9 @@
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
       <c r="N158" s="22"/>
-      <c r="P158" s="73"/>
-      <c r="Q158" s="72" t="e">
+      <c r="O158" s="87"/>
+      <c r="P158" s="29"/>
+      <c r="Q158" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9064,8 +9227,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC158" s="68"/>
-      <c r="AD158" s="92"/>
+      <c r="AC158" s="90"/>
+      <c r="AD158" s="91"/>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -9091,8 +9254,9 @@
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
       <c r="N159" s="22"/>
-      <c r="P159" s="73"/>
-      <c r="Q159" s="72" t="e">
+      <c r="O159" s="87"/>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9113,8 +9277,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC159" s="68"/>
-      <c r="AD159" s="92"/>
+      <c r="AC159" s="90"/>
+      <c r="AD159" s="91"/>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
@@ -9140,8 +9304,9 @@
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
       <c r="N160" s="22"/>
-      <c r="P160" s="73"/>
-      <c r="Q160" s="72" t="e">
+      <c r="O160" s="87"/>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9162,8 +9327,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC160" s="68"/>
-      <c r="AD160" s="92"/>
+      <c r="AC160" s="90"/>
+      <c r="AD160" s="91"/>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
@@ -9189,8 +9354,9 @@
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
       <c r="N161" s="22"/>
-      <c r="P161" s="73"/>
-      <c r="Q161" s="72" t="e">
+      <c r="O161" s="87"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9211,8 +9377,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC161" s="68"/>
-      <c r="AD161" s="92"/>
+      <c r="AC161" s="90"/>
+      <c r="AD161" s="91"/>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
@@ -9238,8 +9404,9 @@
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
       <c r="N162" s="22"/>
-      <c r="P162" s="73"/>
-      <c r="Q162" s="72" t="e">
+      <c r="O162" s="87"/>
+      <c r="P162" s="29"/>
+      <c r="Q162" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9260,8 +9427,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC162" s="68"/>
-      <c r="AD162" s="92"/>
+      <c r="AC162" s="90"/>
+      <c r="AD162" s="91"/>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
@@ -9287,8 +9454,9 @@
       <c r="L163" s="22"/>
       <c r="M163" s="22"/>
       <c r="N163" s="22"/>
-      <c r="P163" s="73"/>
-      <c r="Q163" s="72" t="e">
+      <c r="O163" s="87"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9309,8 +9477,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC163" s="68"/>
-      <c r="AD163" s="92"/>
+      <c r="AC163" s="90"/>
+      <c r="AD163" s="91"/>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
@@ -9336,8 +9504,9 @@
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
       <c r="N164" s="22"/>
-      <c r="P164" s="73"/>
-      <c r="Q164" s="72" t="e">
+      <c r="O164" s="87"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9358,8 +9527,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC164" s="68"/>
-      <c r="AD164" s="92"/>
+      <c r="AC164" s="90"/>
+      <c r="AD164" s="91"/>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
@@ -9385,8 +9554,9 @@
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
       <c r="N165" s="22"/>
-      <c r="P165" s="73"/>
-      <c r="Q165" s="72" t="e">
+      <c r="O165" s="87"/>
+      <c r="P165" s="29"/>
+      <c r="Q165" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9407,8 +9577,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC165" s="68"/>
-      <c r="AD165" s="92"/>
+      <c r="AC165" s="90"/>
+      <c r="AD165" s="91"/>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
@@ -9434,8 +9604,9 @@
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
       <c r="N166" s="22"/>
-      <c r="P166" s="73"/>
-      <c r="Q166" s="72" t="e">
+      <c r="O166" s="87"/>
+      <c r="P166" s="29"/>
+      <c r="Q166" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9456,8 +9627,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC166" s="68"/>
-      <c r="AD166" s="92"/>
+      <c r="AC166" s="90"/>
+      <c r="AD166" s="91"/>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
@@ -9483,8 +9654,9 @@
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
       <c r="N167" s="22"/>
-      <c r="P167" s="73"/>
-      <c r="Q167" s="72" t="e">
+      <c r="O167" s="87"/>
+      <c r="P167" s="29"/>
+      <c r="Q167" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9505,8 +9677,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC167" s="68"/>
-      <c r="AD167" s="92"/>
+      <c r="AC167" s="90"/>
+      <c r="AD167" s="91"/>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
@@ -9532,8 +9704,9 @@
       <c r="L168" s="59"/>
       <c r="M168" s="59"/>
       <c r="N168" s="59"/>
-      <c r="P168" s="73"/>
-      <c r="Q168" s="72" t="e">
+      <c r="O168" s="87"/>
+      <c r="P168" s="29"/>
+      <c r="Q168" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9554,8 +9727,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC168" s="68"/>
-      <c r="AD168" s="92"/>
+      <c r="AC168" s="90"/>
+      <c r="AD168" s="91"/>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
@@ -9581,8 +9754,9 @@
       <c r="L169" s="59"/>
       <c r="M169" s="59"/>
       <c r="N169" s="59"/>
-      <c r="P169" s="73"/>
-      <c r="Q169" s="72" t="e">
+      <c r="O169" s="87"/>
+      <c r="P169" s="29"/>
+      <c r="Q169" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9603,8 +9777,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC169" s="68"/>
-      <c r="AD169" s="92"/>
+      <c r="AC169" s="90"/>
+      <c r="AD169" s="91"/>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
@@ -9630,8 +9804,9 @@
       <c r="L170" s="59"/>
       <c r="M170" s="59"/>
       <c r="N170" s="59"/>
-      <c r="P170" s="73"/>
-      <c r="Q170" s="72" t="e">
+      <c r="O170" s="87"/>
+      <c r="P170" s="29"/>
+      <c r="Q170" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9652,8 +9827,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC170" s="68"/>
-      <c r="AD170" s="92"/>
+      <c r="AC170" s="90"/>
+      <c r="AD170" s="91"/>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
@@ -9679,8 +9854,9 @@
       <c r="L171" s="59"/>
       <c r="M171" s="59"/>
       <c r="N171" s="59"/>
-      <c r="P171" s="73"/>
-      <c r="Q171" s="72" t="e">
+      <c r="O171" s="87"/>
+      <c r="P171" s="29"/>
+      <c r="Q171" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9701,8 +9877,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC171" s="68"/>
-      <c r="AD171" s="92"/>
+      <c r="AC171" s="90"/>
+      <c r="AD171" s="91"/>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
@@ -9728,8 +9904,9 @@
       <c r="L172" s="59"/>
       <c r="M172" s="59"/>
       <c r="N172" s="59"/>
-      <c r="P172" s="73"/>
-      <c r="Q172" s="72" t="e">
+      <c r="O172" s="87"/>
+      <c r="P172" s="29"/>
+      <c r="Q172" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9750,8 +9927,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC172" s="68"/>
-      <c r="AD172" s="92"/>
+      <c r="AC172" s="90"/>
+      <c r="AD172" s="91"/>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
@@ -9777,8 +9954,9 @@
       <c r="L173" s="59"/>
       <c r="M173" s="59"/>
       <c r="N173" s="59"/>
-      <c r="P173" s="73"/>
-      <c r="Q173" s="72" t="e">
+      <c r="O173" s="87"/>
+      <c r="P173" s="29"/>
+      <c r="Q173" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9799,8 +9977,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC173" s="68"/>
-      <c r="AD173" s="92"/>
+      <c r="AC173" s="90"/>
+      <c r="AD173" s="91"/>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
@@ -9826,8 +10004,9 @@
       <c r="L174" s="59"/>
       <c r="M174" s="59"/>
       <c r="N174" s="59"/>
-      <c r="P174" s="73"/>
-      <c r="Q174" s="72" t="e">
+      <c r="O174" s="87"/>
+      <c r="P174" s="29"/>
+      <c r="Q174" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9848,8 +10027,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC174" s="68"/>
-      <c r="AD174" s="92"/>
+      <c r="AC174" s="90"/>
+      <c r="AD174" s="91"/>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
@@ -9875,8 +10054,9 @@
       <c r="L175" s="59"/>
       <c r="M175" s="59"/>
       <c r="N175" s="59"/>
-      <c r="P175" s="73"/>
-      <c r="Q175" s="72" t="e">
+      <c r="O175" s="87"/>
+      <c r="P175" s="29"/>
+      <c r="Q175" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9897,8 +10077,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC175" s="68"/>
-      <c r="AD175" s="92"/>
+      <c r="AC175" s="90"/>
+      <c r="AD175" s="91"/>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
@@ -9924,8 +10104,9 @@
       <c r="L176" s="59"/>
       <c r="M176" s="59"/>
       <c r="N176" s="59"/>
-      <c r="P176" s="73"/>
-      <c r="Q176" s="72" t="e">
+      <c r="O176" s="87"/>
+      <c r="P176" s="29"/>
+      <c r="Q176" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9946,8 +10127,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC176" s="68"/>
-      <c r="AD176" s="92"/>
+      <c r="AC176" s="90"/>
+      <c r="AD176" s="91"/>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
@@ -9973,8 +10154,9 @@
       <c r="L177" s="59"/>
       <c r="M177" s="59"/>
       <c r="N177" s="59"/>
-      <c r="P177" s="73"/>
-      <c r="Q177" s="72" t="e">
+      <c r="O177" s="87"/>
+      <c r="P177" s="29"/>
+      <c r="Q177" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -9995,8 +10177,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC177" s="68"/>
-      <c r="AD177" s="92"/>
+      <c r="AC177" s="90"/>
+      <c r="AD177" s="91"/>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
@@ -10022,8 +10204,9 @@
       <c r="L178" s="59"/>
       <c r="M178" s="59"/>
       <c r="N178" s="59"/>
-      <c r="P178" s="73"/>
-      <c r="Q178" s="72" t="e">
+      <c r="O178" s="87"/>
+      <c r="P178" s="29"/>
+      <c r="Q178" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10044,8 +10227,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC178" s="68"/>
-      <c r="AD178" s="92"/>
+      <c r="AC178" s="90"/>
+      <c r="AD178" s="91"/>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
@@ -10071,8 +10254,9 @@
       <c r="L179" s="59"/>
       <c r="M179" s="59"/>
       <c r="N179" s="59"/>
-      <c r="P179" s="73"/>
-      <c r="Q179" s="72" t="e">
+      <c r="O179" s="87"/>
+      <c r="P179" s="29"/>
+      <c r="Q179" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10093,8 +10277,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC179" s="68"/>
-      <c r="AD179" s="92"/>
+      <c r="AC179" s="90"/>
+      <c r="AD179" s="91"/>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
@@ -10120,8 +10304,9 @@
       <c r="L180" s="59"/>
       <c r="M180" s="59"/>
       <c r="N180" s="59"/>
-      <c r="P180" s="73"/>
-      <c r="Q180" s="72" t="e">
+      <c r="O180" s="87"/>
+      <c r="P180" s="29"/>
+      <c r="Q180" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10142,8 +10327,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC180" s="68"/>
-      <c r="AD180" s="92"/>
+      <c r="AC180" s="90"/>
+      <c r="AD180" s="91"/>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
@@ -10169,8 +10354,9 @@
       <c r="L181" s="59"/>
       <c r="M181" s="59"/>
       <c r="N181" s="59"/>
-      <c r="P181" s="73"/>
-      <c r="Q181" s="72" t="e">
+      <c r="O181" s="87"/>
+      <c r="P181" s="29"/>
+      <c r="Q181" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10191,8 +10377,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC181" s="68"/>
-      <c r="AD181" s="92"/>
+      <c r="AC181" s="90"/>
+      <c r="AD181" s="91"/>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
@@ -10218,8 +10404,9 @@
       <c r="L182" s="59"/>
       <c r="M182" s="59"/>
       <c r="N182" s="59"/>
-      <c r="P182" s="73"/>
-      <c r="Q182" s="72" t="e">
+      <c r="O182" s="87"/>
+      <c r="P182" s="29"/>
+      <c r="Q182" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10240,8 +10427,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC182" s="68"/>
-      <c r="AD182" s="92"/>
+      <c r="AC182" s="90"/>
+      <c r="AD182" s="91"/>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
@@ -10267,8 +10454,9 @@
       <c r="L183" s="59"/>
       <c r="M183" s="59"/>
       <c r="N183" s="59"/>
-      <c r="P183" s="73"/>
-      <c r="Q183" s="72" t="e">
+      <c r="O183" s="87"/>
+      <c r="P183" s="29"/>
+      <c r="Q183" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10289,8 +10477,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC183" s="68"/>
-      <c r="AD183" s="92"/>
+      <c r="AC183" s="90"/>
+      <c r="AD183" s="91"/>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
@@ -10316,8 +10504,9 @@
       <c r="L184" s="59"/>
       <c r="M184" s="59"/>
       <c r="N184" s="59"/>
-      <c r="P184" s="73"/>
-      <c r="Q184" s="72" t="e">
+      <c r="O184" s="87"/>
+      <c r="P184" s="29"/>
+      <c r="Q184" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10338,8 +10527,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC184" s="68"/>
-      <c r="AD184" s="92"/>
+      <c r="AC184" s="90"/>
+      <c r="AD184" s="91"/>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
@@ -10365,8 +10554,9 @@
       <c r="L185" s="59"/>
       <c r="M185" s="59"/>
       <c r="N185" s="59"/>
-      <c r="P185" s="73"/>
-      <c r="Q185" s="72" t="e">
+      <c r="O185" s="87"/>
+      <c r="P185" s="29"/>
+      <c r="Q185" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10387,8 +10577,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC185" s="68"/>
-      <c r="AD185" s="92"/>
+      <c r="AC185" s="90"/>
+      <c r="AD185" s="91"/>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
@@ -10414,8 +10604,9 @@
       <c r="L186" s="59"/>
       <c r="M186" s="59"/>
       <c r="N186" s="59"/>
-      <c r="P186" s="73"/>
-      <c r="Q186" s="72" t="e">
+      <c r="O186" s="87"/>
+      <c r="P186" s="29"/>
+      <c r="Q186" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10436,8 +10627,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC186" s="68"/>
-      <c r="AD186" s="92"/>
+      <c r="AC186" s="90"/>
+      <c r="AD186" s="91"/>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
@@ -10463,8 +10654,9 @@
       <c r="L187" s="59"/>
       <c r="M187" s="59"/>
       <c r="N187" s="59"/>
-      <c r="P187" s="73"/>
-      <c r="Q187" s="72" t="e">
+      <c r="O187" s="87"/>
+      <c r="P187" s="29"/>
+      <c r="Q187" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10485,8 +10677,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC187" s="68"/>
-      <c r="AD187" s="92"/>
+      <c r="AC187" s="90"/>
+      <c r="AD187" s="91"/>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
@@ -10512,8 +10704,9 @@
       <c r="L188" s="59"/>
       <c r="M188" s="59"/>
       <c r="N188" s="59"/>
-      <c r="P188" s="73"/>
-      <c r="Q188" s="72" t="e">
+      <c r="O188" s="87"/>
+      <c r="P188" s="29"/>
+      <c r="Q188" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10534,8 +10727,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC188" s="68"/>
-      <c r="AD188" s="92"/>
+      <c r="AC188" s="90"/>
+      <c r="AD188" s="91"/>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
@@ -10561,8 +10754,9 @@
       <c r="L189" s="59"/>
       <c r="M189" s="59"/>
       <c r="N189" s="59"/>
-      <c r="P189" s="73"/>
-      <c r="Q189" s="72" t="e">
+      <c r="O189" s="87"/>
+      <c r="P189" s="29"/>
+      <c r="Q189" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10583,8 +10777,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC189" s="68"/>
-      <c r="AD189" s="92"/>
+      <c r="AC189" s="90"/>
+      <c r="AD189" s="91"/>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
@@ -10610,8 +10804,9 @@
       <c r="L190" s="59"/>
       <c r="M190" s="59"/>
       <c r="N190" s="59"/>
-      <c r="P190" s="73"/>
-      <c r="Q190" s="72" t="e">
+      <c r="O190" s="87"/>
+      <c r="P190" s="29"/>
+      <c r="Q190" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10632,8 +10827,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC190" s="68"/>
-      <c r="AD190" s="92"/>
+      <c r="AC190" s="90"/>
+      <c r="AD190" s="91"/>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
@@ -10659,8 +10854,9 @@
       <c r="L191" s="59"/>
       <c r="M191" s="59"/>
       <c r="N191" s="59"/>
-      <c r="P191" s="73"/>
-      <c r="Q191" s="72" t="e">
+      <c r="O191" s="87"/>
+      <c r="P191" s="29"/>
+      <c r="Q191" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10681,8 +10877,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC191" s="68"/>
-      <c r="AD191" s="92"/>
+      <c r="AC191" s="90"/>
+      <c r="AD191" s="91"/>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
@@ -10708,8 +10904,9 @@
       <c r="L192" s="59"/>
       <c r="M192" s="59"/>
       <c r="N192" s="59"/>
-      <c r="P192" s="73"/>
-      <c r="Q192" s="72" t="e">
+      <c r="O192" s="87"/>
+      <c r="P192" s="29"/>
+      <c r="Q192" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10730,8 +10927,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC192" s="68"/>
-      <c r="AD192" s="92"/>
+      <c r="AC192" s="90"/>
+      <c r="AD192" s="91"/>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
@@ -10757,8 +10954,9 @@
       <c r="L193" s="59"/>
       <c r="M193" s="59"/>
       <c r="N193" s="59"/>
-      <c r="P193" s="73"/>
-      <c r="Q193" s="72" t="e">
+      <c r="O193" s="87"/>
+      <c r="P193" s="29"/>
+      <c r="Q193" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10779,8 +10977,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC193" s="68"/>
-      <c r="AD193" s="92"/>
+      <c r="AC193" s="90"/>
+      <c r="AD193" s="91"/>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
@@ -10806,8 +11004,9 @@
       <c r="L194" s="59"/>
       <c r="M194" s="59"/>
       <c r="N194" s="59"/>
-      <c r="P194" s="73"/>
-      <c r="Q194" s="72" t="e">
+      <c r="O194" s="87"/>
+      <c r="P194" s="29"/>
+      <c r="Q194" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10828,8 +11027,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC194" s="68"/>
-      <c r="AD194" s="92"/>
+      <c r="AC194" s="90"/>
+      <c r="AD194" s="91"/>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
@@ -10855,8 +11054,9 @@
       <c r="L195" s="59"/>
       <c r="M195" s="59"/>
       <c r="N195" s="59"/>
-      <c r="P195" s="73"/>
-      <c r="Q195" s="72" t="e">
+      <c r="O195" s="87"/>
+      <c r="P195" s="29"/>
+      <c r="Q195" s="84" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
@@ -10877,8 +11077,8 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AC195" s="68"/>
-      <c r="AD195" s="92"/>
+      <c r="AC195" s="90"/>
+      <c r="AD195" s="91"/>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
@@ -10904,8 +11104,9 @@
       <c r="L196" s="59"/>
       <c r="M196" s="59"/>
       <c r="N196" s="59"/>
-      <c r="P196" s="73"/>
-      <c r="Q196" s="72" t="e">
+      <c r="O196" s="87"/>
+      <c r="P196" s="29"/>
+      <c r="Q196" s="84" t="e">
         <f t="shared" ref="Q196:Q259" si="22">VLOOKUP(R196,tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
@@ -10926,8 +11127,8 @@
         <f t="shared" ref="AB196:AB259" si="24">VLOOKUP(AC196,Tabla_opcion,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC196" s="68"/>
-      <c r="AD196" s="92"/>
+      <c r="AC196" s="90"/>
+      <c r="AD196" s="91"/>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
@@ -10953,8 +11154,9 @@
       <c r="L197" s="59"/>
       <c r="M197" s="59"/>
       <c r="N197" s="59"/>
-      <c r="P197" s="73"/>
-      <c r="Q197" s="72" t="e">
+      <c r="O197" s="87"/>
+      <c r="P197" s="29"/>
+      <c r="Q197" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -10975,8 +11177,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC197" s="68"/>
-      <c r="AD197" s="92"/>
+      <c r="AC197" s="90"/>
+      <c r="AD197" s="91"/>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
@@ -11002,8 +11204,9 @@
       <c r="L198" s="59"/>
       <c r="M198" s="59"/>
       <c r="N198" s="59"/>
-      <c r="P198" s="73"/>
-      <c r="Q198" s="72" t="e">
+      <c r="O198" s="87"/>
+      <c r="P198" s="29"/>
+      <c r="Q198" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11024,8 +11227,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC198" s="68"/>
-      <c r="AD198" s="92"/>
+      <c r="AC198" s="90"/>
+      <c r="AD198" s="91"/>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
@@ -11051,8 +11254,9 @@
       <c r="L199" s="59"/>
       <c r="M199" s="59"/>
       <c r="N199" s="59"/>
-      <c r="P199" s="73"/>
-      <c r="Q199" s="72" t="e">
+      <c r="O199" s="87"/>
+      <c r="P199" s="29"/>
+      <c r="Q199" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11073,8 +11277,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC199" s="68"/>
-      <c r="AD199" s="92"/>
+      <c r="AC199" s="90"/>
+      <c r="AD199" s="91"/>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
@@ -11100,8 +11304,9 @@
       <c r="L200" s="59"/>
       <c r="M200" s="59"/>
       <c r="N200" s="59"/>
-      <c r="P200" s="73"/>
-      <c r="Q200" s="72" t="e">
+      <c r="O200" s="87"/>
+      <c r="P200" s="29"/>
+      <c r="Q200" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11122,8 +11327,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC200" s="68"/>
-      <c r="AD200" s="92"/>
+      <c r="AC200" s="90"/>
+      <c r="AD200" s="91"/>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
@@ -11149,8 +11354,9 @@
       <c r="L201" s="59"/>
       <c r="M201" s="59"/>
       <c r="N201" s="59"/>
-      <c r="P201" s="73"/>
-      <c r="Q201" s="72" t="e">
+      <c r="O201" s="87"/>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11171,8 +11377,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC201" s="68"/>
-      <c r="AD201" s="92"/>
+      <c r="AC201" s="90"/>
+      <c r="AD201" s="91"/>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
@@ -11198,8 +11404,9 @@
       <c r="L202" s="59"/>
       <c r="M202" s="59"/>
       <c r="N202" s="59"/>
-      <c r="P202" s="73"/>
-      <c r="Q202" s="72" t="e">
+      <c r="O202" s="87"/>
+      <c r="P202" s="29"/>
+      <c r="Q202" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11220,8 +11427,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC202" s="68"/>
-      <c r="AD202" s="92"/>
+      <c r="AC202" s="90"/>
+      <c r="AD202" s="91"/>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
@@ -11247,8 +11454,9 @@
       <c r="L203" s="59"/>
       <c r="M203" s="59"/>
       <c r="N203" s="59"/>
-      <c r="P203" s="73"/>
-      <c r="Q203" s="72" t="e">
+      <c r="O203" s="87"/>
+      <c r="P203" s="29"/>
+      <c r="Q203" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11269,8 +11477,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC203" s="68"/>
-      <c r="AD203" s="92"/>
+      <c r="AC203" s="90"/>
+      <c r="AD203" s="91"/>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
@@ -11296,8 +11504,9 @@
       <c r="L204" s="59"/>
       <c r="M204" s="59"/>
       <c r="N204" s="59"/>
-      <c r="P204" s="73"/>
-      <c r="Q204" s="72" t="e">
+      <c r="O204" s="87"/>
+      <c r="P204" s="29"/>
+      <c r="Q204" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11318,8 +11527,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC204" s="68"/>
-      <c r="AD204" s="92"/>
+      <c r="AC204" s="90"/>
+      <c r="AD204" s="91"/>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
@@ -11345,8 +11554,9 @@
       <c r="L205" s="59"/>
       <c r="M205" s="59"/>
       <c r="N205" s="59"/>
-      <c r="P205" s="73"/>
-      <c r="Q205" s="72" t="e">
+      <c r="O205" s="87"/>
+      <c r="P205" s="29"/>
+      <c r="Q205" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11367,8 +11577,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC205" s="68"/>
-      <c r="AD205" s="92"/>
+      <c r="AC205" s="90"/>
+      <c r="AD205" s="91"/>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
@@ -11394,8 +11604,9 @@
       <c r="L206" s="59"/>
       <c r="M206" s="59"/>
       <c r="N206" s="59"/>
-      <c r="P206" s="73"/>
-      <c r="Q206" s="72" t="e">
+      <c r="O206" s="87"/>
+      <c r="P206" s="29"/>
+      <c r="Q206" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11416,8 +11627,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC206" s="68"/>
-      <c r="AD206" s="92"/>
+      <c r="AC206" s="90"/>
+      <c r="AD206" s="91"/>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
@@ -11443,8 +11654,9 @@
       <c r="L207" s="59"/>
       <c r="M207" s="59"/>
       <c r="N207" s="59"/>
-      <c r="P207" s="73"/>
-      <c r="Q207" s="72" t="e">
+      <c r="O207" s="87"/>
+      <c r="P207" s="29"/>
+      <c r="Q207" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11465,8 +11677,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC207" s="68"/>
-      <c r="AD207" s="92"/>
+      <c r="AC207" s="90"/>
+      <c r="AD207" s="91"/>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
@@ -11492,8 +11704,9 @@
       <c r="L208" s="59"/>
       <c r="M208" s="59"/>
       <c r="N208" s="59"/>
-      <c r="P208" s="73"/>
-      <c r="Q208" s="72" t="e">
+      <c r="O208" s="87"/>
+      <c r="P208" s="29"/>
+      <c r="Q208" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11514,8 +11727,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC208" s="68"/>
-      <c r="AD208" s="92"/>
+      <c r="AC208" s="90"/>
+      <c r="AD208" s="91"/>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
@@ -11541,8 +11754,9 @@
       <c r="L209" s="59"/>
       <c r="M209" s="59"/>
       <c r="N209" s="59"/>
-      <c r="P209" s="73"/>
-      <c r="Q209" s="72" t="e">
+      <c r="O209" s="87"/>
+      <c r="P209" s="29"/>
+      <c r="Q209" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11563,8 +11777,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC209" s="68"/>
-      <c r="AD209" s="92"/>
+      <c r="AC209" s="90"/>
+      <c r="AD209" s="91"/>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
@@ -11590,8 +11804,9 @@
       <c r="L210" s="59"/>
       <c r="M210" s="59"/>
       <c r="N210" s="59"/>
-      <c r="P210" s="73"/>
-      <c r="Q210" s="72" t="e">
+      <c r="O210" s="87"/>
+      <c r="P210" s="29"/>
+      <c r="Q210" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11612,8 +11827,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC210" s="68"/>
-      <c r="AD210" s="92"/>
+      <c r="AC210" s="90"/>
+      <c r="AD210" s="91"/>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
@@ -11639,8 +11854,9 @@
       <c r="L211" s="59"/>
       <c r="M211" s="59"/>
       <c r="N211" s="59"/>
-      <c r="P211" s="73"/>
-      <c r="Q211" s="72" t="e">
+      <c r="O211" s="87"/>
+      <c r="P211" s="29"/>
+      <c r="Q211" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11661,8 +11877,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC211" s="68"/>
-      <c r="AD211" s="92"/>
+      <c r="AC211" s="90"/>
+      <c r="AD211" s="91"/>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
@@ -11688,8 +11904,9 @@
       <c r="L212" s="59"/>
       <c r="M212" s="59"/>
       <c r="N212" s="59"/>
-      <c r="P212" s="73"/>
-      <c r="Q212" s="72" t="e">
+      <c r="O212" s="87"/>
+      <c r="P212" s="29"/>
+      <c r="Q212" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11710,8 +11927,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC212" s="68"/>
-      <c r="AD212" s="92"/>
+      <c r="AC212" s="90"/>
+      <c r="AD212" s="91"/>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
@@ -11737,8 +11954,9 @@
       <c r="L213" s="59"/>
       <c r="M213" s="59"/>
       <c r="N213" s="59"/>
-      <c r="P213" s="73"/>
-      <c r="Q213" s="72" t="e">
+      <c r="O213" s="87"/>
+      <c r="P213" s="29"/>
+      <c r="Q213" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11759,8 +11977,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC213" s="68"/>
-      <c r="AD213" s="92"/>
+      <c r="AC213" s="90"/>
+      <c r="AD213" s="91"/>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
@@ -11786,8 +12004,9 @@
       <c r="L214" s="59"/>
       <c r="M214" s="59"/>
       <c r="N214" s="59"/>
-      <c r="P214" s="73"/>
-      <c r="Q214" s="72" t="e">
+      <c r="O214" s="87"/>
+      <c r="P214" s="29"/>
+      <c r="Q214" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11808,8 +12027,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC214" s="68"/>
-      <c r="AD214" s="92"/>
+      <c r="AC214" s="90"/>
+      <c r="AD214" s="91"/>
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
@@ -11835,8 +12054,9 @@
       <c r="L215" s="59"/>
       <c r="M215" s="59"/>
       <c r="N215" s="59"/>
-      <c r="P215" s="73"/>
-      <c r="Q215" s="72" t="e">
+      <c r="O215" s="87"/>
+      <c r="P215" s="29"/>
+      <c r="Q215" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11857,8 +12077,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC215" s="68"/>
-      <c r="AD215" s="92"/>
+      <c r="AC215" s="90"/>
+      <c r="AD215" s="91"/>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
@@ -11884,8 +12104,9 @@
       <c r="L216" s="59"/>
       <c r="M216" s="59"/>
       <c r="N216" s="59"/>
-      <c r="P216" s="73"/>
-      <c r="Q216" s="72" t="e">
+      <c r="O216" s="87"/>
+      <c r="P216" s="29"/>
+      <c r="Q216" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11906,8 +12127,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC216" s="68"/>
-      <c r="AD216" s="92"/>
+      <c r="AC216" s="90"/>
+      <c r="AD216" s="91"/>
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
@@ -11933,8 +12154,9 @@
       <c r="L217" s="59"/>
       <c r="M217" s="59"/>
       <c r="N217" s="59"/>
-      <c r="P217" s="73"/>
-      <c r="Q217" s="72" t="e">
+      <c r="O217" s="87"/>
+      <c r="P217" s="29"/>
+      <c r="Q217" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -11955,8 +12177,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC217" s="68"/>
-      <c r="AD217" s="92"/>
+      <c r="AC217" s="90"/>
+      <c r="AD217" s="91"/>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
@@ -11982,8 +12204,9 @@
       <c r="L218" s="59"/>
       <c r="M218" s="59"/>
       <c r="N218" s="59"/>
-      <c r="P218" s="73"/>
-      <c r="Q218" s="72" t="e">
+      <c r="O218" s="87"/>
+      <c r="P218" s="29"/>
+      <c r="Q218" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12004,8 +12227,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC218" s="68"/>
-      <c r="AD218" s="92"/>
+      <c r="AC218" s="90"/>
+      <c r="AD218" s="91"/>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
@@ -12031,8 +12254,9 @@
       <c r="L219" s="59"/>
       <c r="M219" s="59"/>
       <c r="N219" s="59"/>
-      <c r="P219" s="73"/>
-      <c r="Q219" s="72" t="e">
+      <c r="O219" s="87"/>
+      <c r="P219" s="29"/>
+      <c r="Q219" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12053,8 +12277,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC219" s="68"/>
-      <c r="AD219" s="92"/>
+      <c r="AC219" s="90"/>
+      <c r="AD219" s="91"/>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
@@ -12080,8 +12304,9 @@
       <c r="L220" s="59"/>
       <c r="M220" s="59"/>
       <c r="N220" s="59"/>
-      <c r="P220" s="73"/>
-      <c r="Q220" s="72" t="e">
+      <c r="O220" s="87"/>
+      <c r="P220" s="29"/>
+      <c r="Q220" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12102,8 +12327,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC220" s="68"/>
-      <c r="AD220" s="92"/>
+      <c r="AC220" s="90"/>
+      <c r="AD220" s="91"/>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
@@ -12129,8 +12354,9 @@
       <c r="L221" s="59"/>
       <c r="M221" s="59"/>
       <c r="N221" s="59"/>
-      <c r="P221" s="73"/>
-      <c r="Q221" s="72" t="e">
+      <c r="O221" s="87"/>
+      <c r="P221" s="29"/>
+      <c r="Q221" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12151,8 +12377,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC221" s="68"/>
-      <c r="AD221" s="92"/>
+      <c r="AC221" s="90"/>
+      <c r="AD221" s="91"/>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
@@ -12178,8 +12404,9 @@
       <c r="L222" s="59"/>
       <c r="M222" s="59"/>
       <c r="N222" s="59"/>
-      <c r="P222" s="73"/>
-      <c r="Q222" s="72" t="e">
+      <c r="O222" s="87"/>
+      <c r="P222" s="29"/>
+      <c r="Q222" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12200,8 +12427,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC222" s="68"/>
-      <c r="AD222" s="92"/>
+      <c r="AC222" s="90"/>
+      <c r="AD222" s="91"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
@@ -12227,8 +12454,9 @@
       <c r="L223" s="59"/>
       <c r="M223" s="59"/>
       <c r="N223" s="59"/>
-      <c r="P223" s="73"/>
-      <c r="Q223" s="72" t="e">
+      <c r="O223" s="87"/>
+      <c r="P223" s="29"/>
+      <c r="Q223" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12249,8 +12477,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC223" s="68"/>
-      <c r="AD223" s="92"/>
+      <c r="AC223" s="90"/>
+      <c r="AD223" s="91"/>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
@@ -12276,8 +12504,9 @@
       <c r="L224" s="59"/>
       <c r="M224" s="59"/>
       <c r="N224" s="59"/>
-      <c r="P224" s="73"/>
-      <c r="Q224" s="72" t="e">
+      <c r="O224" s="87"/>
+      <c r="P224" s="29"/>
+      <c r="Q224" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12298,8 +12527,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC224" s="68"/>
-      <c r="AD224" s="92"/>
+      <c r="AC224" s="90"/>
+      <c r="AD224" s="91"/>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
@@ -12325,8 +12554,9 @@
       <c r="L225" s="59"/>
       <c r="M225" s="59"/>
       <c r="N225" s="59"/>
-      <c r="P225" s="73"/>
-      <c r="Q225" s="72" t="e">
+      <c r="O225" s="87"/>
+      <c r="P225" s="29"/>
+      <c r="Q225" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12347,8 +12577,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC225" s="68"/>
-      <c r="AD225" s="92"/>
+      <c r="AC225" s="90"/>
+      <c r="AD225" s="91"/>
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
@@ -12374,8 +12604,9 @@
       <c r="L226" s="59"/>
       <c r="M226" s="59"/>
       <c r="N226" s="59"/>
-      <c r="P226" s="73"/>
-      <c r="Q226" s="72" t="e">
+      <c r="O226" s="87"/>
+      <c r="P226" s="29"/>
+      <c r="Q226" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12396,8 +12627,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC226" s="68"/>
-      <c r="AD226" s="92"/>
+      <c r="AC226" s="90"/>
+      <c r="AD226" s="91"/>
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
@@ -12423,8 +12654,9 @@
       <c r="L227" s="59"/>
       <c r="M227" s="59"/>
       <c r="N227" s="59"/>
-      <c r="P227" s="73"/>
-      <c r="Q227" s="72" t="e">
+      <c r="O227" s="87"/>
+      <c r="P227" s="29"/>
+      <c r="Q227" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12445,8 +12677,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC227" s="68"/>
-      <c r="AD227" s="92"/>
+      <c r="AC227" s="90"/>
+      <c r="AD227" s="91"/>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
@@ -12472,8 +12704,9 @@
       <c r="L228" s="59"/>
       <c r="M228" s="59"/>
       <c r="N228" s="59"/>
-      <c r="P228" s="73"/>
-      <c r="Q228" s="72" t="e">
+      <c r="O228" s="87"/>
+      <c r="P228" s="29"/>
+      <c r="Q228" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12494,8 +12727,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC228" s="68"/>
-      <c r="AD228" s="92"/>
+      <c r="AC228" s="90"/>
+      <c r="AD228" s="91"/>
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
@@ -12521,8 +12754,9 @@
       <c r="L229" s="59"/>
       <c r="M229" s="59"/>
       <c r="N229" s="59"/>
-      <c r="P229" s="73"/>
-      <c r="Q229" s="72" t="e">
+      <c r="O229" s="87"/>
+      <c r="P229" s="29"/>
+      <c r="Q229" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12543,8 +12777,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC229" s="68"/>
-      <c r="AD229" s="92"/>
+      <c r="AC229" s="90"/>
+      <c r="AD229" s="91"/>
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
@@ -12570,8 +12804,9 @@
       <c r="L230" s="59"/>
       <c r="M230" s="59"/>
       <c r="N230" s="59"/>
-      <c r="P230" s="73"/>
-      <c r="Q230" s="72" t="e">
+      <c r="O230" s="87"/>
+      <c r="P230" s="29"/>
+      <c r="Q230" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12592,8 +12827,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC230" s="68"/>
-      <c r="AD230" s="92"/>
+      <c r="AC230" s="90"/>
+      <c r="AD230" s="91"/>
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
@@ -12619,8 +12854,9 @@
       <c r="L231" s="59"/>
       <c r="M231" s="59"/>
       <c r="N231" s="59"/>
-      <c r="P231" s="73"/>
-      <c r="Q231" s="72" t="e">
+      <c r="O231" s="87"/>
+      <c r="P231" s="29"/>
+      <c r="Q231" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12641,8 +12877,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC231" s="68"/>
-      <c r="AD231" s="92"/>
+      <c r="AC231" s="90"/>
+      <c r="AD231" s="91"/>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
@@ -12668,8 +12904,9 @@
       <c r="L232" s="59"/>
       <c r="M232" s="59"/>
       <c r="N232" s="59"/>
-      <c r="P232" s="73"/>
-      <c r="Q232" s="72" t="e">
+      <c r="O232" s="87"/>
+      <c r="P232" s="29"/>
+      <c r="Q232" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12690,8 +12927,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC232" s="68"/>
-      <c r="AD232" s="92"/>
+      <c r="AC232" s="90"/>
+      <c r="AD232" s="91"/>
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
@@ -12717,8 +12954,9 @@
       <c r="L233" s="59"/>
       <c r="M233" s="59"/>
       <c r="N233" s="59"/>
-      <c r="P233" s="73"/>
-      <c r="Q233" s="72" t="e">
+      <c r="O233" s="87"/>
+      <c r="P233" s="29"/>
+      <c r="Q233" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12739,8 +12977,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC233" s="68"/>
-      <c r="AD233" s="92"/>
+      <c r="AC233" s="90"/>
+      <c r="AD233" s="91"/>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
@@ -12766,8 +13004,9 @@
       <c r="L234" s="59"/>
       <c r="M234" s="59"/>
       <c r="N234" s="59"/>
-      <c r="P234" s="73"/>
-      <c r="Q234" s="72" t="e">
+      <c r="O234" s="87"/>
+      <c r="P234" s="29"/>
+      <c r="Q234" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12788,8 +13027,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC234" s="68"/>
-      <c r="AD234" s="92"/>
+      <c r="AC234" s="90"/>
+      <c r="AD234" s="91"/>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
@@ -12815,8 +13054,9 @@
       <c r="L235" s="59"/>
       <c r="M235" s="59"/>
       <c r="N235" s="59"/>
-      <c r="P235" s="73"/>
-      <c r="Q235" s="72" t="e">
+      <c r="O235" s="87"/>
+      <c r="P235" s="29"/>
+      <c r="Q235" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12837,8 +13077,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC235" s="68"/>
-      <c r="AD235" s="92"/>
+      <c r="AC235" s="90"/>
+      <c r="AD235" s="91"/>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
@@ -12864,8 +13104,9 @@
       <c r="L236" s="59"/>
       <c r="M236" s="59"/>
       <c r="N236" s="59"/>
-      <c r="P236" s="73"/>
-      <c r="Q236" s="72" t="e">
+      <c r="O236" s="87"/>
+      <c r="P236" s="29"/>
+      <c r="Q236" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12886,8 +13127,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC236" s="68"/>
-      <c r="AD236" s="92"/>
+      <c r="AC236" s="90"/>
+      <c r="AD236" s="91"/>
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
@@ -12913,8 +13154,9 @@
       <c r="L237" s="59"/>
       <c r="M237" s="59"/>
       <c r="N237" s="59"/>
-      <c r="P237" s="73"/>
-      <c r="Q237" s="72" t="e">
+      <c r="O237" s="87"/>
+      <c r="P237" s="29"/>
+      <c r="Q237" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12935,8 +13177,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC237" s="68"/>
-      <c r="AD237" s="92"/>
+      <c r="AC237" s="90"/>
+      <c r="AD237" s="91"/>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
@@ -12962,8 +13204,9 @@
       <c r="L238" s="59"/>
       <c r="M238" s="59"/>
       <c r="N238" s="59"/>
-      <c r="P238" s="73"/>
-      <c r="Q238" s="72" t="e">
+      <c r="O238" s="87"/>
+      <c r="P238" s="29"/>
+      <c r="Q238" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -12984,8 +13227,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC238" s="68"/>
-      <c r="AD238" s="92"/>
+      <c r="AC238" s="90"/>
+      <c r="AD238" s="91"/>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
@@ -13011,8 +13254,9 @@
       <c r="L239" s="59"/>
       <c r="M239" s="59"/>
       <c r="N239" s="59"/>
-      <c r="P239" s="73"/>
-      <c r="Q239" s="72" t="e">
+      <c r="O239" s="87"/>
+      <c r="P239" s="29"/>
+      <c r="Q239" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13033,8 +13277,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC239" s="68"/>
-      <c r="AD239" s="92"/>
+      <c r="AC239" s="90"/>
+      <c r="AD239" s="91"/>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
@@ -13060,8 +13304,9 @@
       <c r="L240" s="59"/>
       <c r="M240" s="59"/>
       <c r="N240" s="59"/>
-      <c r="P240" s="73"/>
-      <c r="Q240" s="72" t="e">
+      <c r="O240" s="87"/>
+      <c r="P240" s="29"/>
+      <c r="Q240" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13082,8 +13327,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC240" s="68"/>
-      <c r="AD240" s="92"/>
+      <c r="AC240" s="90"/>
+      <c r="AD240" s="91"/>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
@@ -13109,8 +13354,9 @@
       <c r="L241" s="59"/>
       <c r="M241" s="59"/>
       <c r="N241" s="59"/>
-      <c r="P241" s="73"/>
-      <c r="Q241" s="72" t="e">
+      <c r="O241" s="87"/>
+      <c r="P241" s="29"/>
+      <c r="Q241" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13131,8 +13377,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC241" s="68"/>
-      <c r="AD241" s="92"/>
+      <c r="AC241" s="90"/>
+      <c r="AD241" s="91"/>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
@@ -13158,8 +13404,9 @@
       <c r="L242" s="59"/>
       <c r="M242" s="59"/>
       <c r="N242" s="59"/>
-      <c r="P242" s="73"/>
-      <c r="Q242" s="72" t="e">
+      <c r="O242" s="87"/>
+      <c r="P242" s="29"/>
+      <c r="Q242" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13180,8 +13427,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC242" s="68"/>
-      <c r="AD242" s="92"/>
+      <c r="AC242" s="90"/>
+      <c r="AD242" s="91"/>
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
@@ -13207,8 +13454,9 @@
       <c r="L243" s="59"/>
       <c r="M243" s="59"/>
       <c r="N243" s="59"/>
-      <c r="P243" s="73"/>
-      <c r="Q243" s="72" t="e">
+      <c r="O243" s="87"/>
+      <c r="P243" s="29"/>
+      <c r="Q243" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13229,8 +13477,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC243" s="68"/>
-      <c r="AD243" s="92"/>
+      <c r="AC243" s="90"/>
+      <c r="AD243" s="91"/>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
@@ -13256,8 +13504,9 @@
       <c r="L244" s="59"/>
       <c r="M244" s="59"/>
       <c r="N244" s="59"/>
-      <c r="P244" s="73"/>
-      <c r="Q244" s="72" t="e">
+      <c r="O244" s="87"/>
+      <c r="P244" s="29"/>
+      <c r="Q244" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13278,8 +13527,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC244" s="68"/>
-      <c r="AD244" s="92"/>
+      <c r="AC244" s="90"/>
+      <c r="AD244" s="91"/>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
@@ -13305,8 +13554,9 @@
       <c r="L245" s="59"/>
       <c r="M245" s="59"/>
       <c r="N245" s="59"/>
-      <c r="P245" s="73"/>
-      <c r="Q245" s="72" t="e">
+      <c r="O245" s="87"/>
+      <c r="P245" s="29"/>
+      <c r="Q245" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13327,8 +13577,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC245" s="68"/>
-      <c r="AD245" s="92"/>
+      <c r="AC245" s="90"/>
+      <c r="AD245" s="91"/>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
@@ -13354,8 +13604,9 @@
       <c r="L246" s="59"/>
       <c r="M246" s="59"/>
       <c r="N246" s="59"/>
-      <c r="P246" s="73"/>
-      <c r="Q246" s="72" t="e">
+      <c r="O246" s="87"/>
+      <c r="P246" s="29"/>
+      <c r="Q246" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13376,8 +13627,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC246" s="68"/>
-      <c r="AD246" s="92"/>
+      <c r="AC246" s="90"/>
+      <c r="AD246" s="91"/>
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
@@ -13403,8 +13654,9 @@
       <c r="L247" s="59"/>
       <c r="M247" s="59"/>
       <c r="N247" s="59"/>
-      <c r="P247" s="73"/>
-      <c r="Q247" s="72" t="e">
+      <c r="O247" s="87"/>
+      <c r="P247" s="29"/>
+      <c r="Q247" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13425,8 +13677,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC247" s="68"/>
-      <c r="AD247" s="92"/>
+      <c r="AC247" s="90"/>
+      <c r="AD247" s="91"/>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
@@ -13452,8 +13704,9 @@
       <c r="L248" s="59"/>
       <c r="M248" s="59"/>
       <c r="N248" s="59"/>
-      <c r="P248" s="73"/>
-      <c r="Q248" s="72" t="e">
+      <c r="O248" s="87"/>
+      <c r="P248" s="29"/>
+      <c r="Q248" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13474,8 +13727,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC248" s="68"/>
-      <c r="AD248" s="92"/>
+      <c r="AC248" s="90"/>
+      <c r="AD248" s="91"/>
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
@@ -13501,8 +13754,9 @@
       <c r="L249" s="59"/>
       <c r="M249" s="59"/>
       <c r="N249" s="59"/>
-      <c r="P249" s="73"/>
-      <c r="Q249" s="72" t="e">
+      <c r="O249" s="87"/>
+      <c r="P249" s="29"/>
+      <c r="Q249" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13523,8 +13777,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC249" s="68"/>
-      <c r="AD249" s="92"/>
+      <c r="AC249" s="90"/>
+      <c r="AD249" s="91"/>
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
@@ -13550,8 +13804,9 @@
       <c r="L250" s="59"/>
       <c r="M250" s="59"/>
       <c r="N250" s="59"/>
-      <c r="P250" s="73"/>
-      <c r="Q250" s="72" t="e">
+      <c r="O250" s="87"/>
+      <c r="P250" s="29"/>
+      <c r="Q250" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13572,8 +13827,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC250" s="68"/>
-      <c r="AD250" s="92"/>
+      <c r="AC250" s="90"/>
+      <c r="AD250" s="91"/>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
@@ -13599,8 +13854,9 @@
       <c r="L251" s="59"/>
       <c r="M251" s="59"/>
       <c r="N251" s="59"/>
-      <c r="P251" s="73"/>
-      <c r="Q251" s="72" t="e">
+      <c r="O251" s="87"/>
+      <c r="P251" s="29"/>
+      <c r="Q251" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13621,8 +13877,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC251" s="68"/>
-      <c r="AD251" s="92"/>
+      <c r="AC251" s="90"/>
+      <c r="AD251" s="91"/>
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
@@ -13648,8 +13904,9 @@
       <c r="L252" s="59"/>
       <c r="M252" s="59"/>
       <c r="N252" s="59"/>
-      <c r="P252" s="73"/>
-      <c r="Q252" s="72" t="e">
+      <c r="O252" s="87"/>
+      <c r="P252" s="29"/>
+      <c r="Q252" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13670,8 +13927,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC252" s="68"/>
-      <c r="AD252" s="92"/>
+      <c r="AC252" s="90"/>
+      <c r="AD252" s="91"/>
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
@@ -13697,8 +13954,9 @@
       <c r="L253" s="59"/>
       <c r="M253" s="59"/>
       <c r="N253" s="59"/>
-      <c r="P253" s="73"/>
-      <c r="Q253" s="72" t="e">
+      <c r="O253" s="87"/>
+      <c r="P253" s="29"/>
+      <c r="Q253" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13719,8 +13977,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC253" s="68"/>
-      <c r="AD253" s="92"/>
+      <c r="AC253" s="90"/>
+      <c r="AD253" s="91"/>
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
@@ -13746,8 +14004,9 @@
       <c r="L254" s="59"/>
       <c r="M254" s="59"/>
       <c r="N254" s="59"/>
-      <c r="P254" s="73"/>
-      <c r="Q254" s="72" t="e">
+      <c r="O254" s="87"/>
+      <c r="P254" s="29"/>
+      <c r="Q254" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13768,8 +14027,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC254" s="68"/>
-      <c r="AD254" s="92"/>
+      <c r="AC254" s="90"/>
+      <c r="AD254" s="91"/>
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
@@ -13795,8 +14054,9 @@
       <c r="L255" s="59"/>
       <c r="M255" s="59"/>
       <c r="N255" s="59"/>
-      <c r="P255" s="73"/>
-      <c r="Q255" s="72" t="e">
+      <c r="O255" s="87"/>
+      <c r="P255" s="29"/>
+      <c r="Q255" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13817,8 +14077,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC255" s="68"/>
-      <c r="AD255" s="92"/>
+      <c r="AC255" s="90"/>
+      <c r="AD255" s="91"/>
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
@@ -13844,8 +14104,9 @@
       <c r="L256" s="59"/>
       <c r="M256" s="59"/>
       <c r="N256" s="59"/>
-      <c r="P256" s="73"/>
-      <c r="Q256" s="72" t="e">
+      <c r="O256" s="87"/>
+      <c r="P256" s="29"/>
+      <c r="Q256" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13866,8 +14127,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC256" s="68"/>
-      <c r="AD256" s="92"/>
+      <c r="AC256" s="90"/>
+      <c r="AD256" s="91"/>
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
@@ -13893,8 +14154,9 @@
       <c r="L257" s="59"/>
       <c r="M257" s="59"/>
       <c r="N257" s="59"/>
-      <c r="P257" s="73"/>
-      <c r="Q257" s="72" t="e">
+      <c r="O257" s="87"/>
+      <c r="P257" s="29"/>
+      <c r="Q257" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13915,8 +14177,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC257" s="68"/>
-      <c r="AD257" s="92"/>
+      <c r="AC257" s="90"/>
+      <c r="AD257" s="91"/>
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
@@ -13942,8 +14204,9 @@
       <c r="L258" s="59"/>
       <c r="M258" s="59"/>
       <c r="N258" s="59"/>
-      <c r="P258" s="73"/>
-      <c r="Q258" s="72" t="e">
+      <c r="O258" s="87"/>
+      <c r="P258" s="29"/>
+      <c r="Q258" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -13964,8 +14227,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC258" s="68"/>
-      <c r="AD258" s="92"/>
+      <c r="AC258" s="90"/>
+      <c r="AD258" s="91"/>
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
@@ -13991,8 +14254,9 @@
       <c r="L259" s="59"/>
       <c r="M259" s="59"/>
       <c r="N259" s="59"/>
-      <c r="P259" s="73"/>
-      <c r="Q259" s="72" t="e">
+      <c r="O259" s="87"/>
+      <c r="P259" s="29"/>
+      <c r="Q259" s="84" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
@@ -14013,8 +14277,8 @@
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="AC259" s="68"/>
-      <c r="AD259" s="92"/>
+      <c r="AC259" s="90"/>
+      <c r="AD259" s="91"/>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
@@ -14040,8 +14304,9 @@
       <c r="L260" s="59"/>
       <c r="M260" s="59"/>
       <c r="N260" s="59"/>
-      <c r="P260" s="73"/>
-      <c r="Q260" s="72" t="e">
+      <c r="O260" s="87"/>
+      <c r="P260" s="29"/>
+      <c r="Q260" s="84" t="e">
         <f t="shared" ref="Q260:Q311" si="28">VLOOKUP(R260,tabla_Auditor,2,)</f>
         <v>#N/A</v>
       </c>
@@ -14062,8 +14327,8 @@
         <f t="shared" ref="AB260:AB311" si="30">VLOOKUP(AC260,Tabla_opcion,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC260" s="68"/>
-      <c r="AD260" s="92"/>
+      <c r="AC260" s="90"/>
+      <c r="AD260" s="91"/>
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
@@ -14089,8 +14354,9 @@
       <c r="L261" s="59"/>
       <c r="M261" s="59"/>
       <c r="N261" s="59"/>
-      <c r="P261" s="73"/>
-      <c r="Q261" s="72" t="e">
+      <c r="O261" s="87"/>
+      <c r="P261" s="29"/>
+      <c r="Q261" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14111,8 +14377,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC261" s="68"/>
-      <c r="AD261" s="92"/>
+      <c r="AC261" s="90"/>
+      <c r="AD261" s="91"/>
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
@@ -14138,8 +14404,9 @@
       <c r="L262" s="59"/>
       <c r="M262" s="59"/>
       <c r="N262" s="59"/>
-      <c r="P262" s="73"/>
-      <c r="Q262" s="72" t="e">
+      <c r="O262" s="87"/>
+      <c r="P262" s="29"/>
+      <c r="Q262" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14160,8 +14427,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC262" s="68"/>
-      <c r="AD262" s="92"/>
+      <c r="AC262" s="90"/>
+      <c r="AD262" s="91"/>
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
@@ -14187,8 +14454,9 @@
       <c r="L263" s="59"/>
       <c r="M263" s="59"/>
       <c r="N263" s="59"/>
-      <c r="P263" s="73"/>
-      <c r="Q263" s="72" t="e">
+      <c r="O263" s="87"/>
+      <c r="P263" s="29"/>
+      <c r="Q263" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14209,8 +14477,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC263" s="68"/>
-      <c r="AD263" s="92"/>
+      <c r="AC263" s="90"/>
+      <c r="AD263" s="91"/>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
@@ -14236,8 +14504,9 @@
       <c r="L264" s="59"/>
       <c r="M264" s="59"/>
       <c r="N264" s="59"/>
-      <c r="P264" s="73"/>
-      <c r="Q264" s="72" t="e">
+      <c r="O264" s="87"/>
+      <c r="P264" s="29"/>
+      <c r="Q264" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14258,8 +14527,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC264" s="68"/>
-      <c r="AD264" s="92"/>
+      <c r="AC264" s="90"/>
+      <c r="AD264" s="91"/>
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
@@ -14285,8 +14554,9 @@
       <c r="L265" s="59"/>
       <c r="M265" s="59"/>
       <c r="N265" s="59"/>
-      <c r="P265" s="73"/>
-      <c r="Q265" s="72" t="e">
+      <c r="O265" s="87"/>
+      <c r="P265" s="29"/>
+      <c r="Q265" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14307,8 +14577,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC265" s="68"/>
-      <c r="AD265" s="92"/>
+      <c r="AC265" s="90"/>
+      <c r="AD265" s="91"/>
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
@@ -14334,8 +14604,9 @@
       <c r="L266" s="59"/>
       <c r="M266" s="59"/>
       <c r="N266" s="59"/>
-      <c r="P266" s="73"/>
-      <c r="Q266" s="72" t="e">
+      <c r="O266" s="87"/>
+      <c r="P266" s="29"/>
+      <c r="Q266" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14356,8 +14627,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC266" s="68"/>
-      <c r="AD266" s="92"/>
+      <c r="AC266" s="90"/>
+      <c r="AD266" s="91"/>
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
@@ -14383,8 +14654,9 @@
       <c r="L267" s="59"/>
       <c r="M267" s="59"/>
       <c r="N267" s="59"/>
-      <c r="P267" s="73"/>
-      <c r="Q267" s="72" t="e">
+      <c r="O267" s="87"/>
+      <c r="P267" s="29"/>
+      <c r="Q267" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14405,8 +14677,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC267" s="68"/>
-      <c r="AD267" s="92"/>
+      <c r="AC267" s="90"/>
+      <c r="AD267" s="91"/>
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
@@ -14432,8 +14704,9 @@
       <c r="L268" s="59"/>
       <c r="M268" s="59"/>
       <c r="N268" s="59"/>
-      <c r="P268" s="73"/>
-      <c r="Q268" s="72" t="e">
+      <c r="O268" s="87"/>
+      <c r="P268" s="29"/>
+      <c r="Q268" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14454,8 +14727,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC268" s="68"/>
-      <c r="AD268" s="92"/>
+      <c r="AC268" s="90"/>
+      <c r="AD268" s="91"/>
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
@@ -14481,8 +14754,9 @@
       <c r="L269" s="59"/>
       <c r="M269" s="59"/>
       <c r="N269" s="59"/>
-      <c r="P269" s="73"/>
-      <c r="Q269" s="72" t="e">
+      <c r="O269" s="87"/>
+      <c r="P269" s="29"/>
+      <c r="Q269" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14503,8 +14777,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC269" s="68"/>
-      <c r="AD269" s="92"/>
+      <c r="AC269" s="90"/>
+      <c r="AD269" s="91"/>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
@@ -14530,8 +14804,9 @@
       <c r="L270" s="59"/>
       <c r="M270" s="59"/>
       <c r="N270" s="59"/>
-      <c r="P270" s="73"/>
-      <c r="Q270" s="72" t="e">
+      <c r="O270" s="87"/>
+      <c r="P270" s="29"/>
+      <c r="Q270" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14552,8 +14827,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC270" s="68"/>
-      <c r="AD270" s="92"/>
+      <c r="AC270" s="90"/>
+      <c r="AD270" s="91"/>
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
@@ -14579,8 +14854,9 @@
       <c r="L271" s="59"/>
       <c r="M271" s="59"/>
       <c r="N271" s="59"/>
-      <c r="P271" s="73"/>
-      <c r="Q271" s="72" t="e">
+      <c r="O271" s="87"/>
+      <c r="P271" s="29"/>
+      <c r="Q271" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14601,8 +14877,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC271" s="68"/>
-      <c r="AD271" s="92"/>
+      <c r="AC271" s="90"/>
+      <c r="AD271" s="91"/>
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
@@ -14628,8 +14904,9 @@
       <c r="L272" s="59"/>
       <c r="M272" s="59"/>
       <c r="N272" s="59"/>
-      <c r="P272" s="73"/>
-      <c r="Q272" s="72" t="e">
+      <c r="O272" s="87"/>
+      <c r="P272" s="29"/>
+      <c r="Q272" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14650,8 +14927,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC272" s="68"/>
-      <c r="AD272" s="92"/>
+      <c r="AC272" s="90"/>
+      <c r="AD272" s="91"/>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
@@ -14677,8 +14954,9 @@
       <c r="L273" s="59"/>
       <c r="M273" s="59"/>
       <c r="N273" s="59"/>
-      <c r="P273" s="73"/>
-      <c r="Q273" s="72" t="e">
+      <c r="O273" s="87"/>
+      <c r="P273" s="29"/>
+      <c r="Q273" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14699,8 +14977,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC273" s="68"/>
-      <c r="AD273" s="92"/>
+      <c r="AC273" s="90"/>
+      <c r="AD273" s="91"/>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
@@ -14726,8 +15004,9 @@
       <c r="L274" s="59"/>
       <c r="M274" s="59"/>
       <c r="N274" s="59"/>
-      <c r="P274" s="73"/>
-      <c r="Q274" s="72" t="e">
+      <c r="O274" s="87"/>
+      <c r="P274" s="29"/>
+      <c r="Q274" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14748,8 +15027,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC274" s="68"/>
-      <c r="AD274" s="92"/>
+      <c r="AC274" s="90"/>
+      <c r="AD274" s="91"/>
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
@@ -14775,8 +15054,9 @@
       <c r="L275" s="59"/>
       <c r="M275" s="59"/>
       <c r="N275" s="59"/>
-      <c r="P275" s="73"/>
-      <c r="Q275" s="72" t="e">
+      <c r="O275" s="87"/>
+      <c r="P275" s="29"/>
+      <c r="Q275" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14797,8 +15077,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC275" s="68"/>
-      <c r="AD275" s="92"/>
+      <c r="AC275" s="90"/>
+      <c r="AD275" s="91"/>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
@@ -14824,8 +15104,9 @@
       <c r="L276" s="59"/>
       <c r="M276" s="59"/>
       <c r="N276" s="59"/>
-      <c r="P276" s="73"/>
-      <c r="Q276" s="72" t="e">
+      <c r="O276" s="87"/>
+      <c r="P276" s="29"/>
+      <c r="Q276" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14846,8 +15127,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC276" s="68"/>
-      <c r="AD276" s="92"/>
+      <c r="AC276" s="90"/>
+      <c r="AD276" s="91"/>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
@@ -14873,8 +15154,9 @@
       <c r="L277" s="59"/>
       <c r="M277" s="59"/>
       <c r="N277" s="59"/>
-      <c r="P277" s="73"/>
-      <c r="Q277" s="72" t="e">
+      <c r="O277" s="87"/>
+      <c r="P277" s="29"/>
+      <c r="Q277" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14895,8 +15177,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC277" s="68"/>
-      <c r="AD277" s="92"/>
+      <c r="AC277" s="90"/>
+      <c r="AD277" s="91"/>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
@@ -14922,8 +15204,9 @@
       <c r="L278" s="59"/>
       <c r="M278" s="59"/>
       <c r="N278" s="59"/>
-      <c r="P278" s="73"/>
-      <c r="Q278" s="72" t="e">
+      <c r="O278" s="87"/>
+      <c r="P278" s="29"/>
+      <c r="Q278" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14944,8 +15227,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC278" s="68"/>
-      <c r="AD278" s="92"/>
+      <c r="AC278" s="90"/>
+      <c r="AD278" s="91"/>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
@@ -14971,8 +15254,9 @@
       <c r="L279" s="59"/>
       <c r="M279" s="59"/>
       <c r="N279" s="59"/>
-      <c r="P279" s="73"/>
-      <c r="Q279" s="72" t="e">
+      <c r="O279" s="87"/>
+      <c r="P279" s="29"/>
+      <c r="Q279" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -14993,8 +15277,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC279" s="68"/>
-      <c r="AD279" s="92"/>
+      <c r="AC279" s="90"/>
+      <c r="AD279" s="91"/>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
@@ -15020,8 +15304,9 @@
       <c r="L280" s="59"/>
       <c r="M280" s="59"/>
       <c r="N280" s="59"/>
-      <c r="P280" s="73"/>
-      <c r="Q280" s="72" t="e">
+      <c r="O280" s="87"/>
+      <c r="P280" s="29"/>
+      <c r="Q280" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15042,8 +15327,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC280" s="68"/>
-      <c r="AD280" s="92"/>
+      <c r="AC280" s="90"/>
+      <c r="AD280" s="91"/>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
@@ -15069,8 +15354,9 @@
       <c r="L281" s="59"/>
       <c r="M281" s="59"/>
       <c r="N281" s="59"/>
-      <c r="P281" s="73"/>
-      <c r="Q281" s="72" t="e">
+      <c r="O281" s="87"/>
+      <c r="P281" s="29"/>
+      <c r="Q281" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15091,8 +15377,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC281" s="68"/>
-      <c r="AD281" s="92"/>
+      <c r="AC281" s="90"/>
+      <c r="AD281" s="91"/>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
@@ -15118,8 +15404,9 @@
       <c r="L282" s="59"/>
       <c r="M282" s="59"/>
       <c r="N282" s="59"/>
-      <c r="P282" s="73"/>
-      <c r="Q282" s="72" t="e">
+      <c r="O282" s="87"/>
+      <c r="P282" s="29"/>
+      <c r="Q282" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15140,8 +15427,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC282" s="68"/>
-      <c r="AD282" s="92"/>
+      <c r="AC282" s="90"/>
+      <c r="AD282" s="91"/>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
@@ -15167,8 +15454,9 @@
       <c r="L283" s="59"/>
       <c r="M283" s="59"/>
       <c r="N283" s="59"/>
-      <c r="P283" s="73"/>
-      <c r="Q283" s="72" t="e">
+      <c r="O283" s="87"/>
+      <c r="P283" s="29"/>
+      <c r="Q283" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15189,8 +15477,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC283" s="68"/>
-      <c r="AD283" s="92"/>
+      <c r="AC283" s="90"/>
+      <c r="AD283" s="91"/>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
@@ -15216,8 +15504,9 @@
       <c r="L284" s="59"/>
       <c r="M284" s="59"/>
       <c r="N284" s="59"/>
-      <c r="P284" s="73"/>
-      <c r="Q284" s="72" t="e">
+      <c r="O284" s="87"/>
+      <c r="P284" s="29"/>
+      <c r="Q284" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15238,8 +15527,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC284" s="68"/>
-      <c r="AD284" s="92"/>
+      <c r="AC284" s="90"/>
+      <c r="AD284" s="91"/>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
@@ -15265,8 +15554,9 @@
       <c r="L285" s="59"/>
       <c r="M285" s="59"/>
       <c r="N285" s="59"/>
-      <c r="P285" s="73"/>
-      <c r="Q285" s="72" t="e">
+      <c r="O285" s="87"/>
+      <c r="P285" s="29"/>
+      <c r="Q285" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15287,8 +15577,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC285" s="68"/>
-      <c r="AD285" s="92"/>
+      <c r="AC285" s="90"/>
+      <c r="AD285" s="91"/>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
@@ -15314,8 +15604,9 @@
       <c r="L286" s="59"/>
       <c r="M286" s="59"/>
       <c r="N286" s="59"/>
-      <c r="P286" s="73"/>
-      <c r="Q286" s="72" t="e">
+      <c r="O286" s="87"/>
+      <c r="P286" s="29"/>
+      <c r="Q286" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15336,8 +15627,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC286" s="68"/>
-      <c r="AD286" s="92"/>
+      <c r="AC286" s="90"/>
+      <c r="AD286" s="91"/>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
@@ -15363,8 +15654,9 @@
       <c r="L287" s="59"/>
       <c r="M287" s="59"/>
       <c r="N287" s="59"/>
-      <c r="P287" s="73"/>
-      <c r="Q287" s="72" t="e">
+      <c r="O287" s="87"/>
+      <c r="P287" s="29"/>
+      <c r="Q287" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15385,8 +15677,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC287" s="68"/>
-      <c r="AD287" s="92"/>
+      <c r="AC287" s="90"/>
+      <c r="AD287" s="91"/>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
@@ -15412,8 +15704,9 @@
       <c r="L288" s="59"/>
       <c r="M288" s="59"/>
       <c r="N288" s="59"/>
-      <c r="P288" s="73"/>
-      <c r="Q288" s="72" t="e">
+      <c r="O288" s="87"/>
+      <c r="P288" s="29"/>
+      <c r="Q288" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15434,8 +15727,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC288" s="68"/>
-      <c r="AD288" s="92"/>
+      <c r="AC288" s="90"/>
+      <c r="AD288" s="91"/>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
@@ -15461,8 +15754,9 @@
       <c r="L289" s="59"/>
       <c r="M289" s="59"/>
       <c r="N289" s="59"/>
-      <c r="P289" s="73"/>
-      <c r="Q289" s="72" t="e">
+      <c r="O289" s="87"/>
+      <c r="P289" s="29"/>
+      <c r="Q289" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15483,8 +15777,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC289" s="68"/>
-      <c r="AD289" s="92"/>
+      <c r="AC289" s="90"/>
+      <c r="AD289" s="91"/>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
@@ -15510,8 +15804,9 @@
       <c r="L290" s="59"/>
       <c r="M290" s="59"/>
       <c r="N290" s="59"/>
-      <c r="P290" s="73"/>
-      <c r="Q290" s="72" t="e">
+      <c r="O290" s="87"/>
+      <c r="P290" s="29"/>
+      <c r="Q290" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15532,8 +15827,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC290" s="68"/>
-      <c r="AD290" s="92"/>
+      <c r="AC290" s="90"/>
+      <c r="AD290" s="91"/>
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
@@ -15559,8 +15854,9 @@
       <c r="L291" s="59"/>
       <c r="M291" s="59"/>
       <c r="N291" s="59"/>
-      <c r="P291" s="73"/>
-      <c r="Q291" s="72" t="e">
+      <c r="O291" s="87"/>
+      <c r="P291" s="29"/>
+      <c r="Q291" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15581,8 +15877,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC291" s="68"/>
-      <c r="AD291" s="92"/>
+      <c r="AC291" s="90"/>
+      <c r="AD291" s="91"/>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
@@ -15608,8 +15904,9 @@
       <c r="L292" s="59"/>
       <c r="M292" s="59"/>
       <c r="N292" s="59"/>
-      <c r="P292" s="73"/>
-      <c r="Q292" s="72" t="e">
+      <c r="O292" s="87"/>
+      <c r="P292" s="29"/>
+      <c r="Q292" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15630,8 +15927,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC292" s="68"/>
-      <c r="AD292" s="92"/>
+      <c r="AC292" s="90"/>
+      <c r="AD292" s="91"/>
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
@@ -15657,8 +15954,9 @@
       <c r="L293" s="59"/>
       <c r="M293" s="59"/>
       <c r="N293" s="59"/>
-      <c r="P293" s="73"/>
-      <c r="Q293" s="72" t="e">
+      <c r="O293" s="87"/>
+      <c r="P293" s="29"/>
+      <c r="Q293" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15679,8 +15977,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC293" s="68"/>
-      <c r="AD293" s="92"/>
+      <c r="AC293" s="90"/>
+      <c r="AD293" s="91"/>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
@@ -15706,8 +16004,9 @@
       <c r="L294" s="59"/>
       <c r="M294" s="59"/>
       <c r="N294" s="59"/>
-      <c r="P294" s="73"/>
-      <c r="Q294" s="72" t="e">
+      <c r="O294" s="87"/>
+      <c r="P294" s="29"/>
+      <c r="Q294" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15728,8 +16027,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC294" s="68"/>
-      <c r="AD294" s="92"/>
+      <c r="AC294" s="90"/>
+      <c r="AD294" s="91"/>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
@@ -15755,8 +16054,9 @@
       <c r="L295" s="59"/>
       <c r="M295" s="59"/>
       <c r="N295" s="59"/>
-      <c r="P295" s="73"/>
-      <c r="Q295" s="72" t="e">
+      <c r="O295" s="87"/>
+      <c r="P295" s="29"/>
+      <c r="Q295" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15777,8 +16077,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC295" s="68"/>
-      <c r="AD295" s="92"/>
+      <c r="AC295" s="90"/>
+      <c r="AD295" s="91"/>
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
@@ -15804,8 +16104,9 @@
       <c r="L296" s="59"/>
       <c r="M296" s="59"/>
       <c r="N296" s="59"/>
-      <c r="P296" s="73"/>
-      <c r="Q296" s="72" t="e">
+      <c r="O296" s="87"/>
+      <c r="P296" s="29"/>
+      <c r="Q296" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15826,8 +16127,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC296" s="68"/>
-      <c r="AD296" s="92"/>
+      <c r="AC296" s="90"/>
+      <c r="AD296" s="91"/>
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
@@ -15853,8 +16154,9 @@
       <c r="L297" s="59"/>
       <c r="M297" s="59"/>
       <c r="N297" s="59"/>
-      <c r="P297" s="73"/>
-      <c r="Q297" s="72" t="e">
+      <c r="O297" s="87"/>
+      <c r="P297" s="29"/>
+      <c r="Q297" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15875,8 +16177,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC297" s="68"/>
-      <c r="AD297" s="92"/>
+      <c r="AC297" s="90"/>
+      <c r="AD297" s="91"/>
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
@@ -15902,8 +16204,9 @@
       <c r="L298" s="59"/>
       <c r="M298" s="59"/>
       <c r="N298" s="59"/>
-      <c r="P298" s="73"/>
-      <c r="Q298" s="72" t="e">
+      <c r="O298" s="87"/>
+      <c r="P298" s="29"/>
+      <c r="Q298" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15924,8 +16227,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC298" s="68"/>
-      <c r="AD298" s="92"/>
+      <c r="AC298" s="90"/>
+      <c r="AD298" s="91"/>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
@@ -15951,8 +16254,9 @@
       <c r="L299" s="59"/>
       <c r="M299" s="59"/>
       <c r="N299" s="59"/>
-      <c r="P299" s="73"/>
-      <c r="Q299" s="72" t="e">
+      <c r="O299" s="87"/>
+      <c r="P299" s="29"/>
+      <c r="Q299" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -15973,8 +16277,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC299" s="68"/>
-      <c r="AD299" s="92"/>
+      <c r="AC299" s="90"/>
+      <c r="AD299" s="91"/>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
@@ -16000,8 +16304,9 @@
       <c r="L300" s="59"/>
       <c r="M300" s="59"/>
       <c r="N300" s="59"/>
-      <c r="P300" s="73"/>
-      <c r="Q300" s="72" t="e">
+      <c r="O300" s="87"/>
+      <c r="P300" s="29"/>
+      <c r="Q300" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16022,8 +16327,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC300" s="68"/>
-      <c r="AD300" s="92"/>
+      <c r="AC300" s="90"/>
+      <c r="AD300" s="91"/>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
@@ -16049,8 +16354,9 @@
       <c r="L301" s="59"/>
       <c r="M301" s="59"/>
       <c r="N301" s="59"/>
-      <c r="P301" s="73"/>
-      <c r="Q301" s="72" t="e">
+      <c r="O301" s="87"/>
+      <c r="P301" s="29"/>
+      <c r="Q301" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16071,8 +16377,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC301" s="68"/>
-      <c r="AD301" s="92"/>
+      <c r="AC301" s="90"/>
+      <c r="AD301" s="91"/>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
@@ -16098,8 +16404,9 @@
       <c r="L302" s="59"/>
       <c r="M302" s="59"/>
       <c r="N302" s="59"/>
-      <c r="P302" s="73"/>
-      <c r="Q302" s="72" t="e">
+      <c r="O302" s="87"/>
+      <c r="P302" s="29"/>
+      <c r="Q302" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16120,8 +16427,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC302" s="68"/>
-      <c r="AD302" s="92"/>
+      <c r="AC302" s="90"/>
+      <c r="AD302" s="91"/>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
@@ -16147,8 +16454,9 @@
       <c r="L303" s="59"/>
       <c r="M303" s="59"/>
       <c r="N303" s="59"/>
-      <c r="P303" s="73"/>
-      <c r="Q303" s="72" t="e">
+      <c r="O303" s="87"/>
+      <c r="P303" s="29"/>
+      <c r="Q303" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16169,8 +16477,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC303" s="68"/>
-      <c r="AD303" s="92"/>
+      <c r="AC303" s="90"/>
+      <c r="AD303" s="91"/>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
@@ -16196,8 +16504,9 @@
       <c r="L304" s="59"/>
       <c r="M304" s="59"/>
       <c r="N304" s="59"/>
-      <c r="P304" s="73"/>
-      <c r="Q304" s="72" t="e">
+      <c r="O304" s="87"/>
+      <c r="P304" s="29"/>
+      <c r="Q304" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16218,8 +16527,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC304" s="68"/>
-      <c r="AD304" s="92"/>
+      <c r="AC304" s="90"/>
+      <c r="AD304" s="91"/>
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
@@ -16245,8 +16554,9 @@
       <c r="L305" s="59"/>
       <c r="M305" s="59"/>
       <c r="N305" s="59"/>
-      <c r="P305" s="73"/>
-      <c r="Q305" s="72" t="e">
+      <c r="O305" s="87"/>
+      <c r="P305" s="29"/>
+      <c r="Q305" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16267,8 +16577,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC305" s="68"/>
-      <c r="AD305" s="92"/>
+      <c r="AC305" s="90"/>
+      <c r="AD305" s="91"/>
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
@@ -16294,8 +16604,9 @@
       <c r="L306" s="59"/>
       <c r="M306" s="59"/>
       <c r="N306" s="59"/>
-      <c r="P306" s="73"/>
-      <c r="Q306" s="72" t="e">
+      <c r="O306" s="87"/>
+      <c r="P306" s="29"/>
+      <c r="Q306" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16316,8 +16627,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC306" s="68"/>
-      <c r="AD306" s="92"/>
+      <c r="AC306" s="90"/>
+      <c r="AD306" s="91"/>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
@@ -16343,8 +16654,9 @@
       <c r="L307" s="59"/>
       <c r="M307" s="59"/>
       <c r="N307" s="59"/>
-      <c r="P307" s="73"/>
-      <c r="Q307" s="72" t="e">
+      <c r="O307" s="87"/>
+      <c r="P307" s="29"/>
+      <c r="Q307" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16365,8 +16677,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC307" s="68"/>
-      <c r="AD307" s="92"/>
+      <c r="AC307" s="90"/>
+      <c r="AD307" s="91"/>
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
@@ -16392,8 +16704,9 @@
       <c r="L308" s="59"/>
       <c r="M308" s="59"/>
       <c r="N308" s="59"/>
-      <c r="P308" s="73"/>
-      <c r="Q308" s="72" t="e">
+      <c r="O308" s="87"/>
+      <c r="P308" s="29"/>
+      <c r="Q308" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16414,8 +16727,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC308" s="68"/>
-      <c r="AD308" s="92"/>
+      <c r="AC308" s="90"/>
+      <c r="AD308" s="91"/>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
@@ -16441,8 +16754,9 @@
       <c r="L309" s="59"/>
       <c r="M309" s="59"/>
       <c r="N309" s="59"/>
-      <c r="P309" s="73"/>
-      <c r="Q309" s="72" t="e">
+      <c r="O309" s="87"/>
+      <c r="P309" s="29"/>
+      <c r="Q309" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16463,8 +16777,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC309" s="68"/>
-      <c r="AD309" s="92"/>
+      <c r="AC309" s="90"/>
+      <c r="AD309" s="91"/>
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
@@ -16490,8 +16804,9 @@
       <c r="L310" s="59"/>
       <c r="M310" s="59"/>
       <c r="N310" s="59"/>
-      <c r="P310" s="73"/>
-      <c r="Q310" s="72" t="e">
+      <c r="O310" s="87"/>
+      <c r="P310" s="29"/>
+      <c r="Q310" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16512,8 +16827,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC310" s="68"/>
-      <c r="AD310" s="92"/>
+      <c r="AC310" s="90"/>
+      <c r="AD310" s="91"/>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
@@ -16539,8 +16854,9 @@
       <c r="L311" s="59"/>
       <c r="M311" s="59"/>
       <c r="N311" s="59"/>
-      <c r="P311" s="73"/>
-      <c r="Q311" s="72" t="e">
+      <c r="O311" s="87"/>
+      <c r="P311" s="29"/>
+      <c r="Q311" s="84" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
@@ -16561,8 +16877,8 @@
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC311" s="68"/>
-      <c r="AD311" s="92"/>
+      <c r="AC311" s="90"/>
+      <c r="AD311" s="91"/>
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
@@ -16588,25 +16904,121 @@
       <c r="L312" s="59"/>
       <c r="M312" s="59"/>
       <c r="N312" s="59"/>
-      <c r="P312" s="73"/>
-      <c r="AD312" s="92"/>
+      <c r="O312" s="87"/>
+      <c r="P312" s="29"/>
+      <c r="Q312" s="87"/>
+      <c r="R312" s="87"/>
+      <c r="S312" s="87"/>
+      <c r="T312" s="87"/>
+      <c r="U312" s="87"/>
+      <c r="V312" s="87"/>
+      <c r="W312" s="87"/>
+      <c r="X312" s="87"/>
+      <c r="Y312" s="87"/>
+      <c r="Z312" s="87"/>
+      <c r="AA312" s="87"/>
+      <c r="AB312" s="87"/>
+      <c r="AC312" s="87"/>
+      <c r="AD312" s="91"/>
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A313" s="87"/>
+      <c r="B313" s="87"/>
+      <c r="C313" s="87"/>
+      <c r="D313" s="87"/>
       <c r="E313" s="29"/>
-      <c r="P313" s="73"/>
-      <c r="AD313" s="69"/>
+      <c r="F313" s="87"/>
+      <c r="G313" s="87"/>
+      <c r="H313" s="87"/>
+      <c r="I313" s="87"/>
+      <c r="J313" s="87"/>
+      <c r="K313" s="87"/>
+      <c r="L313" s="87"/>
+      <c r="M313" s="87"/>
+      <c r="N313" s="87"/>
+      <c r="O313" s="87"/>
+      <c r="P313" s="29"/>
+      <c r="Q313" s="87"/>
+      <c r="R313" s="87"/>
+      <c r="S313" s="87"/>
+      <c r="T313" s="87"/>
+      <c r="U313" s="87"/>
+      <c r="V313" s="87"/>
+      <c r="W313" s="87"/>
+      <c r="X313" s="87"/>
+      <c r="Y313" s="87"/>
+      <c r="Z313" s="87"/>
+      <c r="AA313" s="87"/>
+      <c r="AB313" s="87"/>
+      <c r="AC313" s="87"/>
+      <c r="AD313" s="92"/>
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A314" s="87"/>
+      <c r="B314" s="87"/>
+      <c r="C314" s="87"/>
+      <c r="D314" s="87"/>
       <c r="E314" s="29"/>
-      <c r="P314" s="73"/>
-      <c r="AD314" s="69"/>
+      <c r="F314" s="87"/>
+      <c r="G314" s="87"/>
+      <c r="H314" s="87"/>
+      <c r="I314" s="87"/>
+      <c r="J314" s="87"/>
+      <c r="K314" s="87"/>
+      <c r="L314" s="87"/>
+      <c r="M314" s="87"/>
+      <c r="N314" s="87"/>
+      <c r="O314" s="87"/>
+      <c r="P314" s="29"/>
+      <c r="Q314" s="87"/>
+      <c r="R314" s="87"/>
+      <c r="S314" s="87"/>
+      <c r="T314" s="87"/>
+      <c r="U314" s="87"/>
+      <c r="V314" s="87"/>
+      <c r="W314" s="87"/>
+      <c r="X314" s="87"/>
+      <c r="Y314" s="87"/>
+      <c r="Z314" s="87"/>
+      <c r="AA314" s="87"/>
+      <c r="AB314" s="87"/>
+      <c r="AC314" s="87"/>
+      <c r="AD314" s="92"/>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A315" s="87"/>
+      <c r="B315" s="87"/>
+      <c r="C315" s="87"/>
+      <c r="D315" s="87"/>
       <c r="E315" s="29"/>
-      <c r="AD315" s="69"/>
+      <c r="F315" s="87"/>
+      <c r="G315" s="87"/>
+      <c r="H315" s="87"/>
+      <c r="I315" s="87"/>
+      <c r="J315" s="87"/>
+      <c r="K315" s="87"/>
+      <c r="L315" s="87"/>
+      <c r="M315" s="87"/>
+      <c r="N315" s="87"/>
+      <c r="O315" s="87"/>
+      <c r="P315" s="87"/>
+      <c r="Q315" s="87"/>
+      <c r="R315" s="87"/>
+      <c r="S315" s="87"/>
+      <c r="T315" s="87"/>
+      <c r="U315" s="87"/>
+      <c r="V315" s="87"/>
+      <c r="W315" s="87"/>
+      <c r="X315" s="87"/>
+      <c r="Y315" s="87"/>
+      <c r="Z315" s="87"/>
+      <c r="AA315" s="87"/>
+      <c r="AB315" s="87"/>
+      <c r="AC315" s="87"/>
+      <c r="AD315" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RKBwfDRd5QaNTT+BPvv/HCLznJt9+bJ+7jiMmsxHh6kzE61ZB0NgewUhsPzuLHwcMbPzx2fvRoWBc1nmVUJjOg==" saltValue="8Dan1vXMvU5F36R01khung==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:AD2"/>
   </mergeCells>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitsource\back-end\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F528B8-B3A8-438A-84CE-0785A1978289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC070E4-5E40-4C09-AD21-8CDE5C40D3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
   </bookViews>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:AE316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17506,7 +17506,7 @@
       <c r="AD316" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OiUh30QK8KQoHPD5ieqm9uEzR4nWKzhJuGfN9B7Xfm1djdauHR7lJW9pizlmnj6lx8DpwXce/rzq2Rc0fNolhQ==" saltValue="DiLRKeyKdX50ncqa+I/cpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8B/+8SUjS+GPw3NZ84T0zGJJqVSQuiYVKyjteWeGfmRTLAbFWhfd3LSc8A3Z1jEckxLJTtTYVFunCtNdkkjpoA==" saltValue="6bGRxPSxN9POfAo5+iPFjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A3:AE3"/>
     <mergeCell ref="A1:A2"/>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitsource\back-end\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF7BC23-24F1-4C60-9B78-175CDF055929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826725D6-2E64-4BBC-AB43-4A1251D1D896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
   </bookViews>
@@ -35,18 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>Anno</t>
   </si>
@@ -295,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fecha de implementación de la segunda auditoría y verificacion de resultadas estimadas del impacto. En caso se tenga que dejar vacia la celda, colocar la fecha (01/01/1920) Ingrese sus datos.  </t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1369,7 @@
   <dimension ref="A1:AE316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="AC2" s="62" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="AD2" s="63" t="s">
         <v>53</v>
@@ -23648,7 +23645,7 @@
       <c r="AD316" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9fNEDWtMHCxi5T2vAbpoAStDeOxlkb3z0lIJpnqtgogpSCPjT0THyujfkDsxhZUsTNl2mWW3OPjYj8j5jmP0mg==" saltValue="h1mMnhnnloeB36WwKHyThA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZKfDqNtkYd0IWtR3yZ6D3IMqZtr/UdGyEnqU3kOG2Ph+HZ+tW7sC7/Sod5x6LV2aEWVokzOuX03H8suOVYvmcw==" saltValue="iTw+b6kLz0At8FUsGb7YBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A3:AE3"/>
     <mergeCell ref="A1:A2"/>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.4 Plantilla_Auditoria_energetica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B67AB-2546-4077-AD53-AAE72D7B1583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A750A9-C10F-420E-A582-924FBF19B2DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E5039C4-2A71-47B3-941E-557D52B97803}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>Fuente de energía utilizada para el funcionamiento de el/los equipos y/o desarrollo del proceso. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Total del consumo del energético para el funcionamiento del/los equipos y/o desarrollo del proceso durante un año. Inserte sus datos.</t>
-  </si>
-  <si>
     <t>Unidad de medición del energético. Seleccione de la lista desplegable.</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
   </si>
   <si>
     <t>Cantidad de equipos a mejorar o cambiar por recomendación de la auditoría. En caso de mejora de proceso, colocar 1. Ingrese sus datos.</t>
-  </si>
-  <si>
-    <t>Total de unidades del energético durante un año para el funcionamiento de el/los equipos y/o desarrollo del proceso. Ingrese sus datos.</t>
   </si>
   <si>
     <t>Unidad de medición. Seleccione de la lista desplegable.</t>
@@ -293,6 +287,108 @@
   <si>
     <t>Estado</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total del consumo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">energético </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unitario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para el funcionamiento del equipo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y/o desarrollo del proceso. Ingrese sus datos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> energético </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unitario</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para el funcionamiento del equipo y/o desarrollo del proceso durante un año. Inserte sus datos.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +445,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -993,27 +1096,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,6 +1150,27 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1772-35AF-4198-9510-18D55384E446}">
   <dimension ref="A1:AE317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,43 +1526,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="110" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="52"/>
-      <c r="C1" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="92" t="s">
+      <c r="C1" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="O1" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="AC1" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="O1" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="AC1" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
     </row>
     <row r="2" spans="1:31" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
+      <c r="A2" s="110"/>
       <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="84" t="s">
         <v>12</v>
       </c>
@@ -1470,10 +1573,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>4</v>
@@ -1516,49 +1619,49 @@
         <v>10</v>
       </c>
       <c r="AC2" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD2" s="57" t="s">
         <v>53</v>
       </c>
       <c r="AE2" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
     </row>
     <row r="4" spans="1:31" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -1579,32 +1682,32 @@
         <v>62</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I4" s="49"/>
       <c r="J4" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
       <c r="O4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="49" t="s">
         <v>65</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>66</v>
       </c>
       <c r="Q4" s="49"/>
       <c r="R4" s="49" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="T4" s="49"/>
       <c r="U4" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V4" s="49"/>
       <c r="W4" s="49"/>
@@ -1614,13 +1717,13 @@
       <c r="AA4" s="49"/>
       <c r="AB4" s="67"/>
       <c r="AC4" s="68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AD4" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD5" s="76">
         <v>7306</v>
@@ -24693,57 +24796,57 @@
         <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
-      <c r="J312" s="96"/>
-      <c r="K312" s="97">
-        <v>0</v>
-      </c>
-      <c r="L312" s="97">
-        <v>0</v>
-      </c>
-      <c r="M312" s="97">
-        <v>0</v>
-      </c>
-      <c r="N312" s="97">
-        <v>0</v>
-      </c>
-      <c r="O312" s="98"/>
-      <c r="P312" s="99"/>
-      <c r="Q312" s="100" t="e">
+      <c r="J312" s="89"/>
+      <c r="K312" s="90">
+        <v>0</v>
+      </c>
+      <c r="L312" s="90">
+        <v>0</v>
+      </c>
+      <c r="M312" s="90">
+        <v>0</v>
+      </c>
+      <c r="N312" s="90">
+        <v>0</v>
+      </c>
+      <c r="O312" s="91"/>
+      <c r="P312" s="92"/>
+      <c r="Q312" s="93" t="e">
         <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
-      <c r="R312" s="101"/>
-      <c r="S312" s="102"/>
-      <c r="T312" s="103" t="e">
+      <c r="R312" s="94"/>
+      <c r="S312" s="95"/>
+      <c r="T312" s="96" t="e">
         <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
-      <c r="U312" s="104"/>
-      <c r="V312" s="105">
-        <v>0</v>
-      </c>
-      <c r="W312" s="105">
-        <v>0</v>
-      </c>
-      <c r="X312" s="105">
-        <v>0</v>
-      </c>
-      <c r="Y312" s="105">
-        <v>0</v>
-      </c>
-      <c r="Z312" s="105">
-        <v>0</v>
-      </c>
-      <c r="AA312" s="105">
-        <v>0</v>
-      </c>
-      <c r="AB312" s="106" t="e">
+      <c r="U312" s="97"/>
+      <c r="V312" s="98">
+        <v>0</v>
+      </c>
+      <c r="W312" s="98">
+        <v>0</v>
+      </c>
+      <c r="X312" s="98">
+        <v>0</v>
+      </c>
+      <c r="Y312" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z312" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA312" s="98">
+        <v>0</v>
+      </c>
+      <c r="AB312" s="99" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AC312" s="107"/>
-      <c r="AD312" s="108"/>
-      <c r="AE312" s="108"/>
+      <c r="AC312" s="100"/>
+      <c r="AD312" s="101"/>
+      <c r="AE312" s="101"/>
     </row>
     <row r="313" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A313" s="26"/>
@@ -24764,28 +24867,28 @@
         <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
-      <c r="J313" s="96"/>
-      <c r="K313" s="109"/>
-      <c r="L313" s="109"/>
-      <c r="M313" s="109"/>
-      <c r="N313" s="109"/>
-      <c r="O313" s="98"/>
-      <c r="P313" s="99"/>
-      <c r="Q313" s="110"/>
-      <c r="R313" s="110"/>
-      <c r="S313" s="110"/>
-      <c r="T313" s="110"/>
-      <c r="U313" s="110"/>
-      <c r="V313" s="110"/>
-      <c r="W313" s="110"/>
-      <c r="X313" s="110"/>
-      <c r="Y313" s="110"/>
-      <c r="Z313" s="110"/>
-      <c r="AA313" s="110"/>
-      <c r="AB313" s="110"/>
-      <c r="AC313" s="110"/>
-      <c r="AD313" s="108"/>
-      <c r="AE313" s="108"/>
+      <c r="J313" s="89"/>
+      <c r="K313" s="102"/>
+      <c r="L313" s="102"/>
+      <c r="M313" s="102"/>
+      <c r="N313" s="102"/>
+      <c r="O313" s="91"/>
+      <c r="P313" s="92"/>
+      <c r="Q313" s="103"/>
+      <c r="R313" s="103"/>
+      <c r="S313" s="103"/>
+      <c r="T313" s="103"/>
+      <c r="U313" s="103"/>
+      <c r="V313" s="103"/>
+      <c r="W313" s="103"/>
+      <c r="X313" s="103"/>
+      <c r="Y313" s="103"/>
+      <c r="Z313" s="103"/>
+      <c r="AA313" s="103"/>
+      <c r="AB313" s="103"/>
+      <c r="AC313" s="103"/>
+      <c r="AD313" s="101"/>
+      <c r="AE313" s="101"/>
     </row>
     <row r="314" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A314" s="33"/>
@@ -24797,28 +24900,28 @@
       <c r="G314" s="33"/>
       <c r="H314" s="33"/>
       <c r="I314" s="33"/>
-      <c r="J314" s="110"/>
-      <c r="K314" s="110"/>
-      <c r="L314" s="110"/>
-      <c r="M314" s="110"/>
-      <c r="N314" s="110"/>
-      <c r="O314" s="98"/>
-      <c r="P314" s="99"/>
-      <c r="Q314" s="110"/>
-      <c r="R314" s="110"/>
-      <c r="S314" s="110"/>
-      <c r="T314" s="110"/>
-      <c r="U314" s="110"/>
-      <c r="V314" s="110"/>
-      <c r="W314" s="110"/>
-      <c r="X314" s="110"/>
-      <c r="Y314" s="110"/>
-      <c r="Z314" s="110"/>
-      <c r="AA314" s="110"/>
-      <c r="AB314" s="110"/>
-      <c r="AC314" s="110"/>
-      <c r="AD314" s="111"/>
-      <c r="AE314" s="108"/>
+      <c r="J314" s="103"/>
+      <c r="K314" s="103"/>
+      <c r="L314" s="103"/>
+      <c r="M314" s="103"/>
+      <c r="N314" s="103"/>
+      <c r="O314" s="91"/>
+      <c r="P314" s="92"/>
+      <c r="Q314" s="103"/>
+      <c r="R314" s="103"/>
+      <c r="S314" s="103"/>
+      <c r="T314" s="103"/>
+      <c r="U314" s="103"/>
+      <c r="V314" s="103"/>
+      <c r="W314" s="103"/>
+      <c r="X314" s="103"/>
+      <c r="Y314" s="103"/>
+      <c r="Z314" s="103"/>
+      <c r="AA314" s="103"/>
+      <c r="AB314" s="103"/>
+      <c r="AC314" s="103"/>
+      <c r="AD314" s="104"/>
+      <c r="AE314" s="101"/>
     </row>
     <row r="315" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A315" s="19"/>
@@ -24830,28 +24933,28 @@
       <c r="G315" s="19"/>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
-      <c r="J315" s="112"/>
-      <c r="K315" s="112"/>
-      <c r="L315" s="112"/>
-      <c r="M315" s="112"/>
-      <c r="N315" s="112"/>
-      <c r="O315" s="113"/>
-      <c r="P315" s="114"/>
-      <c r="Q315" s="112"/>
-      <c r="R315" s="112"/>
-      <c r="S315" s="112"/>
-      <c r="T315" s="112"/>
-      <c r="U315" s="112"/>
-      <c r="V315" s="112"/>
-      <c r="W315" s="112"/>
-      <c r="X315" s="112"/>
-      <c r="Y315" s="112"/>
-      <c r="Z315" s="112"/>
-      <c r="AA315" s="112"/>
-      <c r="AB315" s="112"/>
-      <c r="AC315" s="112"/>
-      <c r="AD315" s="115"/>
-      <c r="AE315" s="112"/>
+      <c r="J315" s="105"/>
+      <c r="K315" s="105"/>
+      <c r="L315" s="105"/>
+      <c r="M315" s="105"/>
+      <c r="N315" s="105"/>
+      <c r="O315" s="106"/>
+      <c r="P315" s="107"/>
+      <c r="Q315" s="105"/>
+      <c r="R315" s="105"/>
+      <c r="S315" s="105"/>
+      <c r="T315" s="105"/>
+      <c r="U315" s="105"/>
+      <c r="V315" s="105"/>
+      <c r="W315" s="105"/>
+      <c r="X315" s="105"/>
+      <c r="Y315" s="105"/>
+      <c r="Z315" s="105"/>
+      <c r="AA315" s="105"/>
+      <c r="AB315" s="105"/>
+      <c r="AC315" s="105"/>
+      <c r="AD315" s="108"/>
+      <c r="AE315" s="105"/>
     </row>
     <row r="316" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A316" s="19"/>
@@ -24863,55 +24966,55 @@
       <c r="G316" s="19"/>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
-      <c r="J316" s="112"/>
-      <c r="K316" s="112"/>
-      <c r="L316" s="112"/>
-      <c r="M316" s="112"/>
-      <c r="N316" s="112"/>
-      <c r="O316" s="113"/>
-      <c r="P316" s="112"/>
-      <c r="Q316" s="112"/>
-      <c r="R316" s="112"/>
-      <c r="S316" s="112"/>
-      <c r="T316" s="112"/>
-      <c r="U316" s="112"/>
-      <c r="V316" s="112"/>
-      <c r="W316" s="112"/>
-      <c r="X316" s="112"/>
-      <c r="Y316" s="112"/>
-      <c r="Z316" s="112"/>
-      <c r="AA316" s="112"/>
-      <c r="AB316" s="112"/>
-      <c r="AC316" s="112"/>
-      <c r="AD316" s="115"/>
-      <c r="AE316" s="112"/>
+      <c r="J316" s="105"/>
+      <c r="K316" s="105"/>
+      <c r="L316" s="105"/>
+      <c r="M316" s="105"/>
+      <c r="N316" s="105"/>
+      <c r="O316" s="106"/>
+      <c r="P316" s="105"/>
+      <c r="Q316" s="105"/>
+      <c r="R316" s="105"/>
+      <c r="S316" s="105"/>
+      <c r="T316" s="105"/>
+      <c r="U316" s="105"/>
+      <c r="V316" s="105"/>
+      <c r="W316" s="105"/>
+      <c r="X316" s="105"/>
+      <c r="Y316" s="105"/>
+      <c r="Z316" s="105"/>
+      <c r="AA316" s="105"/>
+      <c r="AB316" s="105"/>
+      <c r="AC316" s="105"/>
+      <c r="AD316" s="108"/>
+      <c r="AE316" s="105"/>
     </row>
     <row r="317" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="J317" s="112"/>
-      <c r="K317" s="112"/>
-      <c r="L317" s="112"/>
-      <c r="M317" s="112"/>
-      <c r="N317" s="112"/>
-      <c r="O317" s="113"/>
-      <c r="P317" s="112"/>
-      <c r="Q317" s="112"/>
-      <c r="R317" s="112"/>
-      <c r="S317" s="112"/>
-      <c r="T317" s="112"/>
-      <c r="U317" s="112"/>
-      <c r="V317" s="112"/>
-      <c r="W317" s="112"/>
-      <c r="X317" s="112"/>
-      <c r="Y317" s="112"/>
-      <c r="Z317" s="112"/>
-      <c r="AA317" s="112"/>
-      <c r="AB317" s="112"/>
-      <c r="AC317" s="112"/>
-      <c r="AD317" s="112"/>
-      <c r="AE317" s="112"/>
+      <c r="J317" s="105"/>
+      <c r="K317" s="105"/>
+      <c r="L317" s="105"/>
+      <c r="M317" s="105"/>
+      <c r="N317" s="105"/>
+      <c r="O317" s="106"/>
+      <c r="P317" s="105"/>
+      <c r="Q317" s="105"/>
+      <c r="R317" s="105"/>
+      <c r="S317" s="105"/>
+      <c r="T317" s="105"/>
+      <c r="U317" s="105"/>
+      <c r="V317" s="105"/>
+      <c r="W317" s="105"/>
+      <c r="X317" s="105"/>
+      <c r="Y317" s="105"/>
+      <c r="Z317" s="105"/>
+      <c r="AA317" s="105"/>
+      <c r="AB317" s="105"/>
+      <c r="AC317" s="105"/>
+      <c r="AD317" s="105"/>
+      <c r="AE317" s="105"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+X+Rs9jU+9ODySX4ttO+9ZXjzG3QyhJhYcaysox7MCvzbnNBB2+I6WM2b8hvFb/78dOIu7htTJuWtTcSz0Ryxw==" saltValue="1gcmNpRLFa/7DiI/iS64BA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sWc8uI7kgkNNjX9+d4X5ctt2yrs4SJ7SqHptsS3c4PpOEEVbkyYYx+z4NwhuvKF4FHuVOKtZ0SASFtza4NW2AQ==" saltValue="ZIiw83ilTB6o+rhwT7b3vA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A3:AE3"/>
     <mergeCell ref="A1:A2"/>
@@ -25006,7 +25109,7 @@
         <v>8</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>8</v>
@@ -25041,7 +25144,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R5" s="11">
         <v>1</v>
@@ -25082,7 +25185,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R6" s="47">
         <v>2</v>
@@ -25123,7 +25226,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R7" s="4">
         <v>3</v>
